--- a/CountriesList.xlsx
+++ b/CountriesList.xlsx
@@ -12,7 +12,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="660">
+  <si>
+    <t>Countries List</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Currencies</t>
+  </si>
   <si>
     <t>Afghanistan</t>
   </si>
@@ -2021,3513 +2036,3535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D251"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>652230.0</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>28748.0</v>
+        <v>652230.0</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>2381741.0</v>
+        <v>28748.0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>199.0</v>
+        <v>2381741.0</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>468.0</v>
+        <v>199.0</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>1246700.0</v>
+        <v>468.0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>91.0</v>
+        <v>1246700.0</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>1.4E7</v>
+        <v>91.0</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>442.0</v>
+        <v>1.4E7</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="n">
+        <v>442.0</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2780400.0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>29743.0</v>
+        <v>2780400.0</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>180.0</v>
+        <v>29743.0</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>7692024.0</v>
+        <v>180.0</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>83871.0</v>
+        <v>7692024.0</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>86600.0</v>
+        <v>83871.0</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>13943.0</v>
+        <v>86600.0</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n">
-        <v>765.0</v>
+        <v>13943.0</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>147570.0</v>
+        <v>765.0</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
-        <v>430.0</v>
+        <v>147570.0</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
-        <v>207600.0</v>
+        <v>430.0</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="n">
-        <v>30528.0</v>
+        <v>207600.0</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" t="n">
-        <v>22966.0</v>
+        <v>30528.0</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" t="n">
-        <v>112622.0</v>
+        <v>22966.0</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" t="n">
-        <v>54.0</v>
+        <v>112622.0</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" t="n">
-        <v>38394.0</v>
+        <v>54.0</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C27" t="n">
-        <v>1098581.0</v>
+        <v>38394.0</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" t="n">
-        <v>51209.0</v>
+        <v>1098581.0</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C29" t="n">
-        <v>582000.0</v>
+        <v>51209.0</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="C30" t="n">
-        <v>49.0</v>
+        <v>582000.0</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>8515767.0</v>
+        <v>49.0</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C32" t="n">
-        <v>60.0</v>
+        <v>8515767.0</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C33" t="n">
-        <v>151.0</v>
+        <v>60.0</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C34" t="n">
-        <v>5765.0</v>
+        <v>151.0</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" t="n">
-        <v>110879.0</v>
+        <v>5765.0</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C36" t="n">
-        <v>272967.0</v>
+        <v>110879.0</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>27834.0</v>
+        <v>272967.0</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C38" t="n">
-        <v>181035.0</v>
+        <v>27834.0</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C39" t="n">
-        <v>475442.0</v>
+        <v>181035.0</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C40" t="n">
-        <v>9984670.0</v>
+        <v>475442.0</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C41" t="n">
-        <v>4033.0</v>
+        <v>9984670.0</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C42" t="n">
-        <v>328.0</v>
+        <v>4033.0</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C43" t="n">
-        <v>264.0</v>
+        <v>328.0</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C44" t="n">
-        <v>622984.0</v>
+        <v>264.0</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C45" t="n">
-        <v>1284000.0</v>
+        <v>622984.0</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C46" t="n">
-        <v>756102.0</v>
+        <v>1284000.0</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C47" t="n">
-        <v>9706961.0</v>
+        <v>756102.0</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C48" t="n">
-        <v>135.0</v>
+        <v>9706961.0</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C49" t="n">
-        <v>14.0</v>
+        <v>135.0</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C50" t="n">
-        <v>1141748.0</v>
+        <v>14.0</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C51" t="n">
-        <v>1862.0</v>
+        <v>1141748.0</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C52" t="n">
-        <v>236.0</v>
+        <v>1862.0</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C53" t="n">
-        <v>51100.0</v>
+        <v>236.0</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C54" t="n">
-        <v>56594.0</v>
+        <v>51100.0</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C55" t="n">
-        <v>109884.0</v>
+        <v>56594.0</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C56" t="n">
-        <v>444.0</v>
+        <v>109884.0</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C57" t="n">
-        <v>9251.0</v>
+        <v>444.0</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C58" t="n">
-        <v>78865.0</v>
+        <v>9251.0</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C59" t="n">
-        <v>2344858.0</v>
+        <v>78865.0</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C60" t="n">
-        <v>43094.0</v>
+        <v>2344858.0</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C61" t="n">
-        <v>23200.0</v>
+        <v>43094.0</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C62" t="n">
-        <v>751.0</v>
+        <v>23200.0</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C63" t="n">
-        <v>48671.0</v>
+        <v>751.0</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C64" t="n">
-        <v>276841.0</v>
+        <v>48671.0</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C65" t="n">
-        <v>1002450.0</v>
+        <v>276841.0</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C66" t="n">
-        <v>21041.0</v>
+        <v>1002450.0</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C67" t="n">
-        <v>28051.0</v>
+        <v>21041.0</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C68" t="n">
-        <v>117600.0</v>
+        <v>28051.0</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C69" t="n">
-        <v>45227.0</v>
+        <v>117600.0</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C70" t="n">
-        <v>17364.0</v>
+        <v>45227.0</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C71" t="n">
-        <v>1104300.0</v>
+        <v>17364.0</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C72" t="n">
-        <v>12173.0</v>
+        <v>1104300.0</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C73" t="n">
-        <v>1393.0</v>
+        <v>12173.0</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C74" t="n">
-        <v>18272.0</v>
+        <v>1393.0</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C75" t="n">
-        <v>338424.0</v>
+        <v>18272.0</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C76" t="n">
-        <v>551695.0</v>
+        <v>338424.0</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C77" t="n">
-        <v>83534.0</v>
+        <v>551695.0</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C78" t="n">
-        <v>4167.0</v>
+        <v>83534.0</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C79" t="n">
-        <v>7747.0</v>
+        <v>4167.0</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C80" t="n">
-        <v>267668.0</v>
+        <v>7747.0</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C81" t="n">
-        <v>10689.0</v>
+        <v>267668.0</v>
       </c>
       <c r="D81" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C82" t="n">
-        <v>69700.0</v>
+        <v>10689.0</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C83" t="n">
-        <v>357114.0</v>
+        <v>69700.0</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C84" t="n">
-        <v>238533.0</v>
+        <v>357114.0</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C85" t="n">
-        <v>6.0</v>
+        <v>238533.0</v>
       </c>
       <c r="D85" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C86" t="n">
-        <v>131990.0</v>
+        <v>6.0</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B87" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C87" t="n">
-        <v>2166086.0</v>
+        <v>131990.0</v>
       </c>
       <c r="D87" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C88" t="n">
-        <v>344.0</v>
+        <v>2166086.0</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C89" t="n">
-        <v>1628.0</v>
+        <v>344.0</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C90" t="n">
-        <v>549.0</v>
+        <v>1628.0</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C91" t="n">
-        <v>108889.0</v>
+        <v>549.0</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C92" t="n">
-        <v>78.0</v>
+        <v>108889.0</v>
       </c>
       <c r="D92" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C93" t="n">
-        <v>245857.0</v>
+        <v>78.0</v>
       </c>
       <c r="D93" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C94" t="n">
-        <v>36125.0</v>
+        <v>245857.0</v>
       </c>
       <c r="D94" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C95" t="n">
-        <v>214969.0</v>
+        <v>36125.0</v>
       </c>
       <c r="D95" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B96" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C96" t="n">
-        <v>27750.0</v>
+        <v>214969.0</v>
       </c>
       <c r="D96" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="C97" t="n">
-        <v>412.0</v>
+        <v>27750.0</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
-        <v>112492.0</v>
+        <v>412.0</v>
       </c>
       <c r="D98" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C99" t="n">
-        <v>1104.0</v>
+        <v>112492.0</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C100" t="n">
-        <v>93028.0</v>
+        <v>1104.0</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C101" t="n">
-        <v>103000.0</v>
+        <v>93028.0</v>
       </c>
       <c r="D101" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B102" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C102" t="n">
-        <v>3287590.0</v>
+        <v>103000.0</v>
       </c>
       <c r="D102" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B103" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C103" t="n">
-        <v>1904569.0</v>
+        <v>3287590.0</v>
       </c>
       <c r="D103" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C104" t="n">
-        <v>1648195.0</v>
+        <v>1904569.0</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B105" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C105" t="n">
-        <v>438317.0</v>
+        <v>1648195.0</v>
       </c>
       <c r="D105" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C106" t="n">
-        <v>70273.0</v>
+        <v>438317.0</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C107" t="n">
-        <v>572.0</v>
+        <v>70273.0</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B108" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C108" t="n">
-        <v>20770.0</v>
+        <v>572.0</v>
       </c>
       <c r="D108" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B109" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C109" t="n">
-        <v>301336.0</v>
+        <v>20770.0</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B110" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C110" t="n">
-        <v>322463.0</v>
+        <v>301336.0</v>
       </c>
       <c r="D110" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C111" t="n">
-        <v>10991.0</v>
+        <v>322463.0</v>
       </c>
       <c r="D111" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C112" t="n">
-        <v>377930.0</v>
+        <v>10991.0</v>
       </c>
       <c r="D112" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C113" t="n">
-        <v>116.0</v>
+        <v>377930.0</v>
       </c>
       <c r="D113" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B114" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C114" t="n">
-        <v>89342.0</v>
+        <v>116.0</v>
       </c>
       <c r="D114" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B115" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C115" t="n">
-        <v>2724900.0</v>
+        <v>89342.0</v>
       </c>
       <c r="D115" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B116" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C116" t="n">
-        <v>580367.0</v>
+        <v>2724900.0</v>
       </c>
       <c r="D116" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B117" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C117" t="n">
-        <v>811.0</v>
+        <v>580367.0</v>
       </c>
       <c r="D117" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B118" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C118" t="n">
-        <v>10908.0</v>
+        <v>811.0</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C119" t="n">
-        <v>17818.0</v>
+        <v>10908.0</v>
       </c>
       <c r="D119" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B120" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C120" t="n">
-        <v>199951.0</v>
+        <v>17818.0</v>
       </c>
       <c r="D120" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B121" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C121" t="n">
-        <v>236800.0</v>
+        <v>199951.0</v>
       </c>
       <c r="D121" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B122" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C122" t="n">
-        <v>64559.0</v>
+        <v>236800.0</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B123" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C123" t="n">
-        <v>10452.0</v>
+        <v>64559.0</v>
       </c>
       <c r="D123" t="s">
-        <v>324</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B124" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C124" t="n">
-        <v>30355.0</v>
+        <v>10452.0</v>
       </c>
       <c r="D124" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C125" t="n">
-        <v>111369.0</v>
+        <v>30355.0</v>
       </c>
       <c r="D125" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B126" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C126" t="n">
-        <v>1759540.0</v>
+        <v>111369.0</v>
       </c>
       <c r="D126" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B127" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C127" t="n">
-        <v>160.0</v>
+        <v>1759540.0</v>
       </c>
       <c r="D127" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B128" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C128" t="n">
-        <v>65300.0</v>
+        <v>160.0</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B129" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C129" t="n">
-        <v>2586.0</v>
+        <v>65300.0</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>344</v>
       </c>
       <c r="C130" t="n">
-        <v>30.0</v>
+        <v>2586.0</v>
       </c>
       <c r="D130" t="s">
-        <v>341</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B131" t="s">
-        <v>343</v>
+        <v>27</v>
       </c>
       <c r="C131" t="n">
-        <v>587041.0</v>
+        <v>30.0</v>
       </c>
       <c r="D131" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B132" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C132" t="n">
-        <v>118484.0</v>
+        <v>587041.0</v>
       </c>
       <c r="D132" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B133" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C133" t="n">
-        <v>330803.0</v>
+        <v>118484.0</v>
       </c>
       <c r="D133" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C134" t="n">
-        <v>300.0</v>
+        <v>330803.0</v>
       </c>
       <c r="D134" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B135" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C135" t="n">
-        <v>1240192.0</v>
+        <v>300.0</v>
       </c>
       <c r="D135" t="s">
-        <v>64</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B136" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C136" t="n">
-        <v>316.0</v>
+        <v>1240192.0</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B137" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C137" t="n">
-        <v>181.0</v>
+        <v>316.0</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B138" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C138" t="n">
-        <v>1128.0</v>
+        <v>181.0</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B139" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C139" t="n">
-        <v>1030700.0</v>
+        <v>1128.0</v>
       </c>
       <c r="D139" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B140" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C140" t="n">
-        <v>2040.0</v>
+        <v>1030700.0</v>
       </c>
       <c r="D140" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B141" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C141" t="n">
-        <v>374.0</v>
+        <v>2040.0</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B142" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C142" t="n">
-        <v>1964375.0</v>
+        <v>374.0</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B143" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C143" t="n">
-        <v>702.0</v>
+        <v>1964375.0</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B144" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C144" t="n">
-        <v>33846.0</v>
+        <v>702.0</v>
       </c>
       <c r="D144" t="s">
-        <v>377</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B145" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C145" t="n">
-        <v>2.02</v>
+        <v>33846.0</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B146" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C146" t="n">
-        <v>1564110.0</v>
+        <v>2.02</v>
       </c>
       <c r="D146" t="s">
-        <v>381</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B147" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C147" t="n">
-        <v>13812.0</v>
+        <v>1564110.0</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B148" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C148" t="n">
-        <v>102.0</v>
+        <v>13812.0</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B149" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C149" t="n">
-        <v>446550.0</v>
+        <v>102.0</v>
       </c>
       <c r="D149" t="s">
-        <v>388</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B150" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C150" t="n">
-        <v>801590.0</v>
+        <v>446550.0</v>
       </c>
       <c r="D150" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B151" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C151" t="n">
-        <v>676578.0</v>
+        <v>801590.0</v>
       </c>
       <c r="D151" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C152" t="n">
-        <v>825615.0</v>
+        <v>676578.0</v>
       </c>
       <c r="D152" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B153" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C153" t="n">
-        <v>21.0</v>
+        <v>825615.0</v>
       </c>
       <c r="D153" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B154" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C154" t="n">
-        <v>147181.0</v>
+        <v>21.0</v>
       </c>
       <c r="D154" t="s">
-        <v>402</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B155" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C155" t="n">
-        <v>41850.0</v>
+        <v>147181.0</v>
       </c>
       <c r="D155" t="s">
-        <v>14</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B156" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C156" t="n">
-        <v>18575.0</v>
+        <v>41850.0</v>
       </c>
       <c r="D156" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B157" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C157" t="n">
-        <v>270467.0</v>
+        <v>18575.0</v>
       </c>
       <c r="D157" t="s">
-        <v>409</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B158" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C158" t="n">
-        <v>130373.0</v>
+        <v>270467.0</v>
       </c>
       <c r="D158" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B159" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C159" t="n">
-        <v>1267000.0</v>
+        <v>130373.0</v>
       </c>
       <c r="D159" t="s">
-        <v>64</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B160" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C160" t="n">
-        <v>923768.0</v>
+        <v>1267000.0</v>
       </c>
       <c r="D160" t="s">
-        <v>417</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B161" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C161" t="n">
-        <v>260.0</v>
+        <v>923768.0</v>
       </c>
       <c r="D161" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B162" t="s">
-        <v>289</v>
+        <v>424</v>
       </c>
       <c r="C162" t="n">
-        <v>36.0</v>
+        <v>260.0</v>
       </c>
       <c r="D162" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B163" t="s">
-        <v>422</v>
+        <v>294</v>
       </c>
       <c r="C163" t="n">
-        <v>120538.0</v>
+        <v>36.0</v>
       </c>
       <c r="D163" t="s">
-        <v>423</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B164" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C164" t="n">
-        <v>25713.0</v>
+        <v>120538.0</v>
       </c>
       <c r="D164" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B165" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C165" t="n">
-        <v>464.0</v>
+        <v>25713.0</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B166" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C166" t="n">
-        <v>323802.0</v>
+        <v>464.0</v>
       </c>
       <c r="D166" t="s">
-        <v>431</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B167" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C167" t="n">
-        <v>309500.0</v>
+        <v>323802.0</v>
       </c>
       <c r="D167" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B168" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C168" t="n">
-        <v>881912.0</v>
+        <v>309500.0</v>
       </c>
       <c r="D168" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B169" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C169" t="n">
-        <v>459.0</v>
+        <v>881912.0</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B170" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C170" t="n">
-        <v>6220.0</v>
+        <v>459.0</v>
       </c>
       <c r="D170" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B171" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C171" t="n">
-        <v>75417.0</v>
+        <v>6220.0</v>
       </c>
       <c r="D171" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B172" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C172" t="n">
-        <v>462840.0</v>
+        <v>75417.0</v>
       </c>
       <c r="D172" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B173" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C173" t="n">
-        <v>406752.0</v>
+        <v>462840.0</v>
       </c>
       <c r="D173" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B174" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C174" t="n">
-        <v>1285216.0</v>
+        <v>406752.0</v>
       </c>
       <c r="D174" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B175" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C175" t="n">
-        <v>342353.0</v>
+        <v>1285216.0</v>
       </c>
       <c r="D175" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B176" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C176" t="n">
-        <v>47.0</v>
+        <v>342353.0</v>
       </c>
       <c r="D176" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B177" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C177" t="n">
-        <v>312679.0</v>
+        <v>47.0</v>
       </c>
       <c r="D177" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B178" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C178" t="n">
-        <v>92090.0</v>
+        <v>312679.0</v>
       </c>
       <c r="D178" t="s">
-        <v>14</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B179" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C179" t="n">
-        <v>8870.0</v>
+        <v>92090.0</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B180" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C180" t="n">
-        <v>11586.0</v>
+        <v>8870.0</v>
       </c>
       <c r="D180" t="s">
-        <v>469</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B181" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C181" t="n">
-        <v>342000.0</v>
+        <v>11586.0</v>
       </c>
       <c r="D181" t="s">
-        <v>104</v>
+        <v>474</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B182" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C182" t="n">
-        <v>238391.0</v>
+        <v>342000.0</v>
       </c>
       <c r="D182" t="s">
-        <v>474</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B183" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C183" t="n">
-        <v>1.7098242E7</v>
+        <v>238391.0</v>
       </c>
       <c r="D183" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B184" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C184" t="n">
-        <v>26338.0</v>
+        <v>1.7098242E7</v>
       </c>
       <c r="D184" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B185" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C185" t="n">
-        <v>2511.0</v>
+        <v>26338.0</v>
       </c>
       <c r="D185" t="s">
-        <v>14</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B186" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C186" t="n">
-        <v>21.0</v>
+        <v>2511.0</v>
       </c>
       <c r="D186" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B187" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C187" t="n">
-        <v>394.0</v>
+        <v>21.0</v>
       </c>
       <c r="D187" t="s">
-        <v>487</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B188" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C188" t="n">
-        <v>261.0</v>
+        <v>394.0</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>492</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B189" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C189" t="n">
-        <v>616.0</v>
+        <v>261.0</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B190" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C190" t="n">
-        <v>53.0</v>
+        <v>616.0</v>
       </c>
       <c r="D190" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B191" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C191" t="n">
-        <v>242.0</v>
+        <v>53.0</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B192" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C192" t="n">
-        <v>389.0</v>
+        <v>242.0</v>
       </c>
       <c r="D192" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B193" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C193" t="n">
-        <v>2842.0</v>
+        <v>389.0</v>
       </c>
       <c r="D193" t="s">
-        <v>500</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B194" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C194" t="n">
-        <v>61.0</v>
+        <v>2842.0</v>
       </c>
       <c r="D194" t="s">
-        <v>14</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B195" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C195" t="n">
-        <v>2149690.0</v>
+        <v>61.0</v>
       </c>
       <c r="D195" t="s">
-        <v>505</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B196" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C196" t="n">
-        <v>196722.0</v>
+        <v>2149690.0</v>
       </c>
       <c r="D196" t="s">
-        <v>64</v>
+        <v>510</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B197" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C197" t="n">
-        <v>88361.0</v>
+        <v>196722.0</v>
       </c>
       <c r="D197" t="s">
-        <v>510</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B198" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C198" t="n">
-        <v>452.0</v>
+        <v>88361.0</v>
       </c>
       <c r="D198" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B199" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C199" t="n">
-        <v>71740.0</v>
+        <v>452.0</v>
       </c>
       <c r="D199" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B200" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C200" t="n">
-        <v>710.0</v>
+        <v>71740.0</v>
       </c>
       <c r="D200" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B201" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C201" t="n">
-        <v>34.0</v>
+        <v>710.0</v>
       </c>
       <c r="D201" t="s">
-        <v>150</v>
+        <v>523</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B202" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C202" t="n">
-        <v>49037.0</v>
+        <v>34.0</v>
       </c>
       <c r="D202" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B203" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C203" t="n">
-        <v>20273.0</v>
+        <v>49037.0</v>
       </c>
       <c r="D203" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B204" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C204" t="n">
-        <v>28896.0</v>
+        <v>20273.0</v>
       </c>
       <c r="D204" t="s">
-        <v>527</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B205" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C205" t="n">
-        <v>637657.0</v>
+        <v>28896.0</v>
       </c>
       <c r="D205" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B206" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C206" t="n">
-        <v>1221037.0</v>
+        <v>637657.0</v>
       </c>
       <c r="D206" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B207" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C207" t="n">
-        <v>3903.0</v>
+        <v>1221037.0</v>
       </c>
       <c r="D207" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B208" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C208" t="n">
-        <v>100210.0</v>
+        <v>3903.0</v>
       </c>
       <c r="D208" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B209" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C209" t="n">
-        <v>619745.0</v>
+        <v>100210.0</v>
       </c>
       <c r="D209" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B210" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C210" t="n">
-        <v>505992.0</v>
+        <v>619745.0</v>
       </c>
       <c r="D210" t="s">
-        <v>14</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B211" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C211" t="n">
-        <v>65610.0</v>
+        <v>505992.0</v>
       </c>
       <c r="D211" t="s">
-        <v>547</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B212" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C212" t="n">
-        <v>1886068.0</v>
+        <v>65610.0</v>
       </c>
       <c r="D212" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B213" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C213" t="n">
-        <v>163820.0</v>
+        <v>1886068.0</v>
       </c>
       <c r="D213" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B214" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C214" t="n">
-        <v>-1.0</v>
+        <v>163820.0</v>
       </c>
       <c r="D214" t="s">
-        <v>431</v>
+        <v>558</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B215" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C215" t="n">
-        <v>450295.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D215" t="s">
-        <v>558</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B216" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C216" t="n">
-        <v>41284.0</v>
+        <v>450295.0</v>
       </c>
       <c r="D216" t="s">
-        <v>336</v>
+        <v>563</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B217" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C217" t="n">
-        <v>185180.0</v>
+        <v>41284.0</v>
       </c>
       <c r="D217" t="s">
-        <v>563</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B218" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C218" t="n">
-        <v>964.0</v>
+        <v>185180.0</v>
       </c>
       <c r="D218" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B219" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C219" t="n">
-        <v>36193.0</v>
+        <v>964.0</v>
       </c>
       <c r="D219" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B220" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C220" t="n">
-        <v>143100.0</v>
+        <v>36193.0</v>
       </c>
       <c r="D220" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B221" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C221" t="n">
-        <v>945087.0</v>
+        <v>143100.0</v>
       </c>
       <c r="D221" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B222" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C222" t="n">
-        <v>513120.0</v>
+        <v>945087.0</v>
       </c>
       <c r="D222" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B223" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C223" t="n">
-        <v>14874.0</v>
+        <v>513120.0</v>
       </c>
       <c r="D223" t="s">
-        <v>11</v>
+        <v>583</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B224" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C224" t="n">
-        <v>56785.0</v>
+        <v>14874.0</v>
       </c>
       <c r="D224" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B225" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C225" t="n">
-        <v>12.0</v>
+        <v>56785.0</v>
       </c>
       <c r="D225" t="s">
-        <v>409</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B226" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C226" t="n">
-        <v>747.0</v>
+        <v>12.0</v>
       </c>
       <c r="D226" t="s">
-        <v>587</v>
+        <v>414</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B227" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C227" t="n">
-        <v>5130.0</v>
+        <v>747.0</v>
       </c>
       <c r="D227" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B228" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C228" t="n">
-        <v>163610.0</v>
+        <v>5130.0</v>
       </c>
       <c r="D228" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B229" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C229" t="n">
-        <v>783562.0</v>
+        <v>163610.0</v>
       </c>
       <c r="D229" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B230" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C230" t="n">
-        <v>488100.0</v>
+        <v>783562.0</v>
       </c>
       <c r="D230" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B231" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C231" t="n">
-        <v>948.0</v>
+        <v>488100.0</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>604</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B232" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C232" t="n">
-        <v>26.0</v>
+        <v>948.0</v>
       </c>
       <c r="D232" t="s">
-        <v>604</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B233" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C233" t="n">
-        <v>241550.0</v>
+        <v>26.0</v>
       </c>
       <c r="D233" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B234" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C234" t="n">
-        <v>603500.0</v>
+        <v>241550.0</v>
       </c>
       <c r="D234" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B235" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C235" t="n">
-        <v>83600.0</v>
+        <v>603500.0</v>
       </c>
       <c r="D235" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B236" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C236" t="n">
-        <v>242900.0</v>
+        <v>83600.0</v>
       </c>
       <c r="D236" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B237" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C237" t="n">
-        <v>9372610.0</v>
+        <v>242900.0</v>
       </c>
       <c r="D237" t="s">
-        <v>11</v>
+        <v>621</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B238" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C238" t="n">
-        <v>34.2</v>
+        <v>9372610.0</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B239" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C239" t="n">
-        <v>347.0</v>
+        <v>34.2</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B240" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C240" t="n">
-        <v>181034.0</v>
+        <v>347.0</v>
       </c>
       <c r="D240" t="s">
-        <v>625</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B241" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C241" t="n">
-        <v>447400.0</v>
+        <v>181034.0</v>
       </c>
       <c r="D241" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B242" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C242" t="n">
-        <v>12189.0</v>
+        <v>447400.0</v>
       </c>
       <c r="D242" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B243" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C243" t="n">
-        <v>0.44</v>
+        <v>12189.0</v>
       </c>
       <c r="D243" t="s">
-        <v>14</v>
+        <v>636</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B244" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C244" t="n">
-        <v>916445.0</v>
+        <v>0.44</v>
       </c>
       <c r="D244" t="s">
-        <v>635</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B245" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C245" t="n">
-        <v>331212.0</v>
+        <v>916445.0</v>
       </c>
       <c r="D245" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B246" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C246" t="n">
-        <v>142.0</v>
+        <v>331212.0</v>
       </c>
       <c r="D246" t="s">
-        <v>206</v>
+        <v>643</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B247" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C247" t="n">
-        <v>266000.0</v>
+        <v>142.0</v>
       </c>
       <c r="D247" t="s">
-        <v>643</v>
+        <v>211</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B248" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C248" t="n">
-        <v>527968.0</v>
+        <v>266000.0</v>
       </c>
       <c r="D248" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B249" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C249" t="n">
-        <v>752612.0</v>
+        <v>527968.0</v>
       </c>
       <c r="D249" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B250" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C250" t="n">
-        <v>390757.0</v>
+        <v>752612.0</v>
       </c>
       <c r="D250" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B251" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C251" t="n">
+        <v>390757.0</v>
+      </c>
+      <c r="D251" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>658</v>
+      </c>
+      <c r="B252" t="s">
+        <v>659</v>
+      </c>
+      <c r="C252" t="n">
         <v>1580.0</v>
       </c>
-      <c r="D251" t="s">
-        <v>14</v>
+      <c r="D252" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/CountriesList.xlsx
+++ b/CountriesList.xlsx
@@ -35,7 +35,7 @@
     <t>Kabul</t>
   </si>
   <si>
-    <t>[AFN]</t>
+    <t>AFN</t>
   </si>
   <si>
     <t>Albania</t>
@@ -44,7 +44,7 @@
     <t>Tirana</t>
   </si>
   <si>
-    <t>[ALL]</t>
+    <t>ALL</t>
   </si>
   <si>
     <t>Algeria</t>
@@ -53,7 +53,7 @@
     <t>Algiers</t>
   </si>
   <si>
-    <t>[DZD]</t>
+    <t>DZD</t>
   </si>
   <si>
     <t>American Samoa</t>
@@ -62,7 +62,7 @@
     <t>Pago Pago</t>
   </si>
   <si>
-    <t>[USD]</t>
+    <t>USD</t>
   </si>
   <si>
     <t>Andorra</t>
@@ -71,7 +71,7 @@
     <t>Andorra la Vella</t>
   </si>
   <si>
-    <t>[EUR]</t>
+    <t>EUR</t>
   </si>
   <si>
     <t>Angola</t>
@@ -80,7 +80,7 @@
     <t>Luanda</t>
   </si>
   <si>
-    <t>[AOA]</t>
+    <t>AOA</t>
   </si>
   <si>
     <t>Anguilla</t>
@@ -89,7 +89,7 @@
     <t>The Valley</t>
   </si>
   <si>
-    <t>[XCD]</t>
+    <t>XCD</t>
   </si>
   <si>
     <t>Antarctica</t>
@@ -110,7 +110,7 @@
     <t>Buenos Aires</t>
   </si>
   <si>
-    <t>[ARS]</t>
+    <t>ARS</t>
   </si>
   <si>
     <t>Armenia</t>
@@ -119,7 +119,7 @@
     <t>Yerevan</t>
   </si>
   <si>
-    <t>[AMD]</t>
+    <t>AMD</t>
   </si>
   <si>
     <t>Aruba</t>
@@ -128,7 +128,7 @@
     <t>Oranjestad</t>
   </si>
   <si>
-    <t>[AWG]</t>
+    <t>AWG</t>
   </si>
   <si>
     <t>Australia</t>
@@ -137,7 +137,7 @@
     <t>Canberra</t>
   </si>
   <si>
-    <t>[AUD]</t>
+    <t>AUD</t>
   </si>
   <si>
     <t>Austria</t>
@@ -152,7 +152,7 @@
     <t>Baku</t>
   </si>
   <si>
-    <t>[AZN]</t>
+    <t>AZN</t>
   </si>
   <si>
     <t>Bahamas</t>
@@ -161,7 +161,7 @@
     <t>Nassau</t>
   </si>
   <si>
-    <t>[BSD, USD]</t>
+    <t>BSD,USD</t>
   </si>
   <si>
     <t>Bahrain</t>
@@ -170,7 +170,7 @@
     <t>Manama</t>
   </si>
   <si>
-    <t>[BHD]</t>
+    <t>BHD</t>
   </si>
   <si>
     <t>Bangladesh</t>
@@ -179,7 +179,7 @@
     <t>Dhaka</t>
   </si>
   <si>
-    <t>[BDT]</t>
+    <t>BDT</t>
   </si>
   <si>
     <t>Barbados</t>
@@ -188,7 +188,7 @@
     <t>Bridgetown</t>
   </si>
   <si>
-    <t>[BBD]</t>
+    <t>BBD</t>
   </si>
   <si>
     <t>Belarus</t>
@@ -197,7 +197,7 @@
     <t>Minsk</t>
   </si>
   <si>
-    <t>[BYN]</t>
+    <t>BYN</t>
   </si>
   <si>
     <t>Belgium</t>
@@ -212,7 +212,7 @@
     <t>Belmopan</t>
   </si>
   <si>
-    <t>[BZD]</t>
+    <t>BZD</t>
   </si>
   <si>
     <t>Benin</t>
@@ -221,7 +221,7 @@
     <t>Porto-Novo</t>
   </si>
   <si>
-    <t>[XOF]</t>
+    <t>XOF</t>
   </si>
   <si>
     <t>Bermuda</t>
@@ -230,7 +230,7 @@
     <t>Hamilton</t>
   </si>
   <si>
-    <t>[BMD]</t>
+    <t>BMD</t>
   </si>
   <si>
     <t>Bhutan</t>
@@ -239,7 +239,7 @@
     <t>Thimphu</t>
   </si>
   <si>
-    <t>[INR, BTN]</t>
+    <t>INR,BTN</t>
   </si>
   <si>
     <t>Bolivia</t>
@@ -248,7 +248,7 @@
     <t>Sucre</t>
   </si>
   <si>
-    <t>[BOB]</t>
+    <t>BOB</t>
   </si>
   <si>
     <t>Bosnia and Herzegovina</t>
@@ -257,7 +257,7 @@
     <t>Sarajevo</t>
   </si>
   <si>
-    <t>[BAM]</t>
+    <t>BAM</t>
   </si>
   <si>
     <t>Botswana</t>
@@ -266,7 +266,7 @@
     <t>Gaborone</t>
   </si>
   <si>
-    <t>[BWP]</t>
+    <t>BWP</t>
   </si>
   <si>
     <t>Bouvet Island</t>
@@ -278,7 +278,7 @@
     <t>Brasília</t>
   </si>
   <si>
-    <t>[BRL]</t>
+    <t>BRL</t>
   </si>
   <si>
     <t>British Indian Ocean Territory</t>
@@ -299,7 +299,7 @@
     <t>Bandar Seri Begawan</t>
   </si>
   <si>
-    <t>[SGD, BND]</t>
+    <t>SGD,BND</t>
   </si>
   <si>
     <t>Bulgaria</t>
@@ -308,7 +308,7 @@
     <t>Sofia</t>
   </si>
   <si>
-    <t>[BGN]</t>
+    <t>BGN</t>
   </si>
   <si>
     <t>Burkina Faso</t>
@@ -323,7 +323,7 @@
     <t>Gitega</t>
   </si>
   <si>
-    <t>[BIF]</t>
+    <t>BIF</t>
   </si>
   <si>
     <t>Cambodia</t>
@@ -332,7 +332,7 @@
     <t>Phnom Penh</t>
   </si>
   <si>
-    <t>[KHR, USD]</t>
+    <t>KHR,USD</t>
   </si>
   <si>
     <t>Cameroon</t>
@@ -341,7 +341,7 @@
     <t>Yaoundé</t>
   </si>
   <si>
-    <t>[XAF]</t>
+    <t>XAF</t>
   </si>
   <si>
     <t>Canada</t>
@@ -350,7 +350,7 @@
     <t>Ottawa</t>
   </si>
   <si>
-    <t>[CAD]</t>
+    <t>CAD</t>
   </si>
   <si>
     <t>Cape Verde</t>
@@ -359,7 +359,7 @@
     <t>Praia</t>
   </si>
   <si>
-    <t>[CVE]</t>
+    <t>CVE</t>
   </si>
   <si>
     <t>Caribbean Netherlands</t>
@@ -374,7 +374,7 @@
     <t>George Town</t>
   </si>
   <si>
-    <t>[KYD]</t>
+    <t>KYD</t>
   </si>
   <si>
     <t>Central African Republic</t>
@@ -395,7 +395,7 @@
     <t>Santiago</t>
   </si>
   <si>
-    <t>[CLP]</t>
+    <t>CLP</t>
   </si>
   <si>
     <t>China</t>
@@ -404,7 +404,7 @@
     <t>Beijing</t>
   </si>
   <si>
-    <t>[CNY]</t>
+    <t>CNY</t>
   </si>
   <si>
     <t>Christmas Island</t>
@@ -425,7 +425,7 @@
     <t>Bogotá</t>
   </si>
   <si>
-    <t>[COP]</t>
+    <t>COP</t>
   </si>
   <si>
     <t>Comoros</t>
@@ -434,7 +434,7 @@
     <t>Moroni</t>
   </si>
   <si>
-    <t>[KMF]</t>
+    <t>KMF</t>
   </si>
   <si>
     <t>Cook Islands</t>
@@ -443,7 +443,7 @@
     <t>Avarua</t>
   </si>
   <si>
-    <t>[NZD, CKD]</t>
+    <t>NZD,CKD</t>
   </si>
   <si>
     <t>Costa Rica</t>
@@ -452,7 +452,7 @@
     <t>San José</t>
   </si>
   <si>
-    <t>[CRC]</t>
+    <t>CRC</t>
   </si>
   <si>
     <t>Croatia</t>
@@ -461,7 +461,7 @@
     <t>Zagreb</t>
   </si>
   <si>
-    <t>[HRK]</t>
+    <t>HRK</t>
   </si>
   <si>
     <t>Cuba</t>
@@ -470,7 +470,7 @@
     <t>Havana</t>
   </si>
   <si>
-    <t>[CUC, CUP]</t>
+    <t>CUC,CUP</t>
   </si>
   <si>
     <t>Curaçao</t>
@@ -479,7 +479,7 @@
     <t>Willemstad</t>
   </si>
   <si>
-    <t>[ANG]</t>
+    <t>ANG</t>
   </si>
   <si>
     <t>Cyprus</t>
@@ -494,7 +494,7 @@
     <t>Prague</t>
   </si>
   <si>
-    <t>[CZK]</t>
+    <t>CZK</t>
   </si>
   <si>
     <t>DR Congo</t>
@@ -503,7 +503,7 @@
     <t>Kinshasa</t>
   </si>
   <si>
-    <t>[CDF]</t>
+    <t>CDF</t>
   </si>
   <si>
     <t>Denmark</t>
@@ -512,13 +512,13 @@
     <t>Copenhagen</t>
   </si>
   <si>
-    <t>[DKK]</t>
+    <t>DKK</t>
   </si>
   <si>
     <t>Djibouti</t>
   </si>
   <si>
-    <t>[DJF]</t>
+    <t>DJF</t>
   </si>
   <si>
     <t>Dominica</t>
@@ -533,7 +533,7 @@
     <t>Santo Domingo</t>
   </si>
   <si>
-    <t>[DOP]</t>
+    <t>DOP</t>
   </si>
   <si>
     <t>Ecuador</t>
@@ -548,7 +548,7 @@
     <t>Cairo</t>
   </si>
   <si>
-    <t>[EGP]</t>
+    <t>EGP</t>
   </si>
   <si>
     <t>El Salvador</t>
@@ -569,7 +569,7 @@
     <t>Asmara</t>
   </si>
   <si>
-    <t>[ERN]</t>
+    <t>ERN</t>
   </si>
   <si>
     <t>Estonia</t>
@@ -584,7 +584,7 @@
     <t>Mbabane</t>
   </si>
   <si>
-    <t>[SZL, ZAR]</t>
+    <t>SZL,ZAR</t>
   </si>
   <si>
     <t>Ethiopia</t>
@@ -593,7 +593,7 @@
     <t>Addis Ababa</t>
   </si>
   <si>
-    <t>[ETB]</t>
+    <t>ETB</t>
   </si>
   <si>
     <t>Falkland Islands</t>
@@ -602,7 +602,7 @@
     <t>Stanley</t>
   </si>
   <si>
-    <t>[FKP]</t>
+    <t>FKP</t>
   </si>
   <si>
     <t>Faroe Islands</t>
@@ -611,7 +611,7 @@
     <t>Tórshavn</t>
   </si>
   <si>
-    <t>[FOK, DKK]</t>
+    <t>FOK,DKK</t>
   </si>
   <si>
     <t>Fiji</t>
@@ -620,7 +620,7 @@
     <t>Suva</t>
   </si>
   <si>
-    <t>[FJD]</t>
+    <t>FJD</t>
   </si>
   <si>
     <t>Finland</t>
@@ -647,7 +647,7 @@
     <t>Papeetē</t>
   </si>
   <si>
-    <t>[XPF]</t>
+    <t>XPF</t>
   </si>
   <si>
     <t>French Southern and Antarctic Lands</t>
@@ -668,7 +668,7 @@
     <t>Banjul</t>
   </si>
   <si>
-    <t>[GMD]</t>
+    <t>GMD</t>
   </si>
   <si>
     <t>Georgia</t>
@@ -677,7 +677,7 @@
     <t>Tbilisi</t>
   </si>
   <si>
-    <t>[GEL]</t>
+    <t>GEL</t>
   </si>
   <si>
     <t>Germany</t>
@@ -692,13 +692,13 @@
     <t>Accra</t>
   </si>
   <si>
-    <t>[GHS]</t>
+    <t>GHS</t>
   </si>
   <si>
     <t>Gibraltar</t>
   </si>
   <si>
-    <t>[GIP]</t>
+    <t>GIP</t>
   </si>
   <si>
     <t>Greece</t>
@@ -737,7 +737,7 @@
     <t>Guatemala City</t>
   </si>
   <si>
-    <t>[GTQ]</t>
+    <t>GTQ</t>
   </si>
   <si>
     <t>Guernsey</t>
@@ -746,7 +746,7 @@
     <t>St. Peter Port</t>
   </si>
   <si>
-    <t>[GGP, GBP]</t>
+    <t>GGP,GBP</t>
   </si>
   <si>
     <t>Guinea</t>
@@ -755,7 +755,7 @@
     <t>Conakry</t>
   </si>
   <si>
-    <t>[GNF]</t>
+    <t>GNF</t>
   </si>
   <si>
     <t>Guinea-Bissau</t>
@@ -770,7 +770,7 @@
     <t>Georgetown</t>
   </si>
   <si>
-    <t>[GYD]</t>
+    <t>GYD</t>
   </si>
   <si>
     <t>Haiti</t>
@@ -779,7 +779,7 @@
     <t>Port-au-Prince</t>
   </si>
   <si>
-    <t>[HTG]</t>
+    <t>HTG</t>
   </si>
   <si>
     <t>Heard Island and McDonald Islands</t>
@@ -791,7 +791,7 @@
     <t>Tegucigalpa</t>
   </si>
   <si>
-    <t>[HNL]</t>
+    <t>HNL</t>
   </si>
   <si>
     <t>Hong Kong</t>
@@ -800,7 +800,7 @@
     <t>City of Victoria</t>
   </si>
   <si>
-    <t>[HKD]</t>
+    <t>HKD</t>
   </si>
   <si>
     <t>Hungary</t>
@@ -809,7 +809,7 @@
     <t>Budapest</t>
   </si>
   <si>
-    <t>[HUF]</t>
+    <t>HUF</t>
   </si>
   <si>
     <t>Iceland</t>
@@ -818,7 +818,7 @@
     <t>Reykjavik</t>
   </si>
   <si>
-    <t>[ISK]</t>
+    <t>ISK</t>
   </si>
   <si>
     <t>India</t>
@@ -827,7 +827,7 @@
     <t>New Delhi</t>
   </si>
   <si>
-    <t>[INR]</t>
+    <t>INR</t>
   </si>
   <si>
     <t>Indonesia</t>
@@ -836,7 +836,7 @@
     <t>Jakarta</t>
   </si>
   <si>
-    <t>[IDR]</t>
+    <t>IDR</t>
   </si>
   <si>
     <t>Iran</t>
@@ -845,7 +845,7 @@
     <t>Tehran</t>
   </si>
   <si>
-    <t>[IRR]</t>
+    <t>IRR</t>
   </si>
   <si>
     <t>Iraq</t>
@@ -854,7 +854,7 @@
     <t>Baghdad</t>
   </si>
   <si>
-    <t>[IQD]</t>
+    <t>IQD</t>
   </si>
   <si>
     <t>Ireland</t>
@@ -869,7 +869,7 @@
     <t>Douglas</t>
   </si>
   <si>
-    <t>[GBP, IMP]</t>
+    <t>GBP,IMP</t>
   </si>
   <si>
     <t>Israel</t>
@@ -878,7 +878,7 @@
     <t>Jerusalem</t>
   </si>
   <si>
-    <t>[ILS]</t>
+    <t>ILS</t>
   </si>
   <si>
     <t>Italy</t>
@@ -899,7 +899,7 @@
     <t>Kingston</t>
   </si>
   <si>
-    <t>[JMD]</t>
+    <t>JMD</t>
   </si>
   <si>
     <t>Japan</t>
@@ -908,7 +908,7 @@
     <t>Tokyo</t>
   </si>
   <si>
-    <t>[JPY]</t>
+    <t>JPY</t>
   </si>
   <si>
     <t>Jersey</t>
@@ -917,7 +917,7 @@
     <t>Saint Helier</t>
   </si>
   <si>
-    <t>[GBP, JEP]</t>
+    <t>GBP,JEP</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -926,7 +926,7 @@
     <t>Amman</t>
   </si>
   <si>
-    <t>[JOD]</t>
+    <t>JOD</t>
   </si>
   <si>
     <t>Kazakhstan</t>
@@ -935,7 +935,7 @@
     <t>Nur-Sultan</t>
   </si>
   <si>
-    <t>[KZT]</t>
+    <t>KZT</t>
   </si>
   <si>
     <t>Kenya</t>
@@ -944,7 +944,7 @@
     <t>Nairobi</t>
   </si>
   <si>
-    <t>[KES]</t>
+    <t>KES</t>
   </si>
   <si>
     <t>Kiribati</t>
@@ -953,7 +953,7 @@
     <t>South Tarawa</t>
   </si>
   <si>
-    <t>[AUD, KID]</t>
+    <t>AUD,KID</t>
   </si>
   <si>
     <t>Kosovo</t>
@@ -968,7 +968,7 @@
     <t>Kuwait City</t>
   </si>
   <si>
-    <t>[KWD]</t>
+    <t>KWD</t>
   </si>
   <si>
     <t>Kyrgyzstan</t>
@@ -977,7 +977,7 @@
     <t>Bishkek</t>
   </si>
   <si>
-    <t>[KGS]</t>
+    <t>KGS</t>
   </si>
   <si>
     <t>Laos</t>
@@ -986,7 +986,7 @@
     <t>Vientiane</t>
   </si>
   <si>
-    <t>[LAK]</t>
+    <t>LAK</t>
   </si>
   <si>
     <t>Latvia</t>
@@ -1001,7 +1001,7 @@
     <t>Beirut</t>
   </si>
   <si>
-    <t>[LBP]</t>
+    <t>LBP</t>
   </si>
   <si>
     <t>Lesotho</t>
@@ -1010,7 +1010,7 @@
     <t>Maseru</t>
   </si>
   <si>
-    <t>[LSL, ZAR]</t>
+    <t>LSL,ZAR</t>
   </si>
   <si>
     <t>Liberia</t>
@@ -1019,7 +1019,7 @@
     <t>Monrovia</t>
   </si>
   <si>
-    <t>[LRD]</t>
+    <t>LRD</t>
   </si>
   <si>
     <t>Libya</t>
@@ -1028,7 +1028,7 @@
     <t>Tripoli</t>
   </si>
   <si>
-    <t>[LYD]</t>
+    <t>LYD</t>
   </si>
   <si>
     <t>Liechtenstein</t>
@@ -1037,7 +1037,7 @@
     <t>Vaduz</t>
   </si>
   <si>
-    <t>[CHF]</t>
+    <t>CHF</t>
   </si>
   <si>
     <t>Lithuania</t>
@@ -1052,7 +1052,7 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>[MOP]</t>
+    <t>MOP</t>
   </si>
   <si>
     <t>Madagascar</t>
@@ -1061,7 +1061,7 @@
     <t>Antananarivo</t>
   </si>
   <si>
-    <t>[MGA]</t>
+    <t>MGA</t>
   </si>
   <si>
     <t>Malawi</t>
@@ -1070,7 +1070,7 @@
     <t>Lilongwe</t>
   </si>
   <si>
-    <t>[MWK]</t>
+    <t>MWK</t>
   </si>
   <si>
     <t>Malaysia</t>
@@ -1079,7 +1079,7 @@
     <t>Kuala Lumpur</t>
   </si>
   <si>
-    <t>[MYR]</t>
+    <t>MYR</t>
   </si>
   <si>
     <t>Maldives</t>
@@ -1088,7 +1088,7 @@
     <t>Malé</t>
   </si>
   <si>
-    <t>[MVR]</t>
+    <t>MVR</t>
   </si>
   <si>
     <t>Mali</t>
@@ -1121,7 +1121,7 @@
     <t>Nouakchott</t>
   </si>
   <si>
-    <t>[MRU]</t>
+    <t>MRU</t>
   </si>
   <si>
     <t>Mauritius</t>
@@ -1130,7 +1130,7 @@
     <t>Port Louis</t>
   </si>
   <si>
-    <t>[MUR]</t>
+    <t>MUR</t>
   </si>
   <si>
     <t>Mayotte</t>
@@ -1145,7 +1145,7 @@
     <t>Mexico City</t>
   </si>
   <si>
-    <t>[MXN]</t>
+    <t>MXN</t>
   </si>
   <si>
     <t>Micronesia</t>
@@ -1160,7 +1160,7 @@
     <t>Chișinău</t>
   </si>
   <si>
-    <t>[MDL]</t>
+    <t>MDL</t>
   </si>
   <si>
     <t>Monaco</t>
@@ -1172,7 +1172,7 @@
     <t>Ulan Bator</t>
   </si>
   <si>
-    <t>[MNT]</t>
+    <t>MNT</t>
   </si>
   <si>
     <t>Montenegro</t>
@@ -1193,7 +1193,7 @@
     <t>Rabat</t>
   </si>
   <si>
-    <t>[MAD]</t>
+    <t>MAD</t>
   </si>
   <si>
     <t>Mozambique</t>
@@ -1202,7 +1202,7 @@
     <t>Maputo</t>
   </si>
   <si>
-    <t>[MZN]</t>
+    <t>MZN</t>
   </si>
   <si>
     <t>Myanmar</t>
@@ -1211,7 +1211,7 @@
     <t>Naypyidaw</t>
   </si>
   <si>
-    <t>[MMK]</t>
+    <t>MMK</t>
   </si>
   <si>
     <t>Namibia</t>
@@ -1220,7 +1220,7 @@
     <t>Windhoek</t>
   </si>
   <si>
-    <t>[NAD, ZAR]</t>
+    <t>NAD,ZAR</t>
   </si>
   <si>
     <t>Nauru</t>
@@ -1235,7 +1235,7 @@
     <t>Kathmandu</t>
   </si>
   <si>
-    <t>[NPR]</t>
+    <t>NPR</t>
   </si>
   <si>
     <t>Netherlands</t>
@@ -1256,7 +1256,7 @@
     <t>Wellington</t>
   </si>
   <si>
-    <t>[NZD]</t>
+    <t>NZD</t>
   </si>
   <si>
     <t>Nicaragua</t>
@@ -1265,7 +1265,7 @@
     <t>Managua</t>
   </si>
   <si>
-    <t>[NIO]</t>
+    <t>NIO</t>
   </si>
   <si>
     <t>Niger</t>
@@ -1280,7 +1280,7 @@
     <t>Abuja</t>
   </si>
   <si>
-    <t>[NGN]</t>
+    <t>NGN</t>
   </si>
   <si>
     <t>Niue</t>
@@ -1298,7 +1298,7 @@
     <t>Pyongyang</t>
   </si>
   <si>
-    <t>[KPW]</t>
+    <t>KPW</t>
   </si>
   <si>
     <t>North Macedonia</t>
@@ -1307,7 +1307,7 @@
     <t>Skopje</t>
   </si>
   <si>
-    <t>[MKD]</t>
+    <t>MKD</t>
   </si>
   <si>
     <t>Northern Mariana Islands</t>
@@ -1322,7 +1322,7 @@
     <t>Oslo</t>
   </si>
   <si>
-    <t>[NOK]</t>
+    <t>NOK</t>
   </si>
   <si>
     <t>Oman</t>
@@ -1331,7 +1331,7 @@
     <t>Muscat</t>
   </si>
   <si>
-    <t>[OMR]</t>
+    <t>OMR</t>
   </si>
   <si>
     <t>Pakistan</t>
@@ -1340,7 +1340,7 @@
     <t>Islamabad</t>
   </si>
   <si>
-    <t>[PKR]</t>
+    <t>PKR</t>
   </si>
   <si>
     <t>Palau</t>
@@ -1355,7 +1355,7 @@
     <t>Ramallah</t>
   </si>
   <si>
-    <t>[ILS, JOD, EGP]</t>
+    <t>ILS,JOD,EGP</t>
   </si>
   <si>
     <t>Panama</t>
@@ -1364,7 +1364,7 @@
     <t>Panama City</t>
   </si>
   <si>
-    <t>[PAB, USD]</t>
+    <t>PAB,USD</t>
   </si>
   <si>
     <t>Papua New Guinea</t>
@@ -1373,7 +1373,7 @@
     <t>Port Moresby</t>
   </si>
   <si>
-    <t>[PGK]</t>
+    <t>PGK</t>
   </si>
   <si>
     <t>Paraguay</t>
@@ -1382,7 +1382,7 @@
     <t>Asunción</t>
   </si>
   <si>
-    <t>[PYG]</t>
+    <t>PYG</t>
   </si>
   <si>
     <t>Peru</t>
@@ -1391,7 +1391,7 @@
     <t>Lima</t>
   </si>
   <si>
-    <t>[PEN]</t>
+    <t>PEN</t>
   </si>
   <si>
     <t>Philippines</t>
@@ -1400,7 +1400,7 @@
     <t>Manila</t>
   </si>
   <si>
-    <t>[PHP]</t>
+    <t>PHP</t>
   </si>
   <si>
     <t>Pitcairn Islands</t>
@@ -1415,7 +1415,7 @@
     <t>Warsaw</t>
   </si>
   <si>
-    <t>[PLN]</t>
+    <t>PLN</t>
   </si>
   <si>
     <t>Portugal</t>
@@ -1436,7 +1436,7 @@
     <t>Doha</t>
   </si>
   <si>
-    <t>[QAR]</t>
+    <t>QAR</t>
   </si>
   <si>
     <t>Republic of the Congo</t>
@@ -1451,7 +1451,7 @@
     <t>Bucharest</t>
   </si>
   <si>
-    <t>[RON]</t>
+    <t>RON</t>
   </si>
   <si>
     <t>Russia</t>
@@ -1460,7 +1460,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>[RUB]</t>
+    <t>RUB</t>
   </si>
   <si>
     <t>Rwanda</t>
@@ -1469,7 +1469,7 @@
     <t>Kigali</t>
   </si>
   <si>
-    <t>[RWF]</t>
+    <t>RWF</t>
   </si>
   <si>
     <t>Réunion</t>
@@ -1490,7 +1490,7 @@
     <t>Jamestown</t>
   </si>
   <si>
-    <t>[GBP, SHP]</t>
+    <t>GBP,SHP</t>
   </si>
   <si>
     <t>Saint Kitts and Nevis</t>
@@ -1529,7 +1529,7 @@
     <t>Apia</t>
   </si>
   <si>
-    <t>[WST]</t>
+    <t>WST</t>
   </si>
   <si>
     <t>San Marino</t>
@@ -1544,7 +1544,7 @@
     <t>Riyadh</t>
   </si>
   <si>
-    <t>[SAR]</t>
+    <t>SAR</t>
   </si>
   <si>
     <t>Senegal</t>
@@ -1559,7 +1559,7 @@
     <t>Belgrade</t>
   </si>
   <si>
-    <t>[RSD]</t>
+    <t>RSD</t>
   </si>
   <si>
     <t>Seychelles</t>
@@ -1568,7 +1568,7 @@
     <t>Victoria</t>
   </si>
   <si>
-    <t>[SCR]</t>
+    <t>SCR</t>
   </si>
   <si>
     <t>Sierra Leone</t>
@@ -1577,13 +1577,13 @@
     <t>Freetown</t>
   </si>
   <si>
-    <t>[SLL]</t>
+    <t>SLL</t>
   </si>
   <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>[SGD]</t>
+    <t>SGD</t>
   </si>
   <si>
     <t>Sint Maarten</t>
@@ -1610,7 +1610,7 @@
     <t>Honiara</t>
   </si>
   <si>
-    <t>[SBD]</t>
+    <t>SBD</t>
   </si>
   <si>
     <t>Somalia</t>
@@ -1619,7 +1619,7 @@
     <t>Mogadishu</t>
   </si>
   <si>
-    <t>[SOS]</t>
+    <t>SOS</t>
   </si>
   <si>
     <t>South Africa</t>
@@ -1628,7 +1628,7 @@
     <t>Pretoria</t>
   </si>
   <si>
-    <t>[ZAR]</t>
+    <t>ZAR</t>
   </si>
   <si>
     <t>South Georgia</t>
@@ -1637,7 +1637,7 @@
     <t>King Edward Point</t>
   </si>
   <si>
-    <t>[SHP]</t>
+    <t>SHP</t>
   </si>
   <si>
     <t>South Korea</t>
@@ -1646,7 +1646,7 @@
     <t>Seoul</t>
   </si>
   <si>
-    <t>[KRW]</t>
+    <t>KRW</t>
   </si>
   <si>
     <t>South Sudan</t>
@@ -1655,7 +1655,7 @@
     <t>Juba</t>
   </si>
   <si>
-    <t>[SSP]</t>
+    <t>SSP</t>
   </si>
   <si>
     <t>Spain</t>
@@ -1670,7 +1670,7 @@
     <t>Sri Jayawardenepura Kotte</t>
   </si>
   <si>
-    <t>[LKR]</t>
+    <t>LKR</t>
   </si>
   <si>
     <t>Sudan</t>
@@ -1679,7 +1679,7 @@
     <t>Khartoum</t>
   </si>
   <si>
-    <t>[SDG]</t>
+    <t>SDG</t>
   </si>
   <si>
     <t>Suriname</t>
@@ -1688,7 +1688,7 @@
     <t>Paramaribo</t>
   </si>
   <si>
-    <t>[SRD]</t>
+    <t>SRD</t>
   </si>
   <si>
     <t>Svalbard and Jan Mayen</t>
@@ -1703,7 +1703,7 @@
     <t>Stockholm</t>
   </si>
   <si>
-    <t>[SEK]</t>
+    <t>SEK</t>
   </si>
   <si>
     <t>Switzerland</t>
@@ -1718,7 +1718,7 @@
     <t>Damascus</t>
   </si>
   <si>
-    <t>[SYP]</t>
+    <t>SYP</t>
   </si>
   <si>
     <t>São Tomé and Príncipe</t>
@@ -1727,7 +1727,7 @@
     <t>São Tomé</t>
   </si>
   <si>
-    <t>[STN]</t>
+    <t>STN</t>
   </si>
   <si>
     <t>Taiwan</t>
@@ -1736,7 +1736,7 @@
     <t>Taipei</t>
   </si>
   <si>
-    <t>[TWD]</t>
+    <t>TWD</t>
   </si>
   <si>
     <t>Tajikistan</t>
@@ -1745,7 +1745,7 @@
     <t>Dushanbe</t>
   </si>
   <si>
-    <t>[TJS]</t>
+    <t>TJS</t>
   </si>
   <si>
     <t>Tanzania</t>
@@ -1754,7 +1754,7 @@
     <t>Dodoma</t>
   </si>
   <si>
-    <t>[TZS]</t>
+    <t>TZS</t>
   </si>
   <si>
     <t>Thailand</t>
@@ -1763,7 +1763,7 @@
     <t>Bangkok</t>
   </si>
   <si>
-    <t>[THB]</t>
+    <t>THB</t>
   </si>
   <si>
     <t>Timor-Leste</t>
@@ -1790,7 +1790,7 @@
     <t>Nuku'alofa</t>
   </si>
   <si>
-    <t>[TOP]</t>
+    <t>TOP</t>
   </si>
   <si>
     <t>Trinidad and Tobago</t>
@@ -1799,7 +1799,7 @@
     <t>Port of Spain</t>
   </si>
   <si>
-    <t>[TTD]</t>
+    <t>TTD</t>
   </si>
   <si>
     <t>Tunisia</t>
@@ -1808,7 +1808,7 @@
     <t>Tunis</t>
   </si>
   <si>
-    <t>[TND]</t>
+    <t>TND</t>
   </si>
   <si>
     <t>Turkey</t>
@@ -1817,7 +1817,7 @@
     <t>Ankara</t>
   </si>
   <si>
-    <t>[TRY]</t>
+    <t>TRY</t>
   </si>
   <si>
     <t>Turkmenistan</t>
@@ -1826,7 +1826,7 @@
     <t>Ashgabat</t>
   </si>
   <si>
-    <t>[TMT]</t>
+    <t>TMT</t>
   </si>
   <si>
     <t>Turks and Caicos Islands</t>
@@ -1841,7 +1841,7 @@
     <t>Funafuti</t>
   </si>
   <si>
-    <t>[AUD, TVD]</t>
+    <t>AUD,TVD</t>
   </si>
   <si>
     <t>Uganda</t>
@@ -1850,7 +1850,7 @@
     <t>Kampala</t>
   </si>
   <si>
-    <t>[UGX]</t>
+    <t>UGX</t>
   </si>
   <si>
     <t>Ukraine</t>
@@ -1859,7 +1859,7 @@
     <t>Kyiv</t>
   </si>
   <si>
-    <t>[UAH]</t>
+    <t>UAH</t>
   </si>
   <si>
     <t>United Arab Emirates</t>
@@ -1868,7 +1868,7 @@
     <t>Abu Dhabi</t>
   </si>
   <si>
-    <t>[AED]</t>
+    <t>AED</t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -1877,7 +1877,7 @@
     <t>London</t>
   </si>
   <si>
-    <t>[GBP]</t>
+    <t>GBP</t>
   </si>
   <si>
     <t>United States</t>
@@ -1904,7 +1904,7 @@
     <t>Montevideo</t>
   </si>
   <si>
-    <t>[UYU]</t>
+    <t>UYU</t>
   </si>
   <si>
     <t>Uzbekistan</t>
@@ -1913,7 +1913,7 @@
     <t>Tashkent</t>
   </si>
   <si>
-    <t>[UZS]</t>
+    <t>UZS</t>
   </si>
   <si>
     <t>Vanuatu</t>
@@ -1922,7 +1922,7 @@
     <t>Port Vila</t>
   </si>
   <si>
-    <t>[VUV]</t>
+    <t>VUV</t>
   </si>
   <si>
     <t>Vatican City</t>
@@ -1934,7 +1934,7 @@
     <t>Caracas</t>
   </si>
   <si>
-    <t>[VES]</t>
+    <t>VES</t>
   </si>
   <si>
     <t>Vietnam</t>
@@ -1943,7 +1943,7 @@
     <t>Hanoi</t>
   </si>
   <si>
-    <t>[VND]</t>
+    <t>VND</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -1958,7 +1958,7 @@
     <t>El Aaiún</t>
   </si>
   <si>
-    <t>[MAD, MRU, DZD]</t>
+    <t>MAD,MRU,DZD</t>
   </si>
   <si>
     <t>Yemen</t>
@@ -1967,7 +1967,7 @@
     <t>Sana'a</t>
   </si>
   <si>
-    <t>[YER]</t>
+    <t>YER</t>
   </si>
   <si>
     <t>Zambia</t>
@@ -1976,7 +1976,7 @@
     <t>Lusaka</t>
   </si>
   <si>
-    <t>[ZMW]</t>
+    <t>ZMW</t>
   </si>
   <si>
     <t>Zimbabwe</t>
@@ -1985,7 +1985,7 @@
     <t>Harare</t>
   </si>
   <si>
-    <t>[ZWL]</t>
+    <t>ZWL</t>
   </si>
   <si>
     <t>Åland Islands</t>

--- a/CountriesList.xlsx
+++ b/CountriesList.xlsx
@@ -1999,7 +1999,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2007,16 +2007,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+      <color rgb="4F4F4F"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color rgb="808080"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2024,12 +2055,243 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2041,3523 +2303,3532 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.0" customWidth="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="n" s="9">
         <v>652230.0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="n" s="9">
         <v>28748.0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="n" s="9">
         <v>2381741.0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="n" s="9">
         <v>199.0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="n" s="9">
         <v>468.0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="n" s="9">
         <v>1246700.0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="9">
         <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="n" s="9">
         <v>91.0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="n" s="9">
         <v>1.4E7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="9">
         <v>27</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="n" s="9">
         <v>442.0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="n" s="9">
         <v>2780400.0</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="n" s="9">
         <v>29743.0</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="n" s="9">
         <v>180.0</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="n" s="9">
         <v>7692024.0</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="9">
         <v>41</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="9">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="n" s="9">
         <v>83871.0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="9">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="9">
         <v>45</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="n" s="9">
         <v>86600.0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="9">
         <v>46</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="9">
         <v>48</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="n" s="9">
         <v>13943.0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="9">
         <v>49</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="9">
         <v>51</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="n" s="9">
         <v>765.0</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="9">
         <v>52</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="9">
         <v>53</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="9">
         <v>54</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="n" s="9">
         <v>147570.0</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="9">
         <v>55</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="9">
         <v>56</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="9">
         <v>57</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="n" s="9">
         <v>430.0</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="9">
         <v>58</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="9">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="9">
         <v>60</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="n" s="9">
         <v>207600.0</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="9">
         <v>61</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="n" s="9">
         <v>30528.0</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="9">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="n" s="9">
         <v>22966.0</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="9">
         <v>66</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="9">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="9">
         <v>68</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="n" s="9">
         <v>112622.0</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="9">
         <v>70</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="n" s="9">
         <v>54.0</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="9">
         <v>72</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="9">
         <v>74</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" t="n" s="9">
         <v>38394.0</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="9">
         <v>75</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="9">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="9">
         <v>77</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" t="n" s="9">
         <v>1098581.0</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="9">
         <v>78</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="9">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="9">
         <v>80</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" t="n" s="9">
         <v>51209.0</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="9">
         <v>81</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="9">
         <v>82</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="9">
         <v>83</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" t="n" s="9">
         <v>582000.0</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="9">
         <v>84</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="9">
         <v>85</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="n" s="9">
         <v>49.0</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="9">
         <v>27</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="9">
         <v>86</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="9">
         <v>87</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" t="n" s="9">
         <v>8515767.0</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="9">
         <v>88</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="9">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="9">
         <v>90</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" t="n" s="9">
         <v>60.0</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="9">
         <v>91</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="9">
         <v>92</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" t="n" s="9">
         <v>151.0</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="9">
         <v>93</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="9">
         <v>94</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" t="n" s="9">
         <v>5765.0</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="9">
         <v>95</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="9">
         <v>96</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="9">
         <v>97</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" t="n" s="9">
         <v>110879.0</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="9">
         <v>98</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="9">
         <v>99</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="9">
         <v>100</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" t="n" s="9">
         <v>272967.0</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="9">
         <v>101</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="9">
         <v>102</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" t="n" s="9">
         <v>27834.0</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="9">
         <v>103</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="9">
         <v>104</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="9">
         <v>105</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" t="n" s="9">
         <v>181035.0</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="9">
         <v>106</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="9">
         <v>107</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="9">
         <v>108</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" t="n" s="9">
         <v>475442.0</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="9">
         <v>109</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="9">
         <v>110</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="9">
         <v>111</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" t="n" s="9">
         <v>9984670.0</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="9">
         <v>112</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="9">
         <v>113</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="9">
         <v>114</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" t="n" s="9">
         <v>4033.0</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="9">
         <v>115</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="9">
         <v>116</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="9">
         <v>117</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" t="n" s="9">
         <v>328.0</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="9">
         <v>118</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="9">
         <v>119</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" t="n" s="9">
         <v>264.0</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="9">
         <v>121</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="9">
         <v>122</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" t="n" s="9">
         <v>622984.0</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="9">
         <v>109</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="9">
         <v>123</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="9">
         <v>124</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" t="n" s="9">
         <v>1284000.0</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="9">
         <v>109</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="9">
         <v>125</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="9">
         <v>126</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" t="n" s="9">
         <v>756102.0</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="9">
         <v>127</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="9">
         <v>128</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="9">
         <v>129</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" t="n" s="9">
         <v>9706961.0</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="9">
         <v>130</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="9">
         <v>131</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="9">
         <v>132</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" t="n" s="9">
         <v>135.0</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="9">
         <v>41</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="9">
         <v>133</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="9">
         <v>134</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" t="n" s="9">
         <v>14.0</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="9">
         <v>41</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="9">
         <v>135</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="9">
         <v>136</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" t="n" s="9">
         <v>1141748.0</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="9">
         <v>137</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="9">
         <v>138</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="9">
         <v>139</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" t="n" s="9">
         <v>1862.0</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="9">
         <v>140</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="9">
         <v>141</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="9">
         <v>142</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" t="n" s="9">
         <v>236.0</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="9">
         <v>143</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="9">
         <v>144</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="9">
         <v>145</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" t="n" s="9">
         <v>51100.0</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="9">
         <v>146</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="9">
         <v>147</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="9">
         <v>148</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" t="n" s="9">
         <v>56594.0</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="9">
         <v>149</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="9">
         <v>150</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="9">
         <v>151</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" t="n" s="9">
         <v>109884.0</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="9">
         <v>152</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="9">
         <v>153</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="9">
         <v>154</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" t="n" s="9">
         <v>444.0</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="9">
         <v>155</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="9">
         <v>156</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="9">
         <v>157</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" t="n" s="9">
         <v>9251.0</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="9">
         <v>158</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="9">
         <v>159</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" t="n" s="9">
         <v>78865.0</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="s" s="9">
         <v>160</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="9">
         <v>161</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="9">
         <v>162</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" t="n" s="9">
         <v>2344858.0</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="s" s="9">
         <v>163</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="9">
         <v>164</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="9">
         <v>165</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" t="n" s="9">
         <v>43094.0</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="9">
         <v>166</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="9">
         <v>167</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="9">
         <v>167</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" t="n" s="9">
         <v>23200.0</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="9">
         <v>168</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="9">
         <v>169</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="9">
         <v>170</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" t="n" s="9">
         <v>751.0</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="9">
         <v>171</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="9">
         <v>172</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" t="n" s="9">
         <v>48671.0</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="s" s="9">
         <v>173</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="9">
         <v>174</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="9">
         <v>175</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" t="n" s="9">
         <v>276841.0</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="9">
         <v>176</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="9">
         <v>177</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" t="n" s="9">
         <v>1002450.0</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="s" s="9">
         <v>178</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="9">
         <v>179</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="9">
         <v>180</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" t="n" s="9">
         <v>21041.0</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="9">
         <v>181</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="9">
         <v>182</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" t="n" s="9">
         <v>28051.0</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="s" s="9">
         <v>109</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="9">
         <v>183</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="9">
         <v>184</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" t="n" s="9">
         <v>117600.0</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="s" s="9">
         <v>185</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="9">
         <v>186</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="9">
         <v>187</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" t="n" s="9">
         <v>45227.0</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="9">
         <v>188</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="9">
         <v>189</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" t="n" s="9">
         <v>17364.0</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="s" s="9">
         <v>190</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="9">
         <v>191</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="9">
         <v>192</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" t="n" s="9">
         <v>1104300.0</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" t="s" s="9">
         <v>193</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="9">
         <v>194</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="9">
         <v>195</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" t="n" s="9">
         <v>12173.0</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="s" s="9">
         <v>196</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="9">
         <v>197</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="9">
         <v>198</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" t="n" s="9">
         <v>1393.0</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="s" s="9">
         <v>199</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="9">
         <v>200</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="9">
         <v>201</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" t="n" s="9">
         <v>18272.0</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="9">
         <v>202</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="9">
         <v>203</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="9">
         <v>204</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" t="n" s="9">
         <v>338424.0</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="9">
         <v>205</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="9">
         <v>206</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" t="n" s="9">
         <v>551695.0</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="9">
         <v>207</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="9">
         <v>208</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" t="n" s="9">
         <v>83534.0</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="9">
         <v>209</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="9">
         <v>210</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" t="n" s="9">
         <v>4167.0</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="s" s="9">
         <v>211</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="9">
         <v>212</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="9">
         <v>213</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" t="n" s="9">
         <v>7747.0</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="9">
         <v>214</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="9">
         <v>215</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" t="n" s="9">
         <v>267668.0</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="s" s="9">
         <v>109</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="9">
         <v>216</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="9">
         <v>217</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" t="n" s="9">
         <v>10689.0</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="9">
         <v>218</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="9">
         <v>219</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="9">
         <v>220</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" t="n" s="9">
         <v>69700.0</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="s" s="9">
         <v>221</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="9">
         <v>222</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="9">
         <v>223</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" t="n" s="9">
         <v>357114.0</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="9">
         <v>224</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="9">
         <v>225</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" t="n" s="9">
         <v>238533.0</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" t="s" s="9">
         <v>226</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="9">
         <v>227</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="9">
         <v>227</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="s" s="9">
         <v>228</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="9">
         <v>229</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="9">
         <v>230</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" t="n" s="9">
         <v>131990.0</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="9">
         <v>231</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="9">
         <v>232</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" t="n" s="9">
         <v>2166086.0</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="s" s="9">
         <v>166</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="9">
         <v>233</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="9">
         <v>234</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" t="n" s="9">
         <v>344.0</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="s" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="9">
         <v>235</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="9">
         <v>236</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" t="n" s="9">
         <v>1628.0</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="9">
         <v>237</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="9">
         <v>238</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" t="n" s="9">
         <v>549.0</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="9">
         <v>239</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="9">
         <v>240</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" t="n" s="9">
         <v>108889.0</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="s" s="9">
         <v>241</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="9">
         <v>242</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="9">
         <v>243</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" t="n" s="9">
         <v>78.0</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="s" s="9">
         <v>244</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="9">
         <v>245</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="9">
         <v>246</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" t="n" s="9">
         <v>245857.0</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="s" s="9">
         <v>247</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="9">
         <v>248</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="9">
         <v>249</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" t="n" s="9">
         <v>36125.0</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" t="s" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="9">
         <v>250</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="9">
         <v>251</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" t="n" s="9">
         <v>214969.0</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" t="s" s="9">
         <v>252</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="9">
         <v>253</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="9">
         <v>254</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" t="n" s="9">
         <v>27750.0</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" t="s" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="9">
         <v>256</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" t="n" s="9">
         <v>412.0</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" t="s" s="9">
         <v>27</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="9">
         <v>257</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" t="s" s="9">
         <v>258</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" t="n" s="9">
         <v>112492.0</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" t="s" s="9">
         <v>259</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="9">
         <v>260</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" t="s" s="9">
         <v>261</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" t="n" s="9">
         <v>1104.0</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" t="s" s="9">
         <v>262</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="9">
         <v>263</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="9">
         <v>264</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" t="n" s="9">
         <v>93028.0</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" t="s" s="9">
         <v>265</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="9">
         <v>266</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" t="s" s="9">
         <v>267</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" t="n" s="9">
         <v>103000.0</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="s" s="9">
         <v>268</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="9">
         <v>269</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" t="s" s="9">
         <v>270</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" t="n" s="9">
         <v>3287590.0</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" t="s" s="9">
         <v>271</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="9">
         <v>272</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" t="s" s="9">
         <v>273</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" t="n" s="9">
         <v>1904569.0</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" t="s" s="9">
         <v>274</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="9">
         <v>275</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="9">
         <v>276</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" t="n" s="9">
         <v>1648195.0</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="s" s="9">
         <v>277</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="9">
         <v>278</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" t="s" s="9">
         <v>279</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" t="n" s="9">
         <v>438317.0</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" t="s" s="9">
         <v>280</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="9">
         <v>281</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" t="s" s="9">
         <v>282</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" t="n" s="9">
         <v>70273.0</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="9">
         <v>283</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" t="s" s="9">
         <v>284</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" t="n" s="9">
         <v>572.0</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" t="s" s="9">
         <v>285</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="9">
         <v>286</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" t="s" s="9">
         <v>287</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" t="n" s="9">
         <v>20770.0</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" t="s" s="9">
         <v>288</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="9">
         <v>289</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" t="s" s="9">
         <v>290</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" t="n" s="9">
         <v>301336.0</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="9">
         <v>291</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" t="s" s="9">
         <v>292</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" t="n" s="9">
         <v>322463.0</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" t="s" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="9">
         <v>293</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" t="s" s="9">
         <v>294</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" t="n" s="9">
         <v>10991.0</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" t="s" s="9">
         <v>295</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="9">
         <v>296</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" t="s" s="9">
         <v>297</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" t="n" s="9">
         <v>377930.0</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" t="s" s="9">
         <v>298</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="9">
         <v>299</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" t="s" s="9">
         <v>300</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" t="n" s="9">
         <v>116.0</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" t="s" s="9">
         <v>301</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="9">
         <v>302</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" t="s" s="9">
         <v>303</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" t="n" s="9">
         <v>89342.0</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" t="s" s="9">
         <v>304</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="9">
         <v>305</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" t="s" s="9">
         <v>306</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" t="n" s="9">
         <v>2724900.0</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" t="s" s="9">
         <v>307</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s">
+      <c r="A117" t="s" s="9">
         <v>308</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" t="s" s="9">
         <v>309</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" t="n" s="9">
         <v>580367.0</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" t="s" s="9">
         <v>310</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s">
+      <c r="A118" t="s" s="9">
         <v>311</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" t="s" s="9">
         <v>312</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" t="n" s="9">
         <v>811.0</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" t="s" s="9">
         <v>313</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s">
+      <c r="A119" t="s" s="9">
         <v>314</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" t="s" s="9">
         <v>315</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" t="n" s="9">
         <v>10908.0</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s">
+      <c r="A120" t="s" s="9">
         <v>316</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" t="s" s="9">
         <v>317</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" t="n" s="9">
         <v>17818.0</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" t="s" s="9">
         <v>318</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s">
+      <c r="A121" t="s" s="9">
         <v>319</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" t="s" s="9">
         <v>320</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" t="n" s="9">
         <v>199951.0</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" t="s" s="9">
         <v>321</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="9">
         <v>322</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" t="s" s="9">
         <v>323</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" t="n" s="9">
         <v>236800.0</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" t="s" s="9">
         <v>324</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="9">
         <v>325</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" t="s" s="9">
         <v>326</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" t="n" s="9">
         <v>64559.0</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s">
+      <c r="A124" t="s" s="9">
         <v>327</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" t="s" s="9">
         <v>328</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" t="n" s="9">
         <v>10452.0</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" t="s" s="9">
         <v>329</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="9">
         <v>330</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" t="s" s="9">
         <v>331</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" t="n" s="9">
         <v>30355.0</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" t="s" s="9">
         <v>332</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s">
+      <c r="A126" t="s" s="9">
         <v>333</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" t="s" s="9">
         <v>334</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" t="n" s="9">
         <v>111369.0</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" t="s" s="9">
         <v>335</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="9">
         <v>336</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" t="s" s="9">
         <v>337</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" t="n" s="9">
         <v>1759540.0</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" t="s" s="9">
         <v>338</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="9">
         <v>339</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" t="s" s="9">
         <v>340</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" t="n" s="9">
         <v>160.0</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" t="s" s="9">
         <v>341</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="9">
         <v>342</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" t="s" s="9">
         <v>343</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" t="n" s="9">
         <v>65300.0</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="9">
         <v>344</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" t="s" s="9">
         <v>344</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" t="n" s="9">
         <v>2586.0</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="9">
         <v>345</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" t="n" s="9">
         <v>30.0</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" t="s" s="9">
         <v>346</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="9">
         <v>347</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" t="s" s="9">
         <v>348</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" t="n" s="9">
         <v>587041.0</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" t="s" s="9">
         <v>349</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="9">
         <v>350</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" t="s" s="9">
         <v>351</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" t="n" s="9">
         <v>118484.0</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" t="s" s="9">
         <v>352</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="9">
         <v>353</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" t="s" s="9">
         <v>354</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" t="n" s="9">
         <v>330803.0</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" t="s" s="9">
         <v>355</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="9">
         <v>356</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" t="s" s="9">
         <v>357</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" t="n" s="9">
         <v>300.0</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" t="s" s="9">
         <v>358</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="9">
         <v>359</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" t="s" s="9">
         <v>360</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" t="n" s="9">
         <v>1240192.0</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" t="s" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s">
+      <c r="A137" t="s" s="9">
         <v>361</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" t="s" s="9">
         <v>362</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" t="n" s="9">
         <v>316.0</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s">
+      <c r="A138" t="s" s="9">
         <v>363</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" t="s" s="9">
         <v>364</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" t="n" s="9">
         <v>181.0</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s">
+      <c r="A139" t="s" s="9">
         <v>365</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" t="s" s="9">
         <v>366</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" t="n" s="9">
         <v>1128.0</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s">
+      <c r="A140" t="s" s="9">
         <v>367</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" t="s" s="9">
         <v>368</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" t="n" s="9">
         <v>1030700.0</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" t="s" s="9">
         <v>369</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s">
+      <c r="A141" t="s" s="9">
         <v>370</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" t="s" s="9">
         <v>371</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" t="n" s="9">
         <v>2040.0</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" t="s" s="9">
         <v>372</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s">
+      <c r="A142" t="s" s="9">
         <v>373</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" t="s" s="9">
         <v>374</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" t="n" s="9">
         <v>374.0</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s">
+      <c r="A143" t="s" s="9">
         <v>375</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" t="s" s="9">
         <v>376</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" t="n" s="9">
         <v>1964375.0</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" t="s" s="9">
         <v>377</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s">
+      <c r="A144" t="s" s="9">
         <v>378</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" t="s" s="9">
         <v>379</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" t="n" s="9">
         <v>702.0</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s">
+      <c r="A145" t="s" s="9">
         <v>380</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" t="s" s="9">
         <v>381</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" t="n" s="9">
         <v>33846.0</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" t="s" s="9">
         <v>382</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s">
+      <c r="A146" t="s" s="9">
         <v>383</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" t="s" s="9">
         <v>383</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" t="n" s="9">
         <v>2.02</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s">
+      <c r="A147" t="s" s="9">
         <v>384</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" t="s" s="9">
         <v>385</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" t="n" s="9">
         <v>1564110.0</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" t="s" s="9">
         <v>386</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s">
+      <c r="A148" t="s" s="9">
         <v>387</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" t="s" s="9">
         <v>388</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" t="n" s="9">
         <v>13812.0</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s">
+      <c r="A149" t="s" s="9">
         <v>389</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" t="s" s="9">
         <v>390</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" t="n" s="9">
         <v>102.0</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" t="s" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s">
+      <c r="A150" t="s" s="9">
         <v>391</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" t="s" s="9">
         <v>392</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" t="n" s="9">
         <v>446550.0</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" t="s" s="9">
         <v>393</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s">
+      <c r="A151" t="s" s="9">
         <v>394</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" t="s" s="9">
         <v>395</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" t="n" s="9">
         <v>801590.0</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" t="s" s="9">
         <v>396</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s">
+      <c r="A152" t="s" s="9">
         <v>397</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" t="s" s="9">
         <v>398</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" t="n" s="9">
         <v>676578.0</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" t="s" s="9">
         <v>399</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s">
+      <c r="A153" t="s" s="9">
         <v>400</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" t="s" s="9">
         <v>401</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" t="n" s="9">
         <v>825615.0</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" t="s" s="9">
         <v>402</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s">
+      <c r="A154" t="s" s="9">
         <v>403</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" t="s" s="9">
         <v>404</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" t="n" s="9">
         <v>21.0</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" t="s" s="9">
         <v>41</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s">
+      <c r="A155" t="s" s="9">
         <v>405</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" t="s" s="9">
         <v>406</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" t="n" s="9">
         <v>147181.0</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" t="s" s="9">
         <v>407</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s">
+      <c r="A156" t="s" s="9">
         <v>408</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" t="s" s="9">
         <v>409</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" t="n" s="9">
         <v>41850.0</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s">
+      <c r="A157" t="s" s="9">
         <v>410</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" t="s" s="9">
         <v>411</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" t="n" s="9">
         <v>18575.0</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" t="s" s="9">
         <v>211</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s">
+      <c r="A158" t="s" s="9">
         <v>412</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" t="s" s="9">
         <v>413</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" t="n" s="9">
         <v>270467.0</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" t="s" s="9">
         <v>414</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s">
+      <c r="A159" t="s" s="9">
         <v>415</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" t="s" s="9">
         <v>416</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" t="n" s="9">
         <v>130373.0</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" t="s" s="9">
         <v>417</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s">
+      <c r="A160" t="s" s="9">
         <v>418</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" t="s" s="9">
         <v>419</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" t="n" s="9">
         <v>1267000.0</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" t="s" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s">
+      <c r="A161" t="s" s="9">
         <v>420</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" t="s" s="9">
         <v>421</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" t="n" s="9">
         <v>923768.0</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" t="s" s="9">
         <v>422</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s">
+      <c r="A162" t="s" s="9">
         <v>423</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" t="s" s="9">
         <v>424</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" t="n" s="9">
         <v>260.0</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" t="s" s="9">
         <v>414</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s">
+      <c r="A163" t="s" s="9">
         <v>425</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" t="s" s="9">
         <v>294</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" t="n" s="9">
         <v>36.0</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" t="s" s="9">
         <v>41</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s">
+      <c r="A164" t="s" s="9">
         <v>426</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" t="s" s="9">
         <v>427</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" t="n" s="9">
         <v>120538.0</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" t="s" s="9">
         <v>428</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s">
+      <c r="A165" t="s" s="9">
         <v>429</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" t="s" s="9">
         <v>430</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" t="n" s="9">
         <v>25713.0</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" t="s" s="9">
         <v>431</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s">
+      <c r="A166" t="s" s="9">
         <v>432</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" t="s" s="9">
         <v>433</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166" t="n" s="9">
         <v>464.0</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s">
+      <c r="A167" t="s" s="9">
         <v>434</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" t="s" s="9">
         <v>435</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" t="n" s="9">
         <v>323802.0</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" t="s" s="9">
         <v>436</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s">
+      <c r="A168" t="s" s="9">
         <v>437</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" t="s" s="9">
         <v>438</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" t="n" s="9">
         <v>309500.0</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" t="s" s="9">
         <v>439</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s">
+      <c r="A169" t="s" s="9">
         <v>440</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" t="s" s="9">
         <v>441</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" t="n" s="9">
         <v>881912.0</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" t="s" s="9">
         <v>442</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s">
+      <c r="A170" t="s" s="9">
         <v>443</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" t="s" s="9">
         <v>444</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170" t="n" s="9">
         <v>459.0</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s">
+      <c r="A171" t="s" s="9">
         <v>445</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" t="s" s="9">
         <v>446</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" t="n" s="9">
         <v>6220.0</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" t="s" s="9">
         <v>447</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s">
+      <c r="A172" t="s" s="9">
         <v>448</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" t="s" s="9">
         <v>449</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172" t="n" s="9">
         <v>75417.0</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" t="s" s="9">
         <v>450</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s">
+      <c r="A173" t="s" s="9">
         <v>451</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" t="s" s="9">
         <v>452</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" t="n" s="9">
         <v>462840.0</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" t="s" s="9">
         <v>453</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s">
+      <c r="A174" t="s" s="9">
         <v>454</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" t="s" s="9">
         <v>455</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174" t="n" s="9">
         <v>406752.0</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" t="s" s="9">
         <v>456</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s">
+      <c r="A175" t="s" s="9">
         <v>457</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" t="s" s="9">
         <v>458</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" t="n" s="9">
         <v>1285216.0</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" t="s" s="9">
         <v>459</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s">
+      <c r="A176" t="s" s="9">
         <v>460</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" t="s" s="9">
         <v>461</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176" t="n" s="9">
         <v>342353.0</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" t="s" s="9">
         <v>462</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s">
+      <c r="A177" t="s" s="9">
         <v>463</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" t="s" s="9">
         <v>464</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177" t="n" s="9">
         <v>47.0</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" t="s" s="9">
         <v>414</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s">
+      <c r="A178" t="s" s="9">
         <v>465</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" t="s" s="9">
         <v>466</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178" t="n" s="9">
         <v>312679.0</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" t="s" s="9">
         <v>467</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s">
+      <c r="A179" t="s" s="9">
         <v>468</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" t="s" s="9">
         <v>469</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" t="n" s="9">
         <v>92090.0</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s">
+      <c r="A180" t="s" s="9">
         <v>470</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" t="s" s="9">
         <v>471</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180" t="n" s="9">
         <v>8870.0</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s">
+      <c r="A181" t="s" s="9">
         <v>472</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" t="s" s="9">
         <v>473</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" t="n" s="9">
         <v>11586.0</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" t="s" s="9">
         <v>474</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s">
+      <c r="A182" t="s" s="9">
         <v>475</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" t="s" s="9">
         <v>476</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" t="n" s="9">
         <v>342000.0</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" t="s" s="9">
         <v>109</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s">
+      <c r="A183" t="s" s="9">
         <v>477</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" t="s" s="9">
         <v>478</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183" t="n" s="9">
         <v>238391.0</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" t="s" s="9">
         <v>479</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s">
+      <c r="A184" t="s" s="9">
         <v>480</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" t="s" s="9">
         <v>481</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184" t="n" s="9">
         <v>1.7098242E7</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" t="s" s="9">
         <v>482</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s">
+      <c r="A185" t="s" s="9">
         <v>483</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" t="s" s="9">
         <v>484</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" t="n" s="9">
         <v>26338.0</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" t="s" s="9">
         <v>485</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s">
+      <c r="A186" t="s" s="9">
         <v>486</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" t="s" s="9">
         <v>487</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" t="n" s="9">
         <v>2511.0</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s">
+      <c r="A187" t="s" s="9">
         <v>488</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" t="s" s="9">
         <v>489</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187" t="n" s="9">
         <v>21.0</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s">
+      <c r="A188" t="s" s="9">
         <v>490</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" t="s" s="9">
         <v>491</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188" t="n" s="9">
         <v>394.0</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" t="s" s="9">
         <v>492</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s">
+      <c r="A189" t="s" s="9">
         <v>493</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" t="s" s="9">
         <v>494</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189" t="n" s="9">
         <v>261.0</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" t="s" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s">
+      <c r="A190" t="s" s="9">
         <v>495</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" t="s" s="9">
         <v>496</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190" t="n" s="9">
         <v>616.0</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" t="s" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s">
+      <c r="A191" t="s" s="9">
         <v>497</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" t="s" s="9">
         <v>498</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191" t="n" s="9">
         <v>53.0</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s">
+      <c r="A192" t="s" s="9">
         <v>499</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" t="s" s="9">
         <v>500</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192" t="n" s="9">
         <v>242.0</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s">
+      <c r="A193" t="s" s="9">
         <v>501</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" t="s" s="9">
         <v>502</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193" t="n" s="9">
         <v>389.0</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" t="s" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s">
+      <c r="A194" t="s" s="9">
         <v>503</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" t="s" s="9">
         <v>504</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194" t="n" s="9">
         <v>2842.0</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" t="s" s="9">
         <v>505</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s">
+      <c r="A195" t="s" s="9">
         <v>506</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" t="s" s="9">
         <v>507</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195" t="n" s="9">
         <v>61.0</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s">
+      <c r="A196" t="s" s="9">
         <v>508</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" t="s" s="9">
         <v>509</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196" t="n" s="9">
         <v>2149690.0</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" t="s" s="9">
         <v>510</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s">
+      <c r="A197" t="s" s="9">
         <v>511</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" t="s" s="9">
         <v>512</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197" t="n" s="9">
         <v>196722.0</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" t="s" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s">
+      <c r="A198" t="s" s="9">
         <v>513</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" t="s" s="9">
         <v>514</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198" t="n" s="9">
         <v>88361.0</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" t="s" s="9">
         <v>515</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s">
+      <c r="A199" t="s" s="9">
         <v>516</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" t="s" s="9">
         <v>517</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199" t="n" s="9">
         <v>452.0</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" t="s" s="9">
         <v>518</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s">
+      <c r="A200" t="s" s="9">
         <v>519</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" t="s" s="9">
         <v>520</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200" t="n" s="9">
         <v>71740.0</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" t="s" s="9">
         <v>521</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s">
+      <c r="A201" t="s" s="9">
         <v>522</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" t="s" s="9">
         <v>522</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" t="n" s="9">
         <v>710.0</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" t="s" s="9">
         <v>523</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s">
+      <c r="A202" t="s" s="9">
         <v>524</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" t="s" s="9">
         <v>525</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202" t="n" s="9">
         <v>34.0</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" t="s" s="9">
         <v>155</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s">
+      <c r="A203" t="s" s="9">
         <v>526</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" t="s" s="9">
         <v>527</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203" t="n" s="9">
         <v>49037.0</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s">
+      <c r="A204" t="s" s="9">
         <v>528</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" t="s" s="9">
         <v>529</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204" t="n" s="9">
         <v>20273.0</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s">
+      <c r="A205" t="s" s="9">
         <v>530</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" t="s" s="9">
         <v>531</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205" t="n" s="9">
         <v>28896.0</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" t="s" s="9">
         <v>532</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s">
+      <c r="A206" t="s" s="9">
         <v>533</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" t="s" s="9">
         <v>534</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206" t="n" s="9">
         <v>637657.0</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" t="s" s="9">
         <v>535</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s">
+      <c r="A207" t="s" s="9">
         <v>536</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" t="s" s="9">
         <v>537</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207" t="n" s="9">
         <v>1221037.0</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" t="s" s="9">
         <v>538</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s">
+      <c r="A208" t="s" s="9">
         <v>539</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" t="s" s="9">
         <v>540</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208" t="n" s="9">
         <v>3903.0</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" t="s" s="9">
         <v>541</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s">
+      <c r="A209" t="s" s="9">
         <v>542</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" t="s" s="9">
         <v>543</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209" t="n" s="9">
         <v>100210.0</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" t="s" s="9">
         <v>544</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s">
+      <c r="A210" t="s" s="9">
         <v>545</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" t="s" s="9">
         <v>546</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210" t="n" s="9">
         <v>619745.0</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" t="s" s="9">
         <v>547</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s">
+      <c r="A211" t="s" s="9">
         <v>548</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" t="s" s="9">
         <v>549</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211" t="n" s="9">
         <v>505992.0</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s">
+      <c r="A212" t="s" s="9">
         <v>550</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" t="s" s="9">
         <v>551</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212" t="n" s="9">
         <v>65610.0</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" t="s" s="9">
         <v>552</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s">
+      <c r="A213" t="s" s="9">
         <v>553</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" t="s" s="9">
         <v>554</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213" t="n" s="9">
         <v>1886068.0</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" t="s" s="9">
         <v>555</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s">
+      <c r="A214" t="s" s="9">
         <v>556</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" t="s" s="9">
         <v>557</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214" t="n" s="9">
         <v>163820.0</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" t="s" s="9">
         <v>558</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s">
+      <c r="A215" t="s" s="9">
         <v>559</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" t="s" s="9">
         <v>560</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215" t="n" s="9">
         <v>-1.0</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" t="s" s="9">
         <v>436</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s">
+      <c r="A216" t="s" s="9">
         <v>561</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" t="s" s="9">
         <v>562</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216" t="n" s="9">
         <v>450295.0</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" t="s" s="9">
         <v>563</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s">
+      <c r="A217" t="s" s="9">
         <v>564</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" t="s" s="9">
         <v>565</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217" t="n" s="9">
         <v>41284.0</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" t="s" s="9">
         <v>341</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s">
+      <c r="A218" t="s" s="9">
         <v>566</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" t="s" s="9">
         <v>567</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218" t="n" s="9">
         <v>185180.0</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" t="s" s="9">
         <v>568</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s">
+      <c r="A219" t="s" s="9">
         <v>569</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" t="s" s="9">
         <v>570</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219" t="n" s="9">
         <v>964.0</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" t="s" s="9">
         <v>571</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s">
+      <c r="A220" t="s" s="9">
         <v>572</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" t="s" s="9">
         <v>573</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220" t="n" s="9">
         <v>36193.0</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" t="s" s="9">
         <v>574</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s">
+      <c r="A221" t="s" s="9">
         <v>575</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" t="s" s="9">
         <v>576</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221" t="n" s="9">
         <v>143100.0</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" t="s" s="9">
         <v>577</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s">
+      <c r="A222" t="s" s="9">
         <v>578</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" t="s" s="9">
         <v>579</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222" t="n" s="9">
         <v>945087.0</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" t="s" s="9">
         <v>580</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s">
+      <c r="A223" t="s" s="9">
         <v>581</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" t="s" s="9">
         <v>582</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223" t="n" s="9">
         <v>513120.0</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" t="s" s="9">
         <v>583</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s">
+      <c r="A224" t="s" s="9">
         <v>584</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" t="s" s="9">
         <v>585</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224" t="n" s="9">
         <v>14874.0</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s">
+      <c r="A225" t="s" s="9">
         <v>586</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" t="s" s="9">
         <v>587</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225" t="n" s="9">
         <v>56785.0</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" t="s" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s">
+      <c r="A226" t="s" s="9">
         <v>588</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" t="s" s="9">
         <v>589</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226" t="n" s="9">
         <v>12.0</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" t="s" s="9">
         <v>414</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s">
+      <c r="A227" t="s" s="9">
         <v>590</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" t="s" s="9">
         <v>591</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227" t="n" s="9">
         <v>747.0</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" t="s" s="9">
         <v>592</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s">
+      <c r="A228" t="s" s="9">
         <v>593</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" t="s" s="9">
         <v>594</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228" t="n" s="9">
         <v>5130.0</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" t="s" s="9">
         <v>595</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s">
+      <c r="A229" t="s" s="9">
         <v>596</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" t="s" s="9">
         <v>597</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229" t="n" s="9">
         <v>163610.0</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" t="s" s="9">
         <v>598</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s">
+      <c r="A230" t="s" s="9">
         <v>599</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" t="s" s="9">
         <v>600</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230" t="n" s="9">
         <v>783562.0</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" t="s" s="9">
         <v>601</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s">
+      <c r="A231" t="s" s="9">
         <v>602</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" t="s" s="9">
         <v>603</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231" t="n" s="9">
         <v>488100.0</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" t="s" s="9">
         <v>604</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s">
+      <c r="A232" t="s" s="9">
         <v>605</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" t="s" s="9">
         <v>606</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232" t="n" s="9">
         <v>948.0</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s">
+      <c r="A233" t="s" s="9">
         <v>607</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" t="s" s="9">
         <v>608</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233" t="n" s="9">
         <v>26.0</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" t="s" s="9">
         <v>609</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s">
+      <c r="A234" t="s" s="9">
         <v>610</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" t="s" s="9">
         <v>611</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234" t="n" s="9">
         <v>241550.0</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" t="s" s="9">
         <v>612</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s">
+      <c r="A235" t="s" s="9">
         <v>613</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" t="s" s="9">
         <v>614</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235" t="n" s="9">
         <v>603500.0</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" t="s" s="9">
         <v>615</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s">
+      <c r="A236" t="s" s="9">
         <v>616</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" t="s" s="9">
         <v>617</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236" t="n" s="9">
         <v>83600.0</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" t="s" s="9">
         <v>618</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s">
+      <c r="A237" t="s" s="9">
         <v>619</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" t="s" s="9">
         <v>620</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237" t="n" s="9">
         <v>242900.0</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" t="s" s="9">
         <v>621</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s">
+      <c r="A238" t="s" s="9">
         <v>622</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" t="s" s="9">
         <v>623</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238" t="n" s="9">
         <v>9372610.0</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s">
+      <c r="A239" t="s" s="9">
         <v>624</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" t="s" s="9">
         <v>625</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239" t="n" s="9">
         <v>34.2</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s">
+      <c r="A240" t="s" s="9">
         <v>626</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" t="s" s="9">
         <v>627</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240" t="n" s="9">
         <v>347.0</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" t="s" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s">
+      <c r="A241" t="s" s="9">
         <v>628</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" t="s" s="9">
         <v>629</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241" t="n" s="9">
         <v>181034.0</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" t="s" s="9">
         <v>630</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s">
+      <c r="A242" t="s" s="9">
         <v>631</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" t="s" s="9">
         <v>632</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242" t="n" s="9">
         <v>447400.0</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" t="s" s="9">
         <v>633</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s">
+      <c r="A243" t="s" s="9">
         <v>634</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" t="s" s="9">
         <v>635</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243" t="n" s="9">
         <v>12189.0</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" t="s" s="9">
         <v>636</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s">
+      <c r="A244" t="s" s="9">
         <v>637</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" t="s" s="9">
         <v>637</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244" t="n" s="9">
         <v>0.44</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" t="s" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s">
+      <c r="A245" t="s" s="9">
         <v>638</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" t="s" s="9">
         <v>639</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245" t="n" s="9">
         <v>916445.0</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" t="s" s="9">
         <v>640</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s">
+      <c r="A246" t="s" s="9">
         <v>641</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" t="s" s="9">
         <v>642</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246" t="n" s="9">
         <v>331212.0</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" t="s" s="9">
         <v>643</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s">
+      <c r="A247" t="s" s="9">
         <v>644</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" t="s" s="9">
         <v>645</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247" t="n" s="9">
         <v>142.0</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" t="s" s="9">
         <v>211</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s">
+      <c r="A248" t="s" s="9">
         <v>646</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" t="s" s="9">
         <v>647</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248" t="n" s="9">
         <v>266000.0</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" t="s" s="9">
         <v>648</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s">
+      <c r="A249" t="s" s="9">
         <v>649</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" t="s" s="9">
         <v>650</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249" t="n" s="9">
         <v>527968.0</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" t="s" s="9">
         <v>651</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s">
+      <c r="A250" t="s" s="9">
         <v>652</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" t="s" s="9">
         <v>653</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250" t="n" s="9">
         <v>752612.0</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" t="s" s="9">
         <v>654</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s">
+      <c r="A251" t="s" s="9">
         <v>655</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" t="s" s="9">
         <v>656</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251" t="n" s="9">
         <v>390757.0</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" t="s" s="9">
         <v>657</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s">
+      <c r="A252" t="s" s="9">
         <v>658</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" t="s" s="9">
         <v>659</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252" t="n" s="9">
         <v>1580.0</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" t="s" s="9">
         <v>19</v>
       </c>
     </row>

--- a/CountriesList.xlsx
+++ b/CountriesList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="909">
   <si>
     <t>Countries List</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Kabul</t>
   </si>
   <si>
+    <t>652.230,00</t>
+  </si>
+  <si>
     <t>AFN</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t>Tirana</t>
   </si>
   <si>
+    <t>28.748,00</t>
+  </si>
+  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
     <t>Algiers</t>
   </si>
   <si>
+    <t>2.381.741,00</t>
+  </si>
+  <si>
     <t>DZD</t>
   </si>
   <si>
@@ -62,6 +71,9 @@
     <t>Pago Pago</t>
   </si>
   <si>
+    <t>199,00</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
@@ -71,6 +83,9 @@
     <t>Andorra la Vella</t>
   </si>
   <si>
+    <t>468,00</t>
+  </si>
+  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -80,6 +95,9 @@
     <t>Luanda</t>
   </si>
   <si>
+    <t>1.246.700,00</t>
+  </si>
+  <si>
     <t>AOA</t>
   </si>
   <si>
@@ -89,6 +107,9 @@
     <t>The Valley</t>
   </si>
   <si>
+    <t>91,00</t>
+  </si>
+  <si>
     <t>XCD</t>
   </si>
   <si>
@@ -98,18 +119,27 @@
     <t>-</t>
   </si>
   <si>
+    <t>14.000.000,00</t>
+  </si>
+  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
     <t>Saint John's</t>
   </si>
   <si>
+    <t>442,00</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>Buenos Aires</t>
   </si>
   <si>
+    <t>2.780.400,00</t>
+  </si>
+  <si>
     <t>ARS</t>
   </si>
   <si>
@@ -119,6 +149,9 @@
     <t>Yerevan</t>
   </si>
   <si>
+    <t>29.743,00</t>
+  </si>
+  <si>
     <t>AMD</t>
   </si>
   <si>
@@ -128,6 +161,9 @@
     <t>Oranjestad</t>
   </si>
   <si>
+    <t>180,00</t>
+  </si>
+  <si>
     <t>AWG</t>
   </si>
   <si>
@@ -137,6 +173,9 @@
     <t>Canberra</t>
   </si>
   <si>
+    <t>7.692.024,00</t>
+  </si>
+  <si>
     <t>AUD</t>
   </si>
   <si>
@@ -146,12 +185,18 @@
     <t>Vienna</t>
   </si>
   <si>
+    <t>83.871,00</t>
+  </si>
+  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
     <t>Baku</t>
   </si>
   <si>
+    <t>86.600,00</t>
+  </si>
+  <si>
     <t>AZN</t>
   </si>
   <si>
@@ -161,6 +206,9 @@
     <t>Nassau</t>
   </si>
   <si>
+    <t>13.943,00</t>
+  </si>
+  <si>
     <t>BSD,USD</t>
   </si>
   <si>
@@ -170,6 +218,9 @@
     <t>Manama</t>
   </si>
   <si>
+    <t>765,00</t>
+  </si>
+  <si>
     <t>BHD</t>
   </si>
   <si>
@@ -179,6 +230,9 @@
     <t>Dhaka</t>
   </si>
   <si>
+    <t>147.570,00</t>
+  </si>
+  <si>
     <t>BDT</t>
   </si>
   <si>
@@ -188,6 +242,9 @@
     <t>Bridgetown</t>
   </si>
   <si>
+    <t>430,00</t>
+  </si>
+  <si>
     <t>BBD</t>
   </si>
   <si>
@@ -197,6 +254,9 @@
     <t>Minsk</t>
   </si>
   <si>
+    <t>207.600,00</t>
+  </si>
+  <si>
     <t>BYN</t>
   </si>
   <si>
@@ -206,12 +266,18 @@
     <t>Brussels</t>
   </si>
   <si>
+    <t>30.528,00</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
     <t>Belmopan</t>
   </si>
   <si>
+    <t>22.966,00</t>
+  </si>
+  <si>
     <t>BZD</t>
   </si>
   <si>
@@ -221,6 +287,9 @@
     <t>Porto-Novo</t>
   </si>
   <si>
+    <t>112.622,00</t>
+  </si>
+  <si>
     <t>XOF</t>
   </si>
   <si>
@@ -230,6 +299,9 @@
     <t>Hamilton</t>
   </si>
   <si>
+    <t>54,00</t>
+  </si>
+  <si>
     <t>BMD</t>
   </si>
   <si>
@@ -239,6 +311,9 @@
     <t>Thimphu</t>
   </si>
   <si>
+    <t>38.394,00</t>
+  </si>
+  <si>
     <t>INR,BTN</t>
   </si>
   <si>
@@ -248,6 +323,9 @@
     <t>Sucre</t>
   </si>
   <si>
+    <t>1.098.581,00</t>
+  </si>
+  <si>
     <t>BOB</t>
   </si>
   <si>
@@ -257,6 +335,9 @@
     <t>Sarajevo</t>
   </si>
   <si>
+    <t>51.209,00</t>
+  </si>
+  <si>
     <t>BAM</t>
   </si>
   <si>
@@ -266,18 +347,27 @@
     <t>Gaborone</t>
   </si>
   <si>
+    <t>582.000,00</t>
+  </si>
+  <si>
     <t>BWP</t>
   </si>
   <si>
     <t>Bouvet Island</t>
   </si>
   <si>
+    <t>49,00</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t>Brasília</t>
   </si>
   <si>
+    <t>8.515.767,00</t>
+  </si>
+  <si>
     <t>BRL</t>
   </si>
   <si>
@@ -287,18 +377,27 @@
     <t>Diego Garcia</t>
   </si>
   <si>
+    <t>60,00</t>
+  </si>
+  <si>
     <t>British Virgin Islands</t>
   </si>
   <si>
     <t>Road Town</t>
   </si>
   <si>
+    <t>151,00</t>
+  </si>
+  <si>
     <t>Brunei</t>
   </si>
   <si>
     <t>Bandar Seri Begawan</t>
   </si>
   <si>
+    <t>5.765,00</t>
+  </si>
+  <si>
     <t>SGD,BND</t>
   </si>
   <si>
@@ -308,6 +407,9 @@
     <t>Sofia</t>
   </si>
   <si>
+    <t>110.879,00</t>
+  </si>
+  <si>
     <t>BGN</t>
   </si>
   <si>
@@ -317,12 +419,18 @@
     <t>Ouagadougou</t>
   </si>
   <si>
+    <t>272.967,00</t>
+  </si>
+  <si>
     <t>Burundi</t>
   </si>
   <si>
     <t>Gitega</t>
   </si>
   <si>
+    <t>27.834,00</t>
+  </si>
+  <si>
     <t>BIF</t>
   </si>
   <si>
@@ -332,6 +440,9 @@
     <t>Phnom Penh</t>
   </si>
   <si>
+    <t>181.035,00</t>
+  </si>
+  <si>
     <t>KHR,USD</t>
   </si>
   <si>
@@ -341,6 +452,9 @@
     <t>Yaoundé</t>
   </si>
   <si>
+    <t>475.442,00</t>
+  </si>
+  <si>
     <t>XAF</t>
   </si>
   <si>
@@ -350,6 +464,9 @@
     <t>Ottawa</t>
   </si>
   <si>
+    <t>9.984.670,00</t>
+  </si>
+  <si>
     <t>CAD</t>
   </si>
   <si>
@@ -359,6 +476,9 @@
     <t>Praia</t>
   </si>
   <si>
+    <t>4.033,00</t>
+  </si>
+  <si>
     <t>CVE</t>
   </si>
   <si>
@@ -368,12 +488,18 @@
     <t>Kralendijk</t>
   </si>
   <si>
+    <t>328,00</t>
+  </si>
+  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
     <t>George Town</t>
   </si>
   <si>
+    <t>264,00</t>
+  </si>
+  <si>
     <t>KYD</t>
   </si>
   <si>
@@ -383,18 +509,27 @@
     <t>Bangui</t>
   </si>
   <si>
+    <t>622.984,00</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>N'Djamena</t>
   </si>
   <si>
+    <t>1.284.000,00</t>
+  </si>
+  <si>
     <t>Chile</t>
   </si>
   <si>
     <t>Santiago</t>
   </si>
   <si>
+    <t>756.102,00</t>
+  </si>
+  <si>
     <t>CLP</t>
   </si>
   <si>
@@ -404,6 +539,9 @@
     <t>Beijing</t>
   </si>
   <si>
+    <t>9.706.961,00</t>
+  </si>
+  <si>
     <t>CNY</t>
   </si>
   <si>
@@ -413,18 +551,27 @@
     <t>Flying Fish Cove</t>
   </si>
   <si>
+    <t>135,00</t>
+  </si>
+  <si>
     <t>Cocos (Keeling) Islands</t>
   </si>
   <si>
     <t>West Island</t>
   </si>
   <si>
+    <t>14,00</t>
+  </si>
+  <si>
     <t>Colombia</t>
   </si>
   <si>
     <t>Bogotá</t>
   </si>
   <si>
+    <t>1.141.748,00</t>
+  </si>
+  <si>
     <t>COP</t>
   </si>
   <si>
@@ -434,6 +581,9 @@
     <t>Moroni</t>
   </si>
   <si>
+    <t>1.862,00</t>
+  </si>
+  <si>
     <t>KMF</t>
   </si>
   <si>
@@ -443,6 +593,9 @@
     <t>Avarua</t>
   </si>
   <si>
+    <t>236,00</t>
+  </si>
+  <si>
     <t>NZD,CKD</t>
   </si>
   <si>
@@ -452,6 +605,9 @@
     <t>San José</t>
   </si>
   <si>
+    <t>51.100,00</t>
+  </si>
+  <si>
     <t>CRC</t>
   </si>
   <si>
@@ -461,6 +617,9 @@
     <t>Zagreb</t>
   </si>
   <si>
+    <t>56.594,00</t>
+  </si>
+  <si>
     <t>HRK</t>
   </si>
   <si>
@@ -470,6 +629,9 @@
     <t>Havana</t>
   </si>
   <si>
+    <t>109.884,00</t>
+  </si>
+  <si>
     <t>CUC,CUP</t>
   </si>
   <si>
@@ -479,6 +641,9 @@
     <t>Willemstad</t>
   </si>
   <si>
+    <t>444,00</t>
+  </si>
+  <si>
     <t>ANG</t>
   </si>
   <si>
@@ -488,12 +653,18 @@
     <t>Nicosia</t>
   </si>
   <si>
+    <t>9.251,00</t>
+  </si>
+  <si>
     <t>Czechia</t>
   </si>
   <si>
     <t>Prague</t>
   </si>
   <si>
+    <t>78.865,00</t>
+  </si>
+  <si>
     <t>CZK</t>
   </si>
   <si>
@@ -503,6 +674,9 @@
     <t>Kinshasa</t>
   </si>
   <si>
+    <t>2.344.858,00</t>
+  </si>
+  <si>
     <t>CDF</t>
   </si>
   <si>
@@ -512,12 +686,18 @@
     <t>Copenhagen</t>
   </si>
   <si>
+    <t>43.094,00</t>
+  </si>
+  <si>
     <t>DKK</t>
   </si>
   <si>
     <t>Djibouti</t>
   </si>
   <si>
+    <t>23.200,00</t>
+  </si>
+  <si>
     <t>DJF</t>
   </si>
   <si>
@@ -527,12 +707,18 @@
     <t>Roseau</t>
   </si>
   <si>
+    <t>751,00</t>
+  </si>
+  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
     <t>Santo Domingo</t>
   </si>
   <si>
+    <t>48.671,00</t>
+  </si>
+  <si>
     <t>DOP</t>
   </si>
   <si>
@@ -542,12 +728,18 @@
     <t>Quito</t>
   </si>
   <si>
+    <t>276.841,00</t>
+  </si>
+  <si>
     <t>Egypt</t>
   </si>
   <si>
     <t>Cairo</t>
   </si>
   <si>
+    <t>1.002.450,00</t>
+  </si>
+  <si>
     <t>EGP</t>
   </si>
   <si>
@@ -557,18 +749,27 @@
     <t>San Salvador</t>
   </si>
   <si>
+    <t>21.041,00</t>
+  </si>
+  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>Malabo</t>
   </si>
   <si>
+    <t>28.051,00</t>
+  </si>
+  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>Asmara</t>
   </si>
   <si>
+    <t>117.600,00</t>
+  </si>
+  <si>
     <t>ERN</t>
   </si>
   <si>
@@ -578,12 +779,18 @@
     <t>Tallinn</t>
   </si>
   <si>
+    <t>45.227,00</t>
+  </si>
+  <si>
     <t>Eswatini</t>
   </si>
   <si>
     <t>Mbabane</t>
   </si>
   <si>
+    <t>17.364,00</t>
+  </si>
+  <si>
     <t>SZL,ZAR</t>
   </si>
   <si>
@@ -593,6 +800,9 @@
     <t>Addis Ababa</t>
   </si>
   <si>
+    <t>1.104.300,00</t>
+  </si>
+  <si>
     <t>ETB</t>
   </si>
   <si>
@@ -602,6 +812,9 @@
     <t>Stanley</t>
   </si>
   <si>
+    <t>12.173,00</t>
+  </si>
+  <si>
     <t>FKP</t>
   </si>
   <si>
@@ -611,6 +824,9 @@
     <t>Tórshavn</t>
   </si>
   <si>
+    <t>1.393,00</t>
+  </si>
+  <si>
     <t>FOK,DKK</t>
   </si>
   <si>
@@ -620,6 +836,9 @@
     <t>Suva</t>
   </si>
   <si>
+    <t>18.272,00</t>
+  </si>
+  <si>
     <t>FJD</t>
   </si>
   <si>
@@ -629,24 +848,36 @@
     <t>Helsinki</t>
   </si>
   <si>
+    <t>338.424,00</t>
+  </si>
+  <si>
     <t>France</t>
   </si>
   <si>
     <t>Paris</t>
   </si>
   <si>
+    <t>551.695,00</t>
+  </si>
+  <si>
     <t>French Guiana</t>
   </si>
   <si>
     <t>Cayenne</t>
   </si>
   <si>
+    <t>83.534,00</t>
+  </si>
+  <si>
     <t>French Polynesia</t>
   </si>
   <si>
     <t>Papeetē</t>
   </si>
   <si>
+    <t>4.167,00</t>
+  </si>
+  <si>
     <t>XPF</t>
   </si>
   <si>
@@ -656,18 +887,27 @@
     <t>Port-aux-Français</t>
   </si>
   <si>
+    <t>7.747,00</t>
+  </si>
+  <si>
     <t>Gabon</t>
   </si>
   <si>
     <t>Libreville</t>
   </si>
   <si>
+    <t>267.668,00</t>
+  </si>
+  <si>
     <t>Gambia</t>
   </si>
   <si>
     <t>Banjul</t>
   </si>
   <si>
+    <t>10.689,00</t>
+  </si>
+  <si>
     <t>GMD</t>
   </si>
   <si>
@@ -677,6 +917,9 @@
     <t>Tbilisi</t>
   </si>
   <si>
+    <t>69.700,00</t>
+  </si>
+  <si>
     <t>GEL</t>
   </si>
   <si>
@@ -686,18 +929,27 @@
     <t>Berlin</t>
   </si>
   <si>
+    <t>357.114,00</t>
+  </si>
+  <si>
     <t>Ghana</t>
   </si>
   <si>
     <t>Accra</t>
   </si>
   <si>
+    <t>238.533,00</t>
+  </si>
+  <si>
     <t>GHS</t>
   </si>
   <si>
     <t>Gibraltar</t>
   </si>
   <si>
+    <t>6,00</t>
+  </si>
+  <si>
     <t>GIP</t>
   </si>
   <si>
@@ -707,36 +959,54 @@
     <t>Athens</t>
   </si>
   <si>
+    <t>131.990,00</t>
+  </si>
+  <si>
     <t>Greenland</t>
   </si>
   <si>
     <t>Nuuk</t>
   </si>
   <si>
+    <t>2.166.086,00</t>
+  </si>
+  <si>
     <t>Grenada</t>
   </si>
   <si>
     <t>St. George's</t>
   </si>
   <si>
+    <t>344,00</t>
+  </si>
+  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
     <t>Basse-Terre</t>
   </si>
   <si>
+    <t>1.628,00</t>
+  </si>
+  <si>
     <t>Guam</t>
   </si>
   <si>
     <t>Hagåtña</t>
   </si>
   <si>
+    <t>549,00</t>
+  </si>
+  <si>
     <t>Guatemala</t>
   </si>
   <si>
     <t>Guatemala City</t>
   </si>
   <si>
+    <t>108.889,00</t>
+  </si>
+  <si>
     <t>GTQ</t>
   </si>
   <si>
@@ -746,6 +1016,9 @@
     <t>St. Peter Port</t>
   </si>
   <si>
+    <t>78,00</t>
+  </si>
+  <si>
     <t>GGP,GBP</t>
   </si>
   <si>
@@ -755,6 +1028,9 @@
     <t>Conakry</t>
   </si>
   <si>
+    <t>245.857,00</t>
+  </si>
+  <si>
     <t>GNF</t>
   </si>
   <si>
@@ -764,12 +1040,18 @@
     <t>Bissau</t>
   </si>
   <si>
+    <t>36.125,00</t>
+  </si>
+  <si>
     <t>Guyana</t>
   </si>
   <si>
     <t>Georgetown</t>
   </si>
   <si>
+    <t>214.969,00</t>
+  </si>
+  <si>
     <t>GYD</t>
   </si>
   <si>
@@ -779,18 +1061,27 @@
     <t>Port-au-Prince</t>
   </si>
   <si>
+    <t>27.750,00</t>
+  </si>
+  <si>
     <t>HTG</t>
   </si>
   <si>
     <t>Heard Island and McDonald Islands</t>
   </si>
   <si>
+    <t>412,00</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>Tegucigalpa</t>
   </si>
   <si>
+    <t>112.492,00</t>
+  </si>
+  <si>
     <t>HNL</t>
   </si>
   <si>
@@ -800,6 +1091,9 @@
     <t>City of Victoria</t>
   </si>
   <si>
+    <t>1.104,00</t>
+  </si>
+  <si>
     <t>HKD</t>
   </si>
   <si>
@@ -809,6 +1103,9 @@
     <t>Budapest</t>
   </si>
   <si>
+    <t>93.028,00</t>
+  </si>
+  <si>
     <t>HUF</t>
   </si>
   <si>
@@ -818,6 +1115,9 @@
     <t>Reykjavik</t>
   </si>
   <si>
+    <t>103.000,00</t>
+  </si>
+  <si>
     <t>ISK</t>
   </si>
   <si>
@@ -827,6 +1127,9 @@
     <t>New Delhi</t>
   </si>
   <si>
+    <t>3.287.590,00</t>
+  </si>
+  <si>
     <t>INR</t>
   </si>
   <si>
@@ -836,6 +1139,9 @@
     <t>Jakarta</t>
   </si>
   <si>
+    <t>1.904.569,00</t>
+  </si>
+  <si>
     <t>IDR</t>
   </si>
   <si>
@@ -845,6 +1151,9 @@
     <t>Tehran</t>
   </si>
   <si>
+    <t>1.648.195,00</t>
+  </si>
+  <si>
     <t>IRR</t>
   </si>
   <si>
@@ -854,6 +1163,9 @@
     <t>Baghdad</t>
   </si>
   <si>
+    <t>438.317,00</t>
+  </si>
+  <si>
     <t>IQD</t>
   </si>
   <si>
@@ -863,12 +1175,18 @@
     <t>Dublin</t>
   </si>
   <si>
+    <t>70.273,00</t>
+  </si>
+  <si>
     <t>Isle of Man</t>
   </si>
   <si>
     <t>Douglas</t>
   </si>
   <si>
+    <t>572,00</t>
+  </si>
+  <si>
     <t>GBP,IMP</t>
   </si>
   <si>
@@ -878,6 +1196,9 @@
     <t>Jerusalem</t>
   </si>
   <si>
+    <t>20.770,00</t>
+  </si>
+  <si>
     <t>ILS</t>
   </si>
   <si>
@@ -887,18 +1208,27 @@
     <t>Rome</t>
   </si>
   <si>
+    <t>301.336,00</t>
+  </si>
+  <si>
     <t>Ivory Coast</t>
   </si>
   <si>
     <t>Yamoussoukro</t>
   </si>
   <si>
+    <t>322.463,00</t>
+  </si>
+  <si>
     <t>Jamaica</t>
   </si>
   <si>
     <t>Kingston</t>
   </si>
   <si>
+    <t>10.991,00</t>
+  </si>
+  <si>
     <t>JMD</t>
   </si>
   <si>
@@ -908,6 +1238,9 @@
     <t>Tokyo</t>
   </si>
   <si>
+    <t>377.930,00</t>
+  </si>
+  <si>
     <t>JPY</t>
   </si>
   <si>
@@ -917,6 +1250,9 @@
     <t>Saint Helier</t>
   </si>
   <si>
+    <t>116,00</t>
+  </si>
+  <si>
     <t>GBP,JEP</t>
   </si>
   <si>
@@ -926,6 +1262,9 @@
     <t>Amman</t>
   </si>
   <si>
+    <t>89.342,00</t>
+  </si>
+  <si>
     <t>JOD</t>
   </si>
   <si>
@@ -935,6 +1274,9 @@
     <t>Nur-Sultan</t>
   </si>
   <si>
+    <t>2.724.900,00</t>
+  </si>
+  <si>
     <t>KZT</t>
   </si>
   <si>
@@ -944,6 +1286,9 @@
     <t>Nairobi</t>
   </si>
   <si>
+    <t>580.367,00</t>
+  </si>
+  <si>
     <t>KES</t>
   </si>
   <si>
@@ -953,6 +1298,9 @@
     <t>South Tarawa</t>
   </si>
   <si>
+    <t>811,00</t>
+  </si>
+  <si>
     <t>AUD,KID</t>
   </si>
   <si>
@@ -962,12 +1310,18 @@
     <t>Pristina</t>
   </si>
   <si>
+    <t>10.908,00</t>
+  </si>
+  <si>
     <t>Kuwait</t>
   </si>
   <si>
     <t>Kuwait City</t>
   </si>
   <si>
+    <t>17.818,00</t>
+  </si>
+  <si>
     <t>KWD</t>
   </si>
   <si>
@@ -977,6 +1331,9 @@
     <t>Bishkek</t>
   </si>
   <si>
+    <t>199.951,00</t>
+  </si>
+  <si>
     <t>KGS</t>
   </si>
   <si>
@@ -986,6 +1343,9 @@
     <t>Vientiane</t>
   </si>
   <si>
+    <t>236.800,00</t>
+  </si>
+  <si>
     <t>LAK</t>
   </si>
   <si>
@@ -995,12 +1355,18 @@
     <t>Riga</t>
   </si>
   <si>
+    <t>64.559,00</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
     <t>Beirut</t>
   </si>
   <si>
+    <t>10.452,00</t>
+  </si>
+  <si>
     <t>LBP</t>
   </si>
   <si>
@@ -1010,6 +1376,9 @@
     <t>Maseru</t>
   </si>
   <si>
+    <t>30.355,00</t>
+  </si>
+  <si>
     <t>LSL,ZAR</t>
   </si>
   <si>
@@ -1019,6 +1388,9 @@
     <t>Monrovia</t>
   </si>
   <si>
+    <t>111.369,00</t>
+  </si>
+  <si>
     <t>LRD</t>
   </si>
   <si>
@@ -1028,6 +1400,9 @@
     <t>Tripoli</t>
   </si>
   <si>
+    <t>1.759.540,00</t>
+  </si>
+  <si>
     <t>LYD</t>
   </si>
   <si>
@@ -1037,6 +1412,9 @@
     <t>Vaduz</t>
   </si>
   <si>
+    <t>160,00</t>
+  </si>
+  <si>
     <t>CHF</t>
   </si>
   <si>
@@ -1046,12 +1424,21 @@
     <t>Vilnius</t>
   </si>
   <si>
+    <t>65.300,00</t>
+  </si>
+  <si>
     <t>Luxembourg</t>
   </si>
   <si>
+    <t>2.586,00</t>
+  </si>
+  <si>
     <t>Macau</t>
   </si>
   <si>
+    <t>30,00</t>
+  </si>
+  <si>
     <t>MOP</t>
   </si>
   <si>
@@ -1061,6 +1448,9 @@
     <t>Antananarivo</t>
   </si>
   <si>
+    <t>587.041,00</t>
+  </si>
+  <si>
     <t>MGA</t>
   </si>
   <si>
@@ -1070,6 +1460,9 @@
     <t>Lilongwe</t>
   </si>
   <si>
+    <t>118.484,00</t>
+  </si>
+  <si>
     <t>MWK</t>
   </si>
   <si>
@@ -1079,6 +1472,9 @@
     <t>Kuala Lumpur</t>
   </si>
   <si>
+    <t>330.803,00</t>
+  </si>
+  <si>
     <t>MYR</t>
   </si>
   <si>
@@ -1088,6 +1484,9 @@
     <t>Malé</t>
   </si>
   <si>
+    <t>300,00</t>
+  </si>
+  <si>
     <t>MVR</t>
   </si>
   <si>
@@ -1097,30 +1496,45 @@
     <t>Bamako</t>
   </si>
   <si>
+    <t>1.240.192,00</t>
+  </si>
+  <si>
     <t>Malta</t>
   </si>
   <si>
     <t>Valletta</t>
   </si>
   <si>
+    <t>316,00</t>
+  </si>
+  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
     <t>Majuro</t>
   </si>
   <si>
+    <t>181,00</t>
+  </si>
+  <si>
     <t>Martinique</t>
   </si>
   <si>
     <t>Fort-de-France</t>
   </si>
   <si>
+    <t>1.128,00</t>
+  </si>
+  <si>
     <t>Mauritania</t>
   </si>
   <si>
     <t>Nouakchott</t>
   </si>
   <si>
+    <t>1.030.700,00</t>
+  </si>
+  <si>
     <t>MRU</t>
   </si>
   <si>
@@ -1130,6 +1544,9 @@
     <t>Port Louis</t>
   </si>
   <si>
+    <t>2.040,00</t>
+  </si>
+  <si>
     <t>MUR</t>
   </si>
   <si>
@@ -1139,12 +1556,18 @@
     <t>Mamoudzou</t>
   </si>
   <si>
+    <t>374,00</t>
+  </si>
+  <si>
     <t>Mexico</t>
   </si>
   <si>
     <t>Mexico City</t>
   </si>
   <si>
+    <t>1.964.375,00</t>
+  </si>
+  <si>
     <t>MXN</t>
   </si>
   <si>
@@ -1154,24 +1577,36 @@
     <t>Palikir</t>
   </si>
   <si>
+    <t>702,00</t>
+  </si>
+  <si>
     <t>Moldova</t>
   </si>
   <si>
     <t>Chișinău</t>
   </si>
   <si>
+    <t>33.846,00</t>
+  </si>
+  <si>
     <t>MDL</t>
   </si>
   <si>
     <t>Monaco</t>
   </si>
   <si>
+    <t>2,02</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>Ulan Bator</t>
   </si>
   <si>
+    <t>1.564.110,00</t>
+  </si>
+  <si>
     <t>MNT</t>
   </si>
   <si>
@@ -1181,18 +1616,27 @@
     <t>Podgorica</t>
   </si>
   <si>
+    <t>13.812,00</t>
+  </si>
+  <si>
     <t>Montserrat</t>
   </si>
   <si>
     <t>Plymouth</t>
   </si>
   <si>
+    <t>102,00</t>
+  </si>
+  <si>
     <t>Morocco</t>
   </si>
   <si>
     <t>Rabat</t>
   </si>
   <si>
+    <t>446.550,00</t>
+  </si>
+  <si>
     <t>MAD</t>
   </si>
   <si>
@@ -1202,6 +1646,9 @@
     <t>Maputo</t>
   </si>
   <si>
+    <t>801.590,00</t>
+  </si>
+  <si>
     <t>MZN</t>
   </si>
   <si>
@@ -1211,6 +1658,9 @@
     <t>Naypyidaw</t>
   </si>
   <si>
+    <t>676.578,00</t>
+  </si>
+  <si>
     <t>MMK</t>
   </si>
   <si>
@@ -1220,6 +1670,9 @@
     <t>Windhoek</t>
   </si>
   <si>
+    <t>825.615,00</t>
+  </si>
+  <si>
     <t>NAD,ZAR</t>
   </si>
   <si>
@@ -1229,12 +1682,18 @@
     <t>Yaren</t>
   </si>
   <si>
+    <t>21,00</t>
+  </si>
+  <si>
     <t>Nepal</t>
   </si>
   <si>
     <t>Kathmandu</t>
   </si>
   <si>
+    <t>147.181,00</t>
+  </si>
+  <si>
     <t>NPR</t>
   </si>
   <si>
@@ -1244,18 +1703,27 @@
     <t>Amsterdam</t>
   </si>
   <si>
+    <t>41.850,00</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
     <t>Nouméa</t>
   </si>
   <si>
+    <t>18.575,00</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
     <t>Wellington</t>
   </si>
   <si>
+    <t>270.467,00</t>
+  </si>
+  <si>
     <t>NZD</t>
   </si>
   <si>
@@ -1265,6 +1733,9 @@
     <t>Managua</t>
   </si>
   <si>
+    <t>130.373,00</t>
+  </si>
+  <si>
     <t>NIO</t>
   </si>
   <si>
@@ -1274,12 +1745,18 @@
     <t>Niamey</t>
   </si>
   <si>
+    <t>1.267.000,00</t>
+  </si>
+  <si>
     <t>Nigeria</t>
   </si>
   <si>
     <t>Abuja</t>
   </si>
   <si>
+    <t>923.768,00</t>
+  </si>
+  <si>
     <t>NGN</t>
   </si>
   <si>
@@ -1289,15 +1766,24 @@
     <t>Alofi</t>
   </si>
   <si>
+    <t>260,00</t>
+  </si>
+  <si>
     <t>Norfolk Island</t>
   </si>
   <si>
+    <t>36,00</t>
+  </si>
+  <si>
     <t>North Korea</t>
   </si>
   <si>
     <t>Pyongyang</t>
   </si>
   <si>
+    <t>120.538,00</t>
+  </si>
+  <si>
     <t>KPW</t>
   </si>
   <si>
@@ -1307,6 +1793,9 @@
     <t>Skopje</t>
   </si>
   <si>
+    <t>25.713,00</t>
+  </si>
+  <si>
     <t>MKD</t>
   </si>
   <si>
@@ -1316,12 +1805,18 @@
     <t>Saipan</t>
   </si>
   <si>
+    <t>464,00</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
     <t>Oslo</t>
   </si>
   <si>
+    <t>323.802,00</t>
+  </si>
+  <si>
     <t>NOK</t>
   </si>
   <si>
@@ -1331,6 +1826,9 @@
     <t>Muscat</t>
   </si>
   <si>
+    <t>309.500,00</t>
+  </si>
+  <si>
     <t>OMR</t>
   </si>
   <si>
@@ -1340,6 +1838,9 @@
     <t>Islamabad</t>
   </si>
   <si>
+    <t>881.912,00</t>
+  </si>
+  <si>
     <t>PKR</t>
   </si>
   <si>
@@ -1349,12 +1850,18 @@
     <t>Ngerulmud</t>
   </si>
   <si>
+    <t>459,00</t>
+  </si>
+  <si>
     <t>Palestine</t>
   </si>
   <si>
     <t>Ramallah</t>
   </si>
   <si>
+    <t>6.220,00</t>
+  </si>
+  <si>
     <t>ILS,JOD,EGP</t>
   </si>
   <si>
@@ -1364,6 +1871,9 @@
     <t>Panama City</t>
   </si>
   <si>
+    <t>75.417,00</t>
+  </si>
+  <si>
     <t>PAB,USD</t>
   </si>
   <si>
@@ -1373,6 +1883,9 @@
     <t>Port Moresby</t>
   </si>
   <si>
+    <t>462.840,00</t>
+  </si>
+  <si>
     <t>PGK</t>
   </si>
   <si>
@@ -1382,6 +1895,9 @@
     <t>Asunción</t>
   </si>
   <si>
+    <t>406.752,00</t>
+  </si>
+  <si>
     <t>PYG</t>
   </si>
   <si>
@@ -1391,6 +1907,9 @@
     <t>Lima</t>
   </si>
   <si>
+    <t>1.285.216,00</t>
+  </si>
+  <si>
     <t>PEN</t>
   </si>
   <si>
@@ -1400,6 +1919,9 @@
     <t>Manila</t>
   </si>
   <si>
+    <t>342.353,00</t>
+  </si>
+  <si>
     <t>PHP</t>
   </si>
   <si>
@@ -1409,12 +1931,18 @@
     <t>Adamstown</t>
   </si>
   <si>
+    <t>47,00</t>
+  </si>
+  <si>
     <t>Poland</t>
   </si>
   <si>
     <t>Warsaw</t>
   </si>
   <si>
+    <t>312.679,00</t>
+  </si>
+  <si>
     <t>PLN</t>
   </si>
   <si>
@@ -1424,18 +1952,27 @@
     <t>Lisbon</t>
   </si>
   <si>
+    <t>92.090,00</t>
+  </si>
+  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
     <t>San Juan</t>
   </si>
   <si>
+    <t>8.870,00</t>
+  </si>
+  <si>
     <t>Qatar</t>
   </si>
   <si>
     <t>Doha</t>
   </si>
   <si>
+    <t>11.586,00</t>
+  </si>
+  <si>
     <t>QAR</t>
   </si>
   <si>
@@ -1445,12 +1982,18 @@
     <t>Brazzaville</t>
   </si>
   <si>
+    <t>342.000,00</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
     <t>Bucharest</t>
   </si>
   <si>
+    <t>238.391,00</t>
+  </si>
+  <si>
     <t>RON</t>
   </si>
   <si>
@@ -1460,6 +2003,9 @@
     <t>Moscow</t>
   </si>
   <si>
+    <t>17.098.242,00</t>
+  </si>
+  <si>
     <t>RUB</t>
   </si>
   <si>
@@ -1469,6 +2015,9 @@
     <t>Kigali</t>
   </si>
   <si>
+    <t>26.338,00</t>
+  </si>
+  <si>
     <t>RWF</t>
   </si>
   <si>
@@ -1478,6 +2027,9 @@
     <t>Saint-Denis</t>
   </si>
   <si>
+    <t>2.511,00</t>
+  </si>
+  <si>
     <t>Saint Barthélemy</t>
   </si>
   <si>
@@ -1490,6 +2042,9 @@
     <t>Jamestown</t>
   </si>
   <si>
+    <t>394,00</t>
+  </si>
+  <si>
     <t>GBP,SHP</t>
   </si>
   <si>
@@ -1499,36 +2054,54 @@
     <t>Basseterre</t>
   </si>
   <si>
+    <t>261,00</t>
+  </si>
+  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
     <t>Castries</t>
   </si>
   <si>
+    <t>616,00</t>
+  </si>
+  <si>
     <t>Saint Martin</t>
   </si>
   <si>
     <t>Marigot</t>
   </si>
   <si>
+    <t>53,00</t>
+  </si>
+  <si>
     <t>Saint Pierre and Miquelon</t>
   </si>
   <si>
     <t>Saint-Pierre</t>
   </si>
   <si>
+    <t>242,00</t>
+  </si>
+  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Kingstown</t>
   </si>
   <si>
+    <t>389,00</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
     <t>Apia</t>
   </si>
   <si>
+    <t>2.842,00</t>
+  </si>
+  <si>
     <t>WST</t>
   </si>
   <si>
@@ -1538,12 +2111,18 @@
     <t>City of San Marino</t>
   </si>
   <si>
+    <t>61,00</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Riyadh</t>
   </si>
   <si>
+    <t>2.149.690,00</t>
+  </si>
+  <si>
     <t>SAR</t>
   </si>
   <si>
@@ -1553,12 +2132,18 @@
     <t>Dakar</t>
   </si>
   <si>
+    <t>196.722,00</t>
+  </si>
+  <si>
     <t>Serbia</t>
   </si>
   <si>
     <t>Belgrade</t>
   </si>
   <si>
+    <t>88.361,00</t>
+  </si>
+  <si>
     <t>RSD</t>
   </si>
   <si>
@@ -1568,6 +2153,9 @@
     <t>Victoria</t>
   </si>
   <si>
+    <t>452,00</t>
+  </si>
+  <si>
     <t>SCR</t>
   </si>
   <si>
@@ -1577,12 +2165,18 @@
     <t>Freetown</t>
   </si>
   <si>
+    <t>71.740,00</t>
+  </si>
+  <si>
     <t>SLL</t>
   </si>
   <si>
     <t>Singapore</t>
   </si>
   <si>
+    <t>710,00</t>
+  </si>
+  <si>
     <t>SGD</t>
   </si>
   <si>
@@ -1592,24 +2186,36 @@
     <t>Philipsburg</t>
   </si>
   <si>
+    <t>34,00</t>
+  </si>
+  <si>
     <t>Slovakia</t>
   </si>
   <si>
     <t>Bratislava</t>
   </si>
   <si>
+    <t>49.037,00</t>
+  </si>
+  <si>
     <t>Slovenia</t>
   </si>
   <si>
     <t>Ljubljana</t>
   </si>
   <si>
+    <t>20.273,00</t>
+  </si>
+  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
     <t>Honiara</t>
   </si>
   <si>
+    <t>28.896,00</t>
+  </si>
+  <si>
     <t>SBD</t>
   </si>
   <si>
@@ -1619,6 +2225,9 @@
     <t>Mogadishu</t>
   </si>
   <si>
+    <t>637.657,00</t>
+  </si>
+  <si>
     <t>SOS</t>
   </si>
   <si>
@@ -1628,6 +2237,9 @@
     <t>Pretoria</t>
   </si>
   <si>
+    <t>1.221.037,00</t>
+  </si>
+  <si>
     <t>ZAR</t>
   </si>
   <si>
@@ -1637,6 +2249,9 @@
     <t>King Edward Point</t>
   </si>
   <si>
+    <t>3.903,00</t>
+  </si>
+  <si>
     <t>SHP</t>
   </si>
   <si>
@@ -1646,6 +2261,9 @@
     <t>Seoul</t>
   </si>
   <si>
+    <t>100.210,00</t>
+  </si>
+  <si>
     <t>KRW</t>
   </si>
   <si>
@@ -1655,6 +2273,9 @@
     <t>Juba</t>
   </si>
   <si>
+    <t>619.745,00</t>
+  </si>
+  <si>
     <t>SSP</t>
   </si>
   <si>
@@ -1664,12 +2285,18 @@
     <t>Madrid</t>
   </si>
   <si>
+    <t>505.992,00</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
     <t>Sri Jayawardenepura Kotte</t>
   </si>
   <si>
+    <t>65.610,00</t>
+  </si>
+  <si>
     <t>LKR</t>
   </si>
   <si>
@@ -1679,6 +2306,9 @@
     <t>Khartoum</t>
   </si>
   <si>
+    <t>1.886.068,00</t>
+  </si>
+  <si>
     <t>SDG</t>
   </si>
   <si>
@@ -1688,6 +2318,9 @@
     <t>Paramaribo</t>
   </si>
   <si>
+    <t>163.820,00</t>
+  </si>
+  <si>
     <t>SRD</t>
   </si>
   <si>
@@ -1697,12 +2330,18 @@
     <t>Longyearbyen</t>
   </si>
   <si>
+    <t>-1,00</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
     <t>Stockholm</t>
   </si>
   <si>
+    <t>450.295,00</t>
+  </si>
+  <si>
     <t>SEK</t>
   </si>
   <si>
@@ -1712,12 +2351,18 @@
     <t>Bern</t>
   </si>
   <si>
+    <t>41.284,00</t>
+  </si>
+  <si>
     <t>Syria</t>
   </si>
   <si>
     <t>Damascus</t>
   </si>
   <si>
+    <t>185.180,00</t>
+  </si>
+  <si>
     <t>SYP</t>
   </si>
   <si>
@@ -1727,6 +2372,9 @@
     <t>São Tomé</t>
   </si>
   <si>
+    <t>964,00</t>
+  </si>
+  <si>
     <t>STN</t>
   </si>
   <si>
@@ -1736,6 +2384,9 @@
     <t>Taipei</t>
   </si>
   <si>
+    <t>36.193,00</t>
+  </si>
+  <si>
     <t>TWD</t>
   </si>
   <si>
@@ -1745,6 +2396,9 @@
     <t>Dushanbe</t>
   </si>
   <si>
+    <t>143.100,00</t>
+  </si>
+  <si>
     <t>TJS</t>
   </si>
   <si>
@@ -1754,6 +2408,9 @@
     <t>Dodoma</t>
   </si>
   <si>
+    <t>945.087,00</t>
+  </si>
+  <si>
     <t>TZS</t>
   </si>
   <si>
@@ -1763,6 +2420,9 @@
     <t>Bangkok</t>
   </si>
   <si>
+    <t>513.120,00</t>
+  </si>
+  <si>
     <t>THB</t>
   </si>
   <si>
@@ -1772,24 +2432,36 @@
     <t>Dili</t>
   </si>
   <si>
+    <t>14.874,00</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
     <t>Lomé</t>
   </si>
   <si>
+    <t>56.785,00</t>
+  </si>
+  <si>
     <t>Tokelau</t>
   </si>
   <si>
     <t>Fakaofo</t>
   </si>
   <si>
+    <t>12,00</t>
+  </si>
+  <si>
     <t>Tonga</t>
   </si>
   <si>
     <t>Nuku'alofa</t>
   </si>
   <si>
+    <t>747,00</t>
+  </si>
+  <si>
     <t>TOP</t>
   </si>
   <si>
@@ -1799,6 +2471,9 @@
     <t>Port of Spain</t>
   </si>
   <si>
+    <t>5.130,00</t>
+  </si>
+  <si>
     <t>TTD</t>
   </si>
   <si>
@@ -1808,6 +2483,9 @@
     <t>Tunis</t>
   </si>
   <si>
+    <t>163.610,00</t>
+  </si>
+  <si>
     <t>TND</t>
   </si>
   <si>
@@ -1817,6 +2495,9 @@
     <t>Ankara</t>
   </si>
   <si>
+    <t>783.562,00</t>
+  </si>
+  <si>
     <t>TRY</t>
   </si>
   <si>
@@ -1826,6 +2507,9 @@
     <t>Ashgabat</t>
   </si>
   <si>
+    <t>488.100,00</t>
+  </si>
+  <si>
     <t>TMT</t>
   </si>
   <si>
@@ -1835,12 +2519,18 @@
     <t>Cockburn Town</t>
   </si>
   <si>
+    <t>948,00</t>
+  </si>
+  <si>
     <t>Tuvalu</t>
   </si>
   <si>
     <t>Funafuti</t>
   </si>
   <si>
+    <t>26,00</t>
+  </si>
+  <si>
     <t>AUD,TVD</t>
   </si>
   <si>
@@ -1850,6 +2540,9 @@
     <t>Kampala</t>
   </si>
   <si>
+    <t>241.550,00</t>
+  </si>
+  <si>
     <t>UGX</t>
   </si>
   <si>
@@ -1859,6 +2552,9 @@
     <t>Kyiv</t>
   </si>
   <si>
+    <t>603.500,00</t>
+  </si>
+  <si>
     <t>UAH</t>
   </si>
   <si>
@@ -1868,6 +2564,9 @@
     <t>Abu Dhabi</t>
   </si>
   <si>
+    <t>83.600,00</t>
+  </si>
+  <si>
     <t>AED</t>
   </si>
   <si>
@@ -1877,6 +2576,9 @@
     <t>London</t>
   </si>
   <si>
+    <t>242.900,00</t>
+  </si>
+  <si>
     <t>GBP</t>
   </si>
   <si>
@@ -1886,24 +2588,36 @@
     <t>Washington, D.C.</t>
   </si>
   <si>
+    <t>9.372.610,00</t>
+  </si>
+  <si>
     <t>United States Minor Outlying Islands</t>
   </si>
   <si>
     <t>Washington DC</t>
   </si>
   <si>
+    <t>34,20</t>
+  </si>
+  <si>
     <t>United States Virgin Islands</t>
   </si>
   <si>
     <t>Charlotte Amalie</t>
   </si>
   <si>
+    <t>347,00</t>
+  </si>
+  <si>
     <t>Uruguay</t>
   </si>
   <si>
     <t>Montevideo</t>
   </si>
   <si>
+    <t>181.034,00</t>
+  </si>
+  <si>
     <t>UYU</t>
   </si>
   <si>
@@ -1913,6 +2627,9 @@
     <t>Tashkent</t>
   </si>
   <si>
+    <t>447.400,00</t>
+  </si>
+  <si>
     <t>UZS</t>
   </si>
   <si>
@@ -1922,18 +2639,27 @@
     <t>Port Vila</t>
   </si>
   <si>
+    <t>12.189,00</t>
+  </si>
+  <si>
     <t>VUV</t>
   </si>
   <si>
     <t>Vatican City</t>
   </si>
   <si>
+    <t>0,44</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
     <t>Caracas</t>
   </si>
   <si>
+    <t>916.445,00</t>
+  </si>
+  <si>
     <t>VES</t>
   </si>
   <si>
@@ -1943,6 +2669,9 @@
     <t>Hanoi</t>
   </si>
   <si>
+    <t>331.212,00</t>
+  </si>
+  <si>
     <t>VND</t>
   </si>
   <si>
@@ -1952,12 +2681,18 @@
     <t>Mata-Utu</t>
   </si>
   <si>
+    <t>142,00</t>
+  </si>
+  <si>
     <t>Western Sahara</t>
   </si>
   <si>
     <t>El Aaiún</t>
   </si>
   <si>
+    <t>266.000,00</t>
+  </si>
+  <si>
     <t>MAD,MRU,DZD</t>
   </si>
   <si>
@@ -1967,6 +2702,9 @@
     <t>Sana'a</t>
   </si>
   <si>
+    <t>527.968,00</t>
+  </si>
+  <si>
     <t>YER</t>
   </si>
   <si>
@@ -1976,6 +2714,9 @@
     <t>Lusaka</t>
   </si>
   <si>
+    <t>752.612,00</t>
+  </si>
+  <si>
     <t>ZMW</t>
   </si>
   <si>
@@ -1985,6 +2726,9 @@
     <t>Harare</t>
   </si>
   <si>
+    <t>390.757,00</t>
+  </si>
+  <si>
     <t>ZWL</t>
   </si>
   <si>
@@ -1992,6 +2736,9 @@
   </si>
   <si>
     <t>Mariehamn</t>
+  </si>
+  <si>
+    <t>1.580,00</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2746,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2018,6 +2765,11 @@
       <sz val="12.0"/>
       <b val="true"/>
       <color rgb="808080"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2257,7 +3009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -2292,6 +3044,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2339,3497 +3094,3497 @@
       <c r="B3" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C3" t="n" s="9">
-        <v>652230.0</v>
+      <c r="C3" t="s" s="10">
+        <v>7</v>
       </c>
       <c r="D3" t="s" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n" s="9">
-        <v>28748.0</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>11</v>
       </c>
       <c r="D4" t="s" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n" s="9">
-        <v>2381741.0</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>15</v>
       </c>
       <c r="D5" t="s" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C6" t="n" s="9">
-        <v>199.0</v>
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>19</v>
       </c>
       <c r="D6" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C7" t="n" s="9">
-        <v>468.0</v>
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>23</v>
       </c>
       <c r="D7" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C8" t="n" s="9">
-        <v>1246700.0</v>
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>27</v>
       </c>
       <c r="D8" t="s" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="C9" t="n" s="9">
-        <v>91.0</v>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>31</v>
       </c>
       <c r="D9" t="s" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n" s="9">
-        <v>1.4E7</v>
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>35</v>
       </c>
       <c r="D10" t="s" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n" s="9">
-        <v>442.0</v>
+        <v>37</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>38</v>
       </c>
       <c r="D11" t="s" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n" s="9">
-        <v>2780400.0</v>
+        <v>40</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>41</v>
       </c>
       <c r="D12" t="s" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C13" t="n" s="9">
-        <v>29743.0</v>
+        <v>44</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>45</v>
       </c>
       <c r="D13" t="s" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="C14" t="n" s="9">
-        <v>180.0</v>
+        <v>48</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>49</v>
       </c>
       <c r="D14" t="s" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="C15" t="n" s="9">
-        <v>7692024.0</v>
+        <v>52</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>53</v>
       </c>
       <c r="D15" t="s" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C16" t="n" s="9">
-        <v>83871.0</v>
+        <v>56</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>57</v>
       </c>
       <c r="D16" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="C17" t="n" s="9">
-        <v>86600.0</v>
+        <v>59</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>60</v>
       </c>
       <c r="D17" t="s" s="9">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s" s="9">
-        <v>48</v>
-      </c>
-      <c r="C18" t="n" s="9">
-        <v>13943.0</v>
+        <v>63</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>64</v>
       </c>
       <c r="D18" t="s" s="9">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="C19" t="n" s="9">
-        <v>765.0</v>
+        <v>67</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>68</v>
       </c>
       <c r="D19" t="s" s="9">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="C20" t="n" s="9">
-        <v>147570.0</v>
+        <v>71</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>72</v>
       </c>
       <c r="D20" t="s" s="9">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="C21" t="n" s="9">
-        <v>430.0</v>
+        <v>75</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>76</v>
       </c>
       <c r="D21" t="s" s="9">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="9">
-        <v>60</v>
-      </c>
-      <c r="C22" t="n" s="9">
-        <v>207600.0</v>
+        <v>79</v>
+      </c>
+      <c r="C22" t="s" s="10">
+        <v>80</v>
       </c>
       <c r="D22" t="s" s="9">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s" s="9">
-        <v>63</v>
-      </c>
-      <c r="C23" t="n" s="9">
-        <v>30528.0</v>
+        <v>83</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>84</v>
       </c>
       <c r="D23" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s" s="9">
-        <v>65</v>
-      </c>
-      <c r="C24" t="n" s="9">
-        <v>22966.0</v>
+        <v>86</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>87</v>
       </c>
       <c r="D24" t="s" s="9">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s" s="9">
-        <v>68</v>
-      </c>
-      <c r="C25" t="n" s="9">
-        <v>112622.0</v>
+        <v>90</v>
+      </c>
+      <c r="C25" t="s" s="10">
+        <v>91</v>
       </c>
       <c r="D25" t="s" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="C26" t="n" s="9">
-        <v>54.0</v>
+        <v>94</v>
+      </c>
+      <c r="C26" t="s" s="10">
+        <v>95</v>
       </c>
       <c r="D26" t="s" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s" s="9">
-        <v>74</v>
-      </c>
-      <c r="C27" t="n" s="9">
-        <v>38394.0</v>
+        <v>98</v>
+      </c>
+      <c r="C27" t="s" s="10">
+        <v>99</v>
       </c>
       <c r="D27" t="s" s="9">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s" s="9">
-        <v>77</v>
-      </c>
-      <c r="C28" t="n" s="9">
-        <v>1098581.0</v>
+        <v>102</v>
+      </c>
+      <c r="C28" t="s" s="10">
+        <v>103</v>
       </c>
       <c r="D28" t="s" s="9">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s" s="9">
-        <v>80</v>
-      </c>
-      <c r="C29" t="n" s="9">
-        <v>51209.0</v>
+        <v>106</v>
+      </c>
+      <c r="C29" t="s" s="10">
+        <v>107</v>
       </c>
       <c r="D29" t="s" s="9">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="C30" t="n" s="9">
-        <v>582000.0</v>
+        <v>110</v>
+      </c>
+      <c r="C30" t="s" s="10">
+        <v>111</v>
       </c>
       <c r="D30" t="s" s="9">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C31" t="n" s="9">
-        <v>49.0</v>
+        <v>34</v>
+      </c>
+      <c r="C31" t="s" s="10">
+        <v>114</v>
       </c>
       <c r="D31" t="s" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C32" t="n" s="9">
-        <v>8515767.0</v>
+        <v>116</v>
+      </c>
+      <c r="C32" t="s" s="10">
+        <v>117</v>
       </c>
       <c r="D32" t="s" s="9">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s" s="9">
-        <v>90</v>
-      </c>
-      <c r="C33" t="n" s="9">
-        <v>60.0</v>
+        <v>120</v>
+      </c>
+      <c r="C33" t="s" s="10">
+        <v>121</v>
       </c>
       <c r="D33" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="C34" t="n" s="9">
-        <v>151.0</v>
+        <v>123</v>
+      </c>
+      <c r="C34" t="s" s="10">
+        <v>124</v>
       </c>
       <c r="D34" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s" s="9">
-        <v>94</v>
-      </c>
-      <c r="C35" t="n" s="9">
-        <v>5765.0</v>
+        <v>126</v>
+      </c>
+      <c r="C35" t="s" s="10">
+        <v>127</v>
       </c>
       <c r="D35" t="s" s="9">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s" s="9">
-        <v>97</v>
-      </c>
-      <c r="C36" t="n" s="9">
-        <v>110879.0</v>
+        <v>130</v>
+      </c>
+      <c r="C36" t="s" s="10">
+        <v>131</v>
       </c>
       <c r="D36" t="s" s="9">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s" s="9">
-        <v>100</v>
-      </c>
-      <c r="C37" t="n" s="9">
-        <v>272967.0</v>
+        <v>134</v>
+      </c>
+      <c r="C37" t="s" s="10">
+        <v>135</v>
       </c>
       <c r="D37" t="s" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="C38" t="n" s="9">
-        <v>27834.0</v>
+        <v>137</v>
+      </c>
+      <c r="C38" t="s" s="10">
+        <v>138</v>
       </c>
       <c r="D38" t="s" s="9">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s" s="9">
-        <v>105</v>
-      </c>
-      <c r="C39" t="n" s="9">
-        <v>181035.0</v>
+        <v>141</v>
+      </c>
+      <c r="C39" t="s" s="10">
+        <v>142</v>
       </c>
       <c r="D39" t="s" s="9">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s" s="9">
-        <v>108</v>
-      </c>
-      <c r="C40" t="n" s="9">
-        <v>475442.0</v>
+        <v>145</v>
+      </c>
+      <c r="C40" t="s" s="10">
+        <v>146</v>
       </c>
       <c r="D40" t="s" s="9">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s" s="9">
-        <v>111</v>
-      </c>
-      <c r="C41" t="n" s="9">
-        <v>9984670.0</v>
+        <v>149</v>
+      </c>
+      <c r="C41" t="s" s="10">
+        <v>150</v>
       </c>
       <c r="D41" t="s" s="9">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s" s="9">
-        <v>114</v>
-      </c>
-      <c r="C42" t="n" s="9">
-        <v>4033.0</v>
+        <v>153</v>
+      </c>
+      <c r="C42" t="s" s="10">
+        <v>154</v>
       </c>
       <c r="D42" t="s" s="9">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="9">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s" s="9">
-        <v>117</v>
-      </c>
-      <c r="C43" t="n" s="9">
-        <v>328.0</v>
+        <v>157</v>
+      </c>
+      <c r="C43" t="s" s="10">
+        <v>158</v>
       </c>
       <c r="D43" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s" s="9">
-        <v>119</v>
-      </c>
-      <c r="C44" t="n" s="9">
-        <v>264.0</v>
+        <v>160</v>
+      </c>
+      <c r="C44" t="s" s="10">
+        <v>161</v>
       </c>
       <c r="D44" t="s" s="9">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s" s="9">
-        <v>122</v>
-      </c>
-      <c r="C45" t="n" s="9">
-        <v>622984.0</v>
+        <v>164</v>
+      </c>
+      <c r="C45" t="s" s="10">
+        <v>165</v>
       </c>
       <c r="D45" t="s" s="9">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s" s="9">
-        <v>124</v>
-      </c>
-      <c r="C46" t="n" s="9">
-        <v>1284000.0</v>
+        <v>167</v>
+      </c>
+      <c r="C46" t="s" s="10">
+        <v>168</v>
       </c>
       <c r="D46" t="s" s="9">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="9">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s" s="9">
-        <v>126</v>
-      </c>
-      <c r="C47" t="n" s="9">
-        <v>756102.0</v>
+        <v>170</v>
+      </c>
+      <c r="C47" t="s" s="10">
+        <v>171</v>
       </c>
       <c r="D47" t="s" s="9">
-        <v>127</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="9">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s" s="9">
-        <v>129</v>
-      </c>
-      <c r="C48" t="n" s="9">
-        <v>9706961.0</v>
+        <v>174</v>
+      </c>
+      <c r="C48" t="s" s="10">
+        <v>175</v>
       </c>
       <c r="D48" t="s" s="9">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s" s="9">
-        <v>132</v>
-      </c>
-      <c r="C49" t="n" s="9">
-        <v>135.0</v>
+        <v>178</v>
+      </c>
+      <c r="C49" t="s" s="10">
+        <v>179</v>
       </c>
       <c r="D49" t="s" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="9">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s" s="9">
-        <v>134</v>
-      </c>
-      <c r="C50" t="n" s="9">
-        <v>14.0</v>
+        <v>181</v>
+      </c>
+      <c r="C50" t="s" s="10">
+        <v>182</v>
       </c>
       <c r="D50" t="s" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="9">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s" s="9">
-        <v>136</v>
-      </c>
-      <c r="C51" t="n" s="9">
-        <v>1141748.0</v>
+        <v>184</v>
+      </c>
+      <c r="C51" t="s" s="10">
+        <v>185</v>
       </c>
       <c r="D51" t="s" s="9">
-        <v>137</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="9">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s" s="9">
-        <v>139</v>
-      </c>
-      <c r="C52" t="n" s="9">
-        <v>1862.0</v>
+        <v>188</v>
+      </c>
+      <c r="C52" t="s" s="10">
+        <v>189</v>
       </c>
       <c r="D52" t="s" s="9">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="9">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s" s="9">
-        <v>142</v>
-      </c>
-      <c r="C53" t="n" s="9">
-        <v>236.0</v>
+        <v>192</v>
+      </c>
+      <c r="C53" t="s" s="10">
+        <v>193</v>
       </c>
       <c r="D53" t="s" s="9">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="9">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s" s="9">
-        <v>145</v>
-      </c>
-      <c r="C54" t="n" s="9">
-        <v>51100.0</v>
+        <v>196</v>
+      </c>
+      <c r="C54" t="s" s="10">
+        <v>197</v>
       </c>
       <c r="D54" t="s" s="9">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="9">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s" s="9">
-        <v>148</v>
-      </c>
-      <c r="C55" t="n" s="9">
-        <v>56594.0</v>
+        <v>200</v>
+      </c>
+      <c r="C55" t="s" s="10">
+        <v>201</v>
       </c>
       <c r="D55" t="s" s="9">
-        <v>149</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="9">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s" s="9">
-        <v>151</v>
-      </c>
-      <c r="C56" t="n" s="9">
-        <v>109884.0</v>
+        <v>204</v>
+      </c>
+      <c r="C56" t="s" s="10">
+        <v>205</v>
       </c>
       <c r="D56" t="s" s="9">
-        <v>152</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="9">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s" s="9">
-        <v>154</v>
-      </c>
-      <c r="C57" t="n" s="9">
-        <v>444.0</v>
+        <v>208</v>
+      </c>
+      <c r="C57" t="s" s="10">
+        <v>209</v>
       </c>
       <c r="D57" t="s" s="9">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="9">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s" s="9">
-        <v>157</v>
-      </c>
-      <c r="C58" t="n" s="9">
-        <v>9251.0</v>
+        <v>212</v>
+      </c>
+      <c r="C58" t="s" s="10">
+        <v>213</v>
       </c>
       <c r="D58" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="9">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s" s="9">
-        <v>159</v>
-      </c>
-      <c r="C59" t="n" s="9">
-        <v>78865.0</v>
+        <v>215</v>
+      </c>
+      <c r="C59" t="s" s="10">
+        <v>216</v>
       </c>
       <c r="D59" t="s" s="9">
-        <v>160</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="9">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s" s="9">
-        <v>162</v>
-      </c>
-      <c r="C60" t="n" s="9">
-        <v>2344858.0</v>
+        <v>219</v>
+      </c>
+      <c r="C60" t="s" s="10">
+        <v>220</v>
       </c>
       <c r="D60" t="s" s="9">
-        <v>163</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="9">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s" s="9">
-        <v>165</v>
-      </c>
-      <c r="C61" t="n" s="9">
-        <v>43094.0</v>
+        <v>223</v>
+      </c>
+      <c r="C61" t="s" s="10">
+        <v>224</v>
       </c>
       <c r="D61" t="s" s="9">
-        <v>166</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="9">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="B62" t="s" s="9">
-        <v>167</v>
-      </c>
-      <c r="C62" t="n" s="9">
-        <v>23200.0</v>
+        <v>226</v>
+      </c>
+      <c r="C62" t="s" s="10">
+        <v>227</v>
       </c>
       <c r="D62" t="s" s="9">
-        <v>168</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="9">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s" s="9">
-        <v>170</v>
-      </c>
-      <c r="C63" t="n" s="9">
-        <v>751.0</v>
+        <v>230</v>
+      </c>
+      <c r="C63" t="s" s="10">
+        <v>231</v>
       </c>
       <c r="D63" t="s" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="9">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="C64" t="n" s="9">
-        <v>48671.0</v>
+        <v>233</v>
+      </c>
+      <c r="C64" t="s" s="10">
+        <v>234</v>
       </c>
       <c r="D64" t="s" s="9">
-        <v>173</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="9">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s" s="9">
-        <v>175</v>
-      </c>
-      <c r="C65" t="n" s="9">
-        <v>276841.0</v>
+        <v>237</v>
+      </c>
+      <c r="C65" t="s" s="10">
+        <v>238</v>
       </c>
       <c r="D65" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="9">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s" s="9">
-        <v>177</v>
-      </c>
-      <c r="C66" t="n" s="9">
-        <v>1002450.0</v>
+        <v>240</v>
+      </c>
+      <c r="C66" t="s" s="10">
+        <v>241</v>
       </c>
       <c r="D66" t="s" s="9">
-        <v>178</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="9">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="B67" t="s" s="9">
-        <v>180</v>
-      </c>
-      <c r="C67" t="n" s="9">
-        <v>21041.0</v>
+        <v>244</v>
+      </c>
+      <c r="C67" t="s" s="10">
+        <v>245</v>
       </c>
       <c r="D67" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="9">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="B68" t="s" s="9">
-        <v>182</v>
-      </c>
-      <c r="C68" t="n" s="9">
-        <v>28051.0</v>
+        <v>247</v>
+      </c>
+      <c r="C68" t="s" s="10">
+        <v>248</v>
       </c>
       <c r="D68" t="s" s="9">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="9">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s" s="9">
-        <v>184</v>
-      </c>
-      <c r="C69" t="n" s="9">
-        <v>117600.0</v>
+        <v>250</v>
+      </c>
+      <c r="C69" t="s" s="10">
+        <v>251</v>
       </c>
       <c r="D69" t="s" s="9">
-        <v>185</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="9">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="C70" t="n" s="9">
-        <v>45227.0</v>
+        <v>254</v>
+      </c>
+      <c r="C70" t="s" s="10">
+        <v>255</v>
       </c>
       <c r="D70" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="9">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s" s="9">
-        <v>189</v>
-      </c>
-      <c r="C71" t="n" s="9">
-        <v>17364.0</v>
+        <v>257</v>
+      </c>
+      <c r="C71" t="s" s="10">
+        <v>258</v>
       </c>
       <c r="D71" t="s" s="9">
-        <v>190</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="9">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s" s="9">
-        <v>192</v>
-      </c>
-      <c r="C72" t="n" s="9">
-        <v>1104300.0</v>
+        <v>261</v>
+      </c>
+      <c r="C72" t="s" s="10">
+        <v>262</v>
       </c>
       <c r="D72" t="s" s="9">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="9">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B73" t="s" s="9">
-        <v>195</v>
-      </c>
-      <c r="C73" t="n" s="9">
-        <v>12173.0</v>
+        <v>265</v>
+      </c>
+      <c r="C73" t="s" s="10">
+        <v>266</v>
       </c>
       <c r="D73" t="s" s="9">
-        <v>196</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="9">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="C74" t="n" s="9">
-        <v>1393.0</v>
+        <v>269</v>
+      </c>
+      <c r="C74" t="s" s="10">
+        <v>270</v>
       </c>
       <c r="D74" t="s" s="9">
-        <v>199</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="9">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="B75" t="s" s="9">
-        <v>201</v>
-      </c>
-      <c r="C75" t="n" s="9">
-        <v>18272.0</v>
+        <v>273</v>
+      </c>
+      <c r="C75" t="s" s="10">
+        <v>274</v>
       </c>
       <c r="D75" t="s" s="9">
-        <v>202</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="9">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s" s="9">
-        <v>204</v>
-      </c>
-      <c r="C76" t="n" s="9">
-        <v>338424.0</v>
+        <v>277</v>
+      </c>
+      <c r="C76" t="s" s="10">
+        <v>278</v>
       </c>
       <c r="D76" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="9">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="B77" t="s" s="9">
-        <v>206</v>
-      </c>
-      <c r="C77" t="n" s="9">
-        <v>551695.0</v>
+        <v>280</v>
+      </c>
+      <c r="C77" t="s" s="10">
+        <v>281</v>
       </c>
       <c r="D77" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="9">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s" s="9">
-        <v>208</v>
-      </c>
-      <c r="C78" t="n" s="9">
-        <v>83534.0</v>
+        <v>283</v>
+      </c>
+      <c r="C78" t="s" s="10">
+        <v>284</v>
       </c>
       <c r="D78" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="9">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s" s="9">
-        <v>210</v>
-      </c>
-      <c r="C79" t="n" s="9">
-        <v>4167.0</v>
+        <v>286</v>
+      </c>
+      <c r="C79" t="s" s="10">
+        <v>287</v>
       </c>
       <c r="D79" t="s" s="9">
-        <v>211</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="9">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s" s="9">
-        <v>213</v>
-      </c>
-      <c r="C80" t="n" s="9">
-        <v>7747.0</v>
+        <v>290</v>
+      </c>
+      <c r="C80" t="s" s="10">
+        <v>291</v>
       </c>
       <c r="D80" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="9">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s" s="9">
-        <v>215</v>
-      </c>
-      <c r="C81" t="n" s="9">
-        <v>267668.0</v>
+        <v>293</v>
+      </c>
+      <c r="C81" t="s" s="10">
+        <v>294</v>
       </c>
       <c r="D81" t="s" s="9">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="9">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s" s="9">
-        <v>217</v>
-      </c>
-      <c r="C82" t="n" s="9">
-        <v>10689.0</v>
+        <v>296</v>
+      </c>
+      <c r="C82" t="s" s="10">
+        <v>297</v>
       </c>
       <c r="D82" t="s" s="9">
-        <v>218</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="9">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="B83" t="s" s="9">
-        <v>220</v>
-      </c>
-      <c r="C83" t="n" s="9">
-        <v>69700.0</v>
+        <v>300</v>
+      </c>
+      <c r="C83" t="s" s="10">
+        <v>301</v>
       </c>
       <c r="D83" t="s" s="9">
-        <v>221</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="9">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s" s="9">
-        <v>223</v>
-      </c>
-      <c r="C84" t="n" s="9">
-        <v>357114.0</v>
+        <v>304</v>
+      </c>
+      <c r="C84" t="s" s="10">
+        <v>305</v>
       </c>
       <c r="D84" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="9">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s" s="9">
-        <v>225</v>
-      </c>
-      <c r="C85" t="n" s="9">
-        <v>238533.0</v>
+        <v>307</v>
+      </c>
+      <c r="C85" t="s" s="10">
+        <v>308</v>
       </c>
       <c r="D85" t="s" s="9">
-        <v>226</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="9">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s" s="9">
-        <v>227</v>
-      </c>
-      <c r="C86" t="n" s="9">
-        <v>6.0</v>
+        <v>310</v>
+      </c>
+      <c r="C86" t="s" s="10">
+        <v>311</v>
       </c>
       <c r="D86" t="s" s="9">
-        <v>228</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="9">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s" s="9">
-        <v>230</v>
-      </c>
-      <c r="C87" t="n" s="9">
-        <v>131990.0</v>
+        <v>314</v>
+      </c>
+      <c r="C87" t="s" s="10">
+        <v>315</v>
       </c>
       <c r="D87" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="9">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s" s="9">
-        <v>232</v>
-      </c>
-      <c r="C88" t="n" s="9">
-        <v>2166086.0</v>
+        <v>317</v>
+      </c>
+      <c r="C88" t="s" s="10">
+        <v>318</v>
       </c>
       <c r="D88" t="s" s="9">
-        <v>166</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="9">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="B89" t="s" s="9">
-        <v>234</v>
-      </c>
-      <c r="C89" t="n" s="9">
-        <v>344.0</v>
+        <v>320</v>
+      </c>
+      <c r="C89" t="s" s="10">
+        <v>321</v>
       </c>
       <c r="D89" t="s" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="9">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s" s="9">
-        <v>236</v>
-      </c>
-      <c r="C90" t="n" s="9">
-        <v>1628.0</v>
+        <v>323</v>
+      </c>
+      <c r="C90" t="s" s="10">
+        <v>324</v>
       </c>
       <c r="D90" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="9">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="B91" t="s" s="9">
-        <v>238</v>
-      </c>
-      <c r="C91" t="n" s="9">
-        <v>549.0</v>
+        <v>326</v>
+      </c>
+      <c r="C91" t="s" s="10">
+        <v>327</v>
       </c>
       <c r="D91" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="9">
-        <v>239</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s" s="9">
-        <v>240</v>
-      </c>
-      <c r="C92" t="n" s="9">
-        <v>108889.0</v>
+        <v>329</v>
+      </c>
+      <c r="C92" t="s" s="10">
+        <v>330</v>
       </c>
       <c r="D92" t="s" s="9">
-        <v>241</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="9">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="B93" t="s" s="9">
-        <v>243</v>
-      </c>
-      <c r="C93" t="n" s="9">
-        <v>78.0</v>
+        <v>333</v>
+      </c>
+      <c r="C93" t="s" s="10">
+        <v>334</v>
       </c>
       <c r="D93" t="s" s="9">
-        <v>244</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="9">
-        <v>245</v>
+        <v>336</v>
       </c>
       <c r="B94" t="s" s="9">
-        <v>246</v>
-      </c>
-      <c r="C94" t="n" s="9">
-        <v>245857.0</v>
+        <v>337</v>
+      </c>
+      <c r="C94" t="s" s="10">
+        <v>338</v>
       </c>
       <c r="D94" t="s" s="9">
-        <v>247</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="9">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="B95" t="s" s="9">
-        <v>249</v>
-      </c>
-      <c r="C95" t="n" s="9">
-        <v>36125.0</v>
+        <v>341</v>
+      </c>
+      <c r="C95" t="s" s="10">
+        <v>342</v>
       </c>
       <c r="D95" t="s" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="9">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="B96" t="s" s="9">
-        <v>251</v>
-      </c>
-      <c r="C96" t="n" s="9">
-        <v>214969.0</v>
+        <v>344</v>
+      </c>
+      <c r="C96" t="s" s="10">
+        <v>345</v>
       </c>
       <c r="D96" t="s" s="9">
-        <v>252</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="9">
-        <v>253</v>
+        <v>347</v>
       </c>
       <c r="B97" t="s" s="9">
-        <v>254</v>
-      </c>
-      <c r="C97" t="n" s="9">
-        <v>27750.0</v>
+        <v>348</v>
+      </c>
+      <c r="C97" t="s" s="10">
+        <v>349</v>
       </c>
       <c r="D97" t="s" s="9">
-        <v>255</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="9">
-        <v>256</v>
+        <v>351</v>
       </c>
       <c r="B98" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C98" t="n" s="9">
-        <v>412.0</v>
+        <v>34</v>
+      </c>
+      <c r="C98" t="s" s="10">
+        <v>352</v>
       </c>
       <c r="D98" t="s" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="9">
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="B99" t="s" s="9">
-        <v>258</v>
-      </c>
-      <c r="C99" t="n" s="9">
-        <v>112492.0</v>
+        <v>354</v>
+      </c>
+      <c r="C99" t="s" s="10">
+        <v>355</v>
       </c>
       <c r="D99" t="s" s="9">
-        <v>259</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="9">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="B100" t="s" s="9">
-        <v>261</v>
-      </c>
-      <c r="C100" t="n" s="9">
-        <v>1104.0</v>
+        <v>358</v>
+      </c>
+      <c r="C100" t="s" s="10">
+        <v>359</v>
       </c>
       <c r="D100" t="s" s="9">
-        <v>262</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="9">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="B101" t="s" s="9">
-        <v>264</v>
-      </c>
-      <c r="C101" t="n" s="9">
-        <v>93028.0</v>
+        <v>362</v>
+      </c>
+      <c r="C101" t="s" s="10">
+        <v>363</v>
       </c>
       <c r="D101" t="s" s="9">
-        <v>265</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="9">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="B102" t="s" s="9">
-        <v>267</v>
-      </c>
-      <c r="C102" t="n" s="9">
-        <v>103000.0</v>
+        <v>366</v>
+      </c>
+      <c r="C102" t="s" s="10">
+        <v>367</v>
       </c>
       <c r="D102" t="s" s="9">
-        <v>268</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="9">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="B103" t="s" s="9">
-        <v>270</v>
-      </c>
-      <c r="C103" t="n" s="9">
-        <v>3287590.0</v>
+        <v>370</v>
+      </c>
+      <c r="C103" t="s" s="10">
+        <v>371</v>
       </c>
       <c r="D103" t="s" s="9">
-        <v>271</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="9">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="B104" t="s" s="9">
-        <v>273</v>
-      </c>
-      <c r="C104" t="n" s="9">
-        <v>1904569.0</v>
+        <v>374</v>
+      </c>
+      <c r="C104" t="s" s="10">
+        <v>375</v>
       </c>
       <c r="D104" t="s" s="9">
-        <v>274</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="9">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="B105" t="s" s="9">
-        <v>276</v>
-      </c>
-      <c r="C105" t="n" s="9">
-        <v>1648195.0</v>
+        <v>378</v>
+      </c>
+      <c r="C105" t="s" s="10">
+        <v>379</v>
       </c>
       <c r="D105" t="s" s="9">
-        <v>277</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="9">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="B106" t="s" s="9">
-        <v>279</v>
-      </c>
-      <c r="C106" t="n" s="9">
-        <v>438317.0</v>
+        <v>382</v>
+      </c>
+      <c r="C106" t="s" s="10">
+        <v>383</v>
       </c>
       <c r="D106" t="s" s="9">
-        <v>280</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="9">
-        <v>281</v>
+        <v>385</v>
       </c>
       <c r="B107" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="C107" t="n" s="9">
-        <v>70273.0</v>
+        <v>386</v>
+      </c>
+      <c r="C107" t="s" s="10">
+        <v>387</v>
       </c>
       <c r="D107" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="9">
-        <v>283</v>
+        <v>388</v>
       </c>
       <c r="B108" t="s" s="9">
-        <v>284</v>
-      </c>
-      <c r="C108" t="n" s="9">
-        <v>572.0</v>
+        <v>389</v>
+      </c>
+      <c r="C108" t="s" s="10">
+        <v>390</v>
       </c>
       <c r="D108" t="s" s="9">
-        <v>285</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="9">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="B109" t="s" s="9">
-        <v>287</v>
-      </c>
-      <c r="C109" t="n" s="9">
-        <v>20770.0</v>
+        <v>393</v>
+      </c>
+      <c r="C109" t="s" s="10">
+        <v>394</v>
       </c>
       <c r="D109" t="s" s="9">
-        <v>288</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="9">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="B110" t="s" s="9">
-        <v>290</v>
-      </c>
-      <c r="C110" t="n" s="9">
-        <v>301336.0</v>
+        <v>397</v>
+      </c>
+      <c r="C110" t="s" s="10">
+        <v>398</v>
       </c>
       <c r="D110" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="9">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="B111" t="s" s="9">
-        <v>292</v>
-      </c>
-      <c r="C111" t="n" s="9">
-        <v>322463.0</v>
+        <v>400</v>
+      </c>
+      <c r="C111" t="s" s="10">
+        <v>401</v>
       </c>
       <c r="D111" t="s" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="9">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="B112" t="s" s="9">
-        <v>294</v>
-      </c>
-      <c r="C112" t="n" s="9">
-        <v>10991.0</v>
+        <v>403</v>
+      </c>
+      <c r="C112" t="s" s="10">
+        <v>404</v>
       </c>
       <c r="D112" t="s" s="9">
-        <v>295</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="9">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="B113" t="s" s="9">
-        <v>297</v>
-      </c>
-      <c r="C113" t="n" s="9">
-        <v>377930.0</v>
+        <v>407</v>
+      </c>
+      <c r="C113" t="s" s="10">
+        <v>408</v>
       </c>
       <c r="D113" t="s" s="9">
-        <v>298</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="9">
-        <v>299</v>
+        <v>410</v>
       </c>
       <c r="B114" t="s" s="9">
-        <v>300</v>
-      </c>
-      <c r="C114" t="n" s="9">
-        <v>116.0</v>
+        <v>411</v>
+      </c>
+      <c r="C114" t="s" s="10">
+        <v>412</v>
       </c>
       <c r="D114" t="s" s="9">
-        <v>301</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="9">
-        <v>302</v>
+        <v>414</v>
       </c>
       <c r="B115" t="s" s="9">
-        <v>303</v>
-      </c>
-      <c r="C115" t="n" s="9">
-        <v>89342.0</v>
+        <v>415</v>
+      </c>
+      <c r="C115" t="s" s="10">
+        <v>416</v>
       </c>
       <c r="D115" t="s" s="9">
-        <v>304</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="9">
-        <v>305</v>
+        <v>418</v>
       </c>
       <c r="B116" t="s" s="9">
-        <v>306</v>
-      </c>
-      <c r="C116" t="n" s="9">
-        <v>2724900.0</v>
+        <v>419</v>
+      </c>
+      <c r="C116" t="s" s="10">
+        <v>420</v>
       </c>
       <c r="D116" t="s" s="9">
-        <v>307</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="9">
-        <v>308</v>
+        <v>422</v>
       </c>
       <c r="B117" t="s" s="9">
-        <v>309</v>
-      </c>
-      <c r="C117" t="n" s="9">
-        <v>580367.0</v>
+        <v>423</v>
+      </c>
+      <c r="C117" t="s" s="10">
+        <v>424</v>
       </c>
       <c r="D117" t="s" s="9">
-        <v>310</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="9">
-        <v>311</v>
+        <v>426</v>
       </c>
       <c r="B118" t="s" s="9">
-        <v>312</v>
-      </c>
-      <c r="C118" t="n" s="9">
-        <v>811.0</v>
+        <v>427</v>
+      </c>
+      <c r="C118" t="s" s="10">
+        <v>428</v>
       </c>
       <c r="D118" t="s" s="9">
-        <v>313</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="9">
-        <v>314</v>
+        <v>430</v>
       </c>
       <c r="B119" t="s" s="9">
-        <v>315</v>
-      </c>
-      <c r="C119" t="n" s="9">
-        <v>10908.0</v>
+        <v>431</v>
+      </c>
+      <c r="C119" t="s" s="10">
+        <v>432</v>
       </c>
       <c r="D119" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="9">
-        <v>316</v>
+        <v>433</v>
       </c>
       <c r="B120" t="s" s="9">
-        <v>317</v>
-      </c>
-      <c r="C120" t="n" s="9">
-        <v>17818.0</v>
+        <v>434</v>
+      </c>
+      <c r="C120" t="s" s="10">
+        <v>435</v>
       </c>
       <c r="D120" t="s" s="9">
-        <v>318</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="9">
-        <v>319</v>
+        <v>437</v>
       </c>
       <c r="B121" t="s" s="9">
-        <v>320</v>
-      </c>
-      <c r="C121" t="n" s="9">
-        <v>199951.0</v>
+        <v>438</v>
+      </c>
+      <c r="C121" t="s" s="10">
+        <v>439</v>
       </c>
       <c r="D121" t="s" s="9">
-        <v>321</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="9">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="B122" t="s" s="9">
-        <v>323</v>
-      </c>
-      <c r="C122" t="n" s="9">
-        <v>236800.0</v>
+        <v>442</v>
+      </c>
+      <c r="C122" t="s" s="10">
+        <v>443</v>
       </c>
       <c r="D122" t="s" s="9">
-        <v>324</v>
+        <v>444</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="9">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="B123" t="s" s="9">
-        <v>326</v>
-      </c>
-      <c r="C123" t="n" s="9">
-        <v>64559.0</v>
+        <v>446</v>
+      </c>
+      <c r="C123" t="s" s="10">
+        <v>447</v>
       </c>
       <c r="D123" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="9">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="B124" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="C124" t="n" s="9">
-        <v>10452.0</v>
+        <v>449</v>
+      </c>
+      <c r="C124" t="s" s="10">
+        <v>450</v>
       </c>
       <c r="D124" t="s" s="9">
-        <v>329</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="9">
-        <v>330</v>
+        <v>452</v>
       </c>
       <c r="B125" t="s" s="9">
-        <v>331</v>
-      </c>
-      <c r="C125" t="n" s="9">
-        <v>30355.0</v>
+        <v>453</v>
+      </c>
+      <c r="C125" t="s" s="10">
+        <v>454</v>
       </c>
       <c r="D125" t="s" s="9">
-        <v>332</v>
+        <v>455</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="9">
-        <v>333</v>
+        <v>456</v>
       </c>
       <c r="B126" t="s" s="9">
-        <v>334</v>
-      </c>
-      <c r="C126" t="n" s="9">
-        <v>111369.0</v>
+        <v>457</v>
+      </c>
+      <c r="C126" t="s" s="10">
+        <v>458</v>
       </c>
       <c r="D126" t="s" s="9">
-        <v>335</v>
+        <v>459</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="9">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="B127" t="s" s="9">
-        <v>337</v>
-      </c>
-      <c r="C127" t="n" s="9">
-        <v>1759540.0</v>
+        <v>461</v>
+      </c>
+      <c r="C127" t="s" s="10">
+        <v>462</v>
       </c>
       <c r="D127" t="s" s="9">
-        <v>338</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="9">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="B128" t="s" s="9">
-        <v>340</v>
-      </c>
-      <c r="C128" t="n" s="9">
-        <v>160.0</v>
+        <v>465</v>
+      </c>
+      <c r="C128" t="s" s="10">
+        <v>466</v>
       </c>
       <c r="D128" t="s" s="9">
-        <v>341</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="9">
-        <v>342</v>
+        <v>468</v>
       </c>
       <c r="B129" t="s" s="9">
-        <v>343</v>
-      </c>
-      <c r="C129" t="n" s="9">
-        <v>65300.0</v>
+        <v>469</v>
+      </c>
+      <c r="C129" t="s" s="10">
+        <v>470</v>
       </c>
       <c r="D129" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="9">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="B130" t="s" s="9">
-        <v>344</v>
-      </c>
-      <c r="C130" t="n" s="9">
-        <v>2586.0</v>
+        <v>471</v>
+      </c>
+      <c r="C130" t="s" s="10">
+        <v>472</v>
       </c>
       <c r="D130" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="9">
-        <v>345</v>
+        <v>473</v>
       </c>
       <c r="B131" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C131" t="n" s="9">
-        <v>30.0</v>
+        <v>34</v>
+      </c>
+      <c r="C131" t="s" s="10">
+        <v>474</v>
       </c>
       <c r="D131" t="s" s="9">
-        <v>346</v>
+        <v>475</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="9">
-        <v>347</v>
+        <v>476</v>
       </c>
       <c r="B132" t="s" s="9">
-        <v>348</v>
-      </c>
-      <c r="C132" t="n" s="9">
-        <v>587041.0</v>
+        <v>477</v>
+      </c>
+      <c r="C132" t="s" s="10">
+        <v>478</v>
       </c>
       <c r="D132" t="s" s="9">
-        <v>349</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="9">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="B133" t="s" s="9">
-        <v>351</v>
-      </c>
-      <c r="C133" t="n" s="9">
-        <v>118484.0</v>
+        <v>481</v>
+      </c>
+      <c r="C133" t="s" s="10">
+        <v>482</v>
       </c>
       <c r="D133" t="s" s="9">
-        <v>352</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="9">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="B134" t="s" s="9">
-        <v>354</v>
-      </c>
-      <c r="C134" t="n" s="9">
-        <v>330803.0</v>
+        <v>485</v>
+      </c>
+      <c r="C134" t="s" s="10">
+        <v>486</v>
       </c>
       <c r="D134" t="s" s="9">
-        <v>355</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="9">
-        <v>356</v>
+        <v>488</v>
       </c>
       <c r="B135" t="s" s="9">
-        <v>357</v>
-      </c>
-      <c r="C135" t="n" s="9">
-        <v>300.0</v>
+        <v>489</v>
+      </c>
+      <c r="C135" t="s" s="10">
+        <v>490</v>
       </c>
       <c r="D135" t="s" s="9">
-        <v>358</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="9">
-        <v>359</v>
+        <v>492</v>
       </c>
       <c r="B136" t="s" s="9">
-        <v>360</v>
-      </c>
-      <c r="C136" t="n" s="9">
-        <v>1240192.0</v>
+        <v>493</v>
+      </c>
+      <c r="C136" t="s" s="10">
+        <v>494</v>
       </c>
       <c r="D136" t="s" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="9">
-        <v>361</v>
+        <v>495</v>
       </c>
       <c r="B137" t="s" s="9">
-        <v>362</v>
-      </c>
-      <c r="C137" t="n" s="9">
-        <v>316.0</v>
+        <v>496</v>
+      </c>
+      <c r="C137" t="s" s="10">
+        <v>497</v>
       </c>
       <c r="D137" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="9">
-        <v>363</v>
+        <v>498</v>
       </c>
       <c r="B138" t="s" s="9">
-        <v>364</v>
-      </c>
-      <c r="C138" t="n" s="9">
-        <v>181.0</v>
+        <v>499</v>
+      </c>
+      <c r="C138" t="s" s="10">
+        <v>500</v>
       </c>
       <c r="D138" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="9">
-        <v>365</v>
+        <v>501</v>
       </c>
       <c r="B139" t="s" s="9">
-        <v>366</v>
-      </c>
-      <c r="C139" t="n" s="9">
-        <v>1128.0</v>
+        <v>502</v>
+      </c>
+      <c r="C139" t="s" s="10">
+        <v>503</v>
       </c>
       <c r="D139" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="9">
-        <v>367</v>
+        <v>504</v>
       </c>
       <c r="B140" t="s" s="9">
-        <v>368</v>
-      </c>
-      <c r="C140" t="n" s="9">
-        <v>1030700.0</v>
+        <v>505</v>
+      </c>
+      <c r="C140" t="s" s="10">
+        <v>506</v>
       </c>
       <c r="D140" t="s" s="9">
-        <v>369</v>
+        <v>507</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="9">
-        <v>370</v>
+        <v>508</v>
       </c>
       <c r="B141" t="s" s="9">
-        <v>371</v>
-      </c>
-      <c r="C141" t="n" s="9">
-        <v>2040.0</v>
+        <v>509</v>
+      </c>
+      <c r="C141" t="s" s="10">
+        <v>510</v>
       </c>
       <c r="D141" t="s" s="9">
-        <v>372</v>
+        <v>511</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="9">
-        <v>373</v>
+        <v>512</v>
       </c>
       <c r="B142" t="s" s="9">
-        <v>374</v>
-      </c>
-      <c r="C142" t="n" s="9">
-        <v>374.0</v>
+        <v>513</v>
+      </c>
+      <c r="C142" t="s" s="10">
+        <v>514</v>
       </c>
       <c r="D142" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="9">
-        <v>375</v>
+        <v>515</v>
       </c>
       <c r="B143" t="s" s="9">
-        <v>376</v>
-      </c>
-      <c r="C143" t="n" s="9">
-        <v>1964375.0</v>
+        <v>516</v>
+      </c>
+      <c r="C143" t="s" s="10">
+        <v>517</v>
       </c>
       <c r="D143" t="s" s="9">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="9">
-        <v>378</v>
+        <v>519</v>
       </c>
       <c r="B144" t="s" s="9">
-        <v>379</v>
-      </c>
-      <c r="C144" t="n" s="9">
-        <v>702.0</v>
+        <v>520</v>
+      </c>
+      <c r="C144" t="s" s="10">
+        <v>521</v>
       </c>
       <c r="D144" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="9">
-        <v>380</v>
+        <v>522</v>
       </c>
       <c r="B145" t="s" s="9">
-        <v>381</v>
-      </c>
-      <c r="C145" t="n" s="9">
-        <v>33846.0</v>
+        <v>523</v>
+      </c>
+      <c r="C145" t="s" s="10">
+        <v>524</v>
       </c>
       <c r="D145" t="s" s="9">
-        <v>382</v>
+        <v>525</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="9">
-        <v>383</v>
+        <v>526</v>
       </c>
       <c r="B146" t="s" s="9">
-        <v>383</v>
-      </c>
-      <c r="C146" t="n" s="9">
-        <v>2.02</v>
+        <v>526</v>
+      </c>
+      <c r="C146" t="s" s="10">
+        <v>527</v>
       </c>
       <c r="D146" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="9">
-        <v>384</v>
+        <v>528</v>
       </c>
       <c r="B147" t="s" s="9">
-        <v>385</v>
-      </c>
-      <c r="C147" t="n" s="9">
-        <v>1564110.0</v>
+        <v>529</v>
+      </c>
+      <c r="C147" t="s" s="10">
+        <v>530</v>
       </c>
       <c r="D147" t="s" s="9">
-        <v>386</v>
+        <v>531</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="9">
-        <v>387</v>
+        <v>532</v>
       </c>
       <c r="B148" t="s" s="9">
-        <v>388</v>
-      </c>
-      <c r="C148" t="n" s="9">
-        <v>13812.0</v>
+        <v>533</v>
+      </c>
+      <c r="C148" t="s" s="10">
+        <v>534</v>
       </c>
       <c r="D148" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="9">
-        <v>389</v>
+        <v>535</v>
       </c>
       <c r="B149" t="s" s="9">
-        <v>390</v>
-      </c>
-      <c r="C149" t="n" s="9">
-        <v>102.0</v>
+        <v>536</v>
+      </c>
+      <c r="C149" t="s" s="10">
+        <v>537</v>
       </c>
       <c r="D149" t="s" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="9">
-        <v>391</v>
+        <v>538</v>
       </c>
       <c r="B150" t="s" s="9">
-        <v>392</v>
-      </c>
-      <c r="C150" t="n" s="9">
-        <v>446550.0</v>
+        <v>539</v>
+      </c>
+      <c r="C150" t="s" s="10">
+        <v>540</v>
       </c>
       <c r="D150" t="s" s="9">
-        <v>393</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="9">
-        <v>394</v>
+        <v>542</v>
       </c>
       <c r="B151" t="s" s="9">
-        <v>395</v>
-      </c>
-      <c r="C151" t="n" s="9">
-        <v>801590.0</v>
+        <v>543</v>
+      </c>
+      <c r="C151" t="s" s="10">
+        <v>544</v>
       </c>
       <c r="D151" t="s" s="9">
-        <v>396</v>
+        <v>545</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="9">
-        <v>397</v>
+        <v>546</v>
       </c>
       <c r="B152" t="s" s="9">
-        <v>398</v>
-      </c>
-      <c r="C152" t="n" s="9">
-        <v>676578.0</v>
+        <v>547</v>
+      </c>
+      <c r="C152" t="s" s="10">
+        <v>548</v>
       </c>
       <c r="D152" t="s" s="9">
-        <v>399</v>
+        <v>549</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="9">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="B153" t="s" s="9">
-        <v>401</v>
-      </c>
-      <c r="C153" t="n" s="9">
-        <v>825615.0</v>
+        <v>551</v>
+      </c>
+      <c r="C153" t="s" s="10">
+        <v>552</v>
       </c>
       <c r="D153" t="s" s="9">
-        <v>402</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="9">
-        <v>403</v>
+        <v>554</v>
       </c>
       <c r="B154" t="s" s="9">
-        <v>404</v>
-      </c>
-      <c r="C154" t="n" s="9">
-        <v>21.0</v>
+        <v>555</v>
+      </c>
+      <c r="C154" t="s" s="10">
+        <v>556</v>
       </c>
       <c r="D154" t="s" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="9">
-        <v>405</v>
+        <v>557</v>
       </c>
       <c r="B155" t="s" s="9">
-        <v>406</v>
-      </c>
-      <c r="C155" t="n" s="9">
-        <v>147181.0</v>
+        <v>558</v>
+      </c>
+      <c r="C155" t="s" s="10">
+        <v>559</v>
       </c>
       <c r="D155" t="s" s="9">
-        <v>407</v>
+        <v>560</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="9">
-        <v>408</v>
+        <v>561</v>
       </c>
       <c r="B156" t="s" s="9">
-        <v>409</v>
-      </c>
-      <c r="C156" t="n" s="9">
-        <v>41850.0</v>
+        <v>562</v>
+      </c>
+      <c r="C156" t="s" s="10">
+        <v>563</v>
       </c>
       <c r="D156" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="9">
-        <v>410</v>
+        <v>564</v>
       </c>
       <c r="B157" t="s" s="9">
-        <v>411</v>
-      </c>
-      <c r="C157" t="n" s="9">
-        <v>18575.0</v>
+        <v>565</v>
+      </c>
+      <c r="C157" t="s" s="10">
+        <v>566</v>
       </c>
       <c r="D157" t="s" s="9">
-        <v>211</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="9">
-        <v>412</v>
+        <v>567</v>
       </c>
       <c r="B158" t="s" s="9">
-        <v>413</v>
-      </c>
-      <c r="C158" t="n" s="9">
-        <v>270467.0</v>
+        <v>568</v>
+      </c>
+      <c r="C158" t="s" s="10">
+        <v>569</v>
       </c>
       <c r="D158" t="s" s="9">
-        <v>414</v>
+        <v>570</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="9">
-        <v>415</v>
+        <v>571</v>
       </c>
       <c r="B159" t="s" s="9">
-        <v>416</v>
-      </c>
-      <c r="C159" t="n" s="9">
-        <v>130373.0</v>
+        <v>572</v>
+      </c>
+      <c r="C159" t="s" s="10">
+        <v>573</v>
       </c>
       <c r="D159" t="s" s="9">
-        <v>417</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="9">
-        <v>418</v>
+        <v>575</v>
       </c>
       <c r="B160" t="s" s="9">
-        <v>419</v>
-      </c>
-      <c r="C160" t="n" s="9">
-        <v>1267000.0</v>
+        <v>576</v>
+      </c>
+      <c r="C160" t="s" s="10">
+        <v>577</v>
       </c>
       <c r="D160" t="s" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="9">
-        <v>420</v>
+        <v>578</v>
       </c>
       <c r="B161" t="s" s="9">
-        <v>421</v>
-      </c>
-      <c r="C161" t="n" s="9">
-        <v>923768.0</v>
+        <v>579</v>
+      </c>
+      <c r="C161" t="s" s="10">
+        <v>580</v>
       </c>
       <c r="D161" t="s" s="9">
-        <v>422</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="9">
-        <v>423</v>
+        <v>582</v>
       </c>
       <c r="B162" t="s" s="9">
-        <v>424</v>
-      </c>
-      <c r="C162" t="n" s="9">
-        <v>260.0</v>
+        <v>583</v>
+      </c>
+      <c r="C162" t="s" s="10">
+        <v>584</v>
       </c>
       <c r="D162" t="s" s="9">
-        <v>414</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="9">
-        <v>425</v>
+        <v>585</v>
       </c>
       <c r="B163" t="s" s="9">
-        <v>294</v>
-      </c>
-      <c r="C163" t="n" s="9">
-        <v>36.0</v>
+        <v>403</v>
+      </c>
+      <c r="C163" t="s" s="10">
+        <v>586</v>
       </c>
       <c r="D163" t="s" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="9">
-        <v>426</v>
+        <v>587</v>
       </c>
       <c r="B164" t="s" s="9">
-        <v>427</v>
-      </c>
-      <c r="C164" t="n" s="9">
-        <v>120538.0</v>
+        <v>588</v>
+      </c>
+      <c r="C164" t="s" s="10">
+        <v>589</v>
       </c>
       <c r="D164" t="s" s="9">
-        <v>428</v>
+        <v>590</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="9">
-        <v>429</v>
+        <v>591</v>
       </c>
       <c r="B165" t="s" s="9">
-        <v>430</v>
-      </c>
-      <c r="C165" t="n" s="9">
-        <v>25713.0</v>
+        <v>592</v>
+      </c>
+      <c r="C165" t="s" s="10">
+        <v>593</v>
       </c>
       <c r="D165" t="s" s="9">
-        <v>431</v>
+        <v>594</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="9">
-        <v>432</v>
+        <v>595</v>
       </c>
       <c r="B166" t="s" s="9">
-        <v>433</v>
-      </c>
-      <c r="C166" t="n" s="9">
-        <v>464.0</v>
+        <v>596</v>
+      </c>
+      <c r="C166" t="s" s="10">
+        <v>597</v>
       </c>
       <c r="D166" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="9">
-        <v>434</v>
+        <v>598</v>
       </c>
       <c r="B167" t="s" s="9">
-        <v>435</v>
-      </c>
-      <c r="C167" t="n" s="9">
-        <v>323802.0</v>
+        <v>599</v>
+      </c>
+      <c r="C167" t="s" s="10">
+        <v>600</v>
       </c>
       <c r="D167" t="s" s="9">
-        <v>436</v>
+        <v>601</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="9">
-        <v>437</v>
+        <v>602</v>
       </c>
       <c r="B168" t="s" s="9">
-        <v>438</v>
-      </c>
-      <c r="C168" t="n" s="9">
-        <v>309500.0</v>
+        <v>603</v>
+      </c>
+      <c r="C168" t="s" s="10">
+        <v>604</v>
       </c>
       <c r="D168" t="s" s="9">
-        <v>439</v>
+        <v>605</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="9">
-        <v>440</v>
+        <v>606</v>
       </c>
       <c r="B169" t="s" s="9">
-        <v>441</v>
-      </c>
-      <c r="C169" t="n" s="9">
-        <v>881912.0</v>
+        <v>607</v>
+      </c>
+      <c r="C169" t="s" s="10">
+        <v>608</v>
       </c>
       <c r="D169" t="s" s="9">
-        <v>442</v>
+        <v>609</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="9">
-        <v>443</v>
+        <v>610</v>
       </c>
       <c r="B170" t="s" s="9">
-        <v>444</v>
-      </c>
-      <c r="C170" t="n" s="9">
-        <v>459.0</v>
+        <v>611</v>
+      </c>
+      <c r="C170" t="s" s="10">
+        <v>612</v>
       </c>
       <c r="D170" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="9">
-        <v>445</v>
+        <v>613</v>
       </c>
       <c r="B171" t="s" s="9">
-        <v>446</v>
-      </c>
-      <c r="C171" t="n" s="9">
-        <v>6220.0</v>
+        <v>614</v>
+      </c>
+      <c r="C171" t="s" s="10">
+        <v>615</v>
       </c>
       <c r="D171" t="s" s="9">
-        <v>447</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="9">
-        <v>448</v>
+        <v>617</v>
       </c>
       <c r="B172" t="s" s="9">
-        <v>449</v>
-      </c>
-      <c r="C172" t="n" s="9">
-        <v>75417.0</v>
+        <v>618</v>
+      </c>
+      <c r="C172" t="s" s="10">
+        <v>619</v>
       </c>
       <c r="D172" t="s" s="9">
-        <v>450</v>
+        <v>620</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="9">
-        <v>451</v>
+        <v>621</v>
       </c>
       <c r="B173" t="s" s="9">
-        <v>452</v>
-      </c>
-      <c r="C173" t="n" s="9">
-        <v>462840.0</v>
+        <v>622</v>
+      </c>
+      <c r="C173" t="s" s="10">
+        <v>623</v>
       </c>
       <c r="D173" t="s" s="9">
-        <v>453</v>
+        <v>624</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="9">
-        <v>454</v>
+        <v>625</v>
       </c>
       <c r="B174" t="s" s="9">
-        <v>455</v>
-      </c>
-      <c r="C174" t="n" s="9">
-        <v>406752.0</v>
+        <v>626</v>
+      </c>
+      <c r="C174" t="s" s="10">
+        <v>627</v>
       </c>
       <c r="D174" t="s" s="9">
-        <v>456</v>
+        <v>628</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="9">
-        <v>457</v>
+        <v>629</v>
       </c>
       <c r="B175" t="s" s="9">
-        <v>458</v>
-      </c>
-      <c r="C175" t="n" s="9">
-        <v>1285216.0</v>
+        <v>630</v>
+      </c>
+      <c r="C175" t="s" s="10">
+        <v>631</v>
       </c>
       <c r="D175" t="s" s="9">
-        <v>459</v>
+        <v>632</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="9">
-        <v>460</v>
+        <v>633</v>
       </c>
       <c r="B176" t="s" s="9">
-        <v>461</v>
-      </c>
-      <c r="C176" t="n" s="9">
-        <v>342353.0</v>
+        <v>634</v>
+      </c>
+      <c r="C176" t="s" s="10">
+        <v>635</v>
       </c>
       <c r="D176" t="s" s="9">
-        <v>462</v>
+        <v>636</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="9">
-        <v>463</v>
+        <v>637</v>
       </c>
       <c r="B177" t="s" s="9">
-        <v>464</v>
-      </c>
-      <c r="C177" t="n" s="9">
-        <v>47.0</v>
+        <v>638</v>
+      </c>
+      <c r="C177" t="s" s="10">
+        <v>639</v>
       </c>
       <c r="D177" t="s" s="9">
-        <v>414</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="9">
-        <v>465</v>
+        <v>640</v>
       </c>
       <c r="B178" t="s" s="9">
-        <v>466</v>
-      </c>
-      <c r="C178" t="n" s="9">
-        <v>312679.0</v>
+        <v>641</v>
+      </c>
+      <c r="C178" t="s" s="10">
+        <v>642</v>
       </c>
       <c r="D178" t="s" s="9">
-        <v>467</v>
+        <v>643</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="9">
-        <v>468</v>
+        <v>644</v>
       </c>
       <c r="B179" t="s" s="9">
-        <v>469</v>
-      </c>
-      <c r="C179" t="n" s="9">
-        <v>92090.0</v>
+        <v>645</v>
+      </c>
+      <c r="C179" t="s" s="10">
+        <v>646</v>
       </c>
       <c r="D179" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="9">
-        <v>470</v>
+        <v>647</v>
       </c>
       <c r="B180" t="s" s="9">
-        <v>471</v>
-      </c>
-      <c r="C180" t="n" s="9">
-        <v>8870.0</v>
+        <v>648</v>
+      </c>
+      <c r="C180" t="s" s="10">
+        <v>649</v>
       </c>
       <c r="D180" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="9">
-        <v>472</v>
+        <v>650</v>
       </c>
       <c r="B181" t="s" s="9">
-        <v>473</v>
-      </c>
-      <c r="C181" t="n" s="9">
-        <v>11586.0</v>
+        <v>651</v>
+      </c>
+      <c r="C181" t="s" s="10">
+        <v>652</v>
       </c>
       <c r="D181" t="s" s="9">
-        <v>474</v>
+        <v>653</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="9">
-        <v>475</v>
+        <v>654</v>
       </c>
       <c r="B182" t="s" s="9">
-        <v>476</v>
-      </c>
-      <c r="C182" t="n" s="9">
-        <v>342000.0</v>
+        <v>655</v>
+      </c>
+      <c r="C182" t="s" s="10">
+        <v>656</v>
       </c>
       <c r="D182" t="s" s="9">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="9">
-        <v>477</v>
+        <v>657</v>
       </c>
       <c r="B183" t="s" s="9">
-        <v>478</v>
-      </c>
-      <c r="C183" t="n" s="9">
-        <v>238391.0</v>
+        <v>658</v>
+      </c>
+      <c r="C183" t="s" s="10">
+        <v>659</v>
       </c>
       <c r="D183" t="s" s="9">
-        <v>479</v>
+        <v>660</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="9">
-        <v>480</v>
+        <v>661</v>
       </c>
       <c r="B184" t="s" s="9">
-        <v>481</v>
-      </c>
-      <c r="C184" t="n" s="9">
-        <v>1.7098242E7</v>
+        <v>662</v>
+      </c>
+      <c r="C184" t="s" s="10">
+        <v>663</v>
       </c>
       <c r="D184" t="s" s="9">
-        <v>482</v>
+        <v>664</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="9">
-        <v>483</v>
+        <v>665</v>
       </c>
       <c r="B185" t="s" s="9">
-        <v>484</v>
-      </c>
-      <c r="C185" t="n" s="9">
-        <v>26338.0</v>
+        <v>666</v>
+      </c>
+      <c r="C185" t="s" s="10">
+        <v>667</v>
       </c>
       <c r="D185" t="s" s="9">
-        <v>485</v>
+        <v>668</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="9">
-        <v>486</v>
+        <v>669</v>
       </c>
       <c r="B186" t="s" s="9">
-        <v>487</v>
-      </c>
-      <c r="C186" t="n" s="9">
-        <v>2511.0</v>
+        <v>670</v>
+      </c>
+      <c r="C186" t="s" s="10">
+        <v>671</v>
       </c>
       <c r="D186" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="9">
-        <v>488</v>
+        <v>672</v>
       </c>
       <c r="B187" t="s" s="9">
-        <v>489</v>
-      </c>
-      <c r="C187" t="n" s="9">
-        <v>21.0</v>
+        <v>673</v>
+      </c>
+      <c r="C187" t="s" s="10">
+        <v>556</v>
       </c>
       <c r="D187" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="9">
-        <v>490</v>
+        <v>674</v>
       </c>
       <c r="B188" t="s" s="9">
-        <v>491</v>
-      </c>
-      <c r="C188" t="n" s="9">
-        <v>394.0</v>
+        <v>675</v>
+      </c>
+      <c r="C188" t="s" s="10">
+        <v>676</v>
       </c>
       <c r="D188" t="s" s="9">
-        <v>492</v>
+        <v>677</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="9">
-        <v>493</v>
+        <v>678</v>
       </c>
       <c r="B189" t="s" s="9">
-        <v>494</v>
-      </c>
-      <c r="C189" t="n" s="9">
-        <v>261.0</v>
+        <v>679</v>
+      </c>
+      <c r="C189" t="s" s="10">
+        <v>680</v>
       </c>
       <c r="D189" t="s" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="9">
-        <v>495</v>
+        <v>681</v>
       </c>
       <c r="B190" t="s" s="9">
-        <v>496</v>
-      </c>
-      <c r="C190" t="n" s="9">
-        <v>616.0</v>
+        <v>682</v>
+      </c>
+      <c r="C190" t="s" s="10">
+        <v>683</v>
       </c>
       <c r="D190" t="s" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="9">
-        <v>497</v>
+        <v>684</v>
       </c>
       <c r="B191" t="s" s="9">
-        <v>498</v>
-      </c>
-      <c r="C191" t="n" s="9">
-        <v>53.0</v>
+        <v>685</v>
+      </c>
+      <c r="C191" t="s" s="10">
+        <v>686</v>
       </c>
       <c r="D191" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="9">
-        <v>499</v>
+        <v>687</v>
       </c>
       <c r="B192" t="s" s="9">
-        <v>500</v>
-      </c>
-      <c r="C192" t="n" s="9">
-        <v>242.0</v>
+        <v>688</v>
+      </c>
+      <c r="C192" t="s" s="10">
+        <v>689</v>
       </c>
       <c r="D192" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="9">
-        <v>501</v>
+        <v>690</v>
       </c>
       <c r="B193" t="s" s="9">
-        <v>502</v>
-      </c>
-      <c r="C193" t="n" s="9">
-        <v>389.0</v>
+        <v>691</v>
+      </c>
+      <c r="C193" t="s" s="10">
+        <v>692</v>
       </c>
       <c r="D193" t="s" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="9">
-        <v>503</v>
+        <v>693</v>
       </c>
       <c r="B194" t="s" s="9">
-        <v>504</v>
-      </c>
-      <c r="C194" t="n" s="9">
-        <v>2842.0</v>
+        <v>694</v>
+      </c>
+      <c r="C194" t="s" s="10">
+        <v>695</v>
       </c>
       <c r="D194" t="s" s="9">
-        <v>505</v>
+        <v>696</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="9">
-        <v>506</v>
+        <v>697</v>
       </c>
       <c r="B195" t="s" s="9">
-        <v>507</v>
-      </c>
-      <c r="C195" t="n" s="9">
-        <v>61.0</v>
+        <v>698</v>
+      </c>
+      <c r="C195" t="s" s="10">
+        <v>699</v>
       </c>
       <c r="D195" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="9">
-        <v>508</v>
+        <v>700</v>
       </c>
       <c r="B196" t="s" s="9">
-        <v>509</v>
-      </c>
-      <c r="C196" t="n" s="9">
-        <v>2149690.0</v>
+        <v>701</v>
+      </c>
+      <c r="C196" t="s" s="10">
+        <v>702</v>
       </c>
       <c r="D196" t="s" s="9">
-        <v>510</v>
+        <v>703</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="9">
-        <v>511</v>
+        <v>704</v>
       </c>
       <c r="B197" t="s" s="9">
-        <v>512</v>
-      </c>
-      <c r="C197" t="n" s="9">
-        <v>196722.0</v>
+        <v>705</v>
+      </c>
+      <c r="C197" t="s" s="10">
+        <v>706</v>
       </c>
       <c r="D197" t="s" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="9">
-        <v>513</v>
+        <v>707</v>
       </c>
       <c r="B198" t="s" s="9">
-        <v>514</v>
-      </c>
-      <c r="C198" t="n" s="9">
-        <v>88361.0</v>
+        <v>708</v>
+      </c>
+      <c r="C198" t="s" s="10">
+        <v>709</v>
       </c>
       <c r="D198" t="s" s="9">
-        <v>515</v>
+        <v>710</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="9">
-        <v>516</v>
+        <v>711</v>
       </c>
       <c r="B199" t="s" s="9">
-        <v>517</v>
-      </c>
-      <c r="C199" t="n" s="9">
-        <v>452.0</v>
+        <v>712</v>
+      </c>
+      <c r="C199" t="s" s="10">
+        <v>713</v>
       </c>
       <c r="D199" t="s" s="9">
-        <v>518</v>
+        <v>714</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="9">
-        <v>519</v>
+        <v>715</v>
       </c>
       <c r="B200" t="s" s="9">
-        <v>520</v>
-      </c>
-      <c r="C200" t="n" s="9">
-        <v>71740.0</v>
+        <v>716</v>
+      </c>
+      <c r="C200" t="s" s="10">
+        <v>717</v>
       </c>
       <c r="D200" t="s" s="9">
-        <v>521</v>
+        <v>718</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="9">
-        <v>522</v>
+        <v>719</v>
       </c>
       <c r="B201" t="s" s="9">
-        <v>522</v>
-      </c>
-      <c r="C201" t="n" s="9">
-        <v>710.0</v>
+        <v>719</v>
+      </c>
+      <c r="C201" t="s" s="10">
+        <v>720</v>
       </c>
       <c r="D201" t="s" s="9">
-        <v>523</v>
+        <v>721</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="9">
-        <v>524</v>
+        <v>722</v>
       </c>
       <c r="B202" t="s" s="9">
-        <v>525</v>
-      </c>
-      <c r="C202" t="n" s="9">
-        <v>34.0</v>
+        <v>723</v>
+      </c>
+      <c r="C202" t="s" s="10">
+        <v>724</v>
       </c>
       <c r="D202" t="s" s="9">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="9">
-        <v>526</v>
+        <v>725</v>
       </c>
       <c r="B203" t="s" s="9">
-        <v>527</v>
-      </c>
-      <c r="C203" t="n" s="9">
-        <v>49037.0</v>
+        <v>726</v>
+      </c>
+      <c r="C203" t="s" s="10">
+        <v>727</v>
       </c>
       <c r="D203" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="9">
-        <v>528</v>
+        <v>728</v>
       </c>
       <c r="B204" t="s" s="9">
-        <v>529</v>
-      </c>
-      <c r="C204" t="n" s="9">
-        <v>20273.0</v>
+        <v>729</v>
+      </c>
+      <c r="C204" t="s" s="10">
+        <v>730</v>
       </c>
       <c r="D204" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="9">
-        <v>530</v>
+        <v>731</v>
       </c>
       <c r="B205" t="s" s="9">
-        <v>531</v>
-      </c>
-      <c r="C205" t="n" s="9">
-        <v>28896.0</v>
+        <v>732</v>
+      </c>
+      <c r="C205" t="s" s="10">
+        <v>733</v>
       </c>
       <c r="D205" t="s" s="9">
-        <v>532</v>
+        <v>734</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="9">
-        <v>533</v>
+        <v>735</v>
       </c>
       <c r="B206" t="s" s="9">
-        <v>534</v>
-      </c>
-      <c r="C206" t="n" s="9">
-        <v>637657.0</v>
+        <v>736</v>
+      </c>
+      <c r="C206" t="s" s="10">
+        <v>737</v>
       </c>
       <c r="D206" t="s" s="9">
-        <v>535</v>
+        <v>738</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="9">
-        <v>536</v>
+        <v>739</v>
       </c>
       <c r="B207" t="s" s="9">
-        <v>537</v>
-      </c>
-      <c r="C207" t="n" s="9">
-        <v>1221037.0</v>
+        <v>740</v>
+      </c>
+      <c r="C207" t="s" s="10">
+        <v>741</v>
       </c>
       <c r="D207" t="s" s="9">
-        <v>538</v>
+        <v>742</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="9">
-        <v>539</v>
+        <v>743</v>
       </c>
       <c r="B208" t="s" s="9">
-        <v>540</v>
-      </c>
-      <c r="C208" t="n" s="9">
-        <v>3903.0</v>
+        <v>744</v>
+      </c>
+      <c r="C208" t="s" s="10">
+        <v>745</v>
       </c>
       <c r="D208" t="s" s="9">
-        <v>541</v>
+        <v>746</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="9">
-        <v>542</v>
+        <v>747</v>
       </c>
       <c r="B209" t="s" s="9">
-        <v>543</v>
-      </c>
-      <c r="C209" t="n" s="9">
-        <v>100210.0</v>
+        <v>748</v>
+      </c>
+      <c r="C209" t="s" s="10">
+        <v>749</v>
       </c>
       <c r="D209" t="s" s="9">
-        <v>544</v>
+        <v>750</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="9">
-        <v>545</v>
+        <v>751</v>
       </c>
       <c r="B210" t="s" s="9">
-        <v>546</v>
-      </c>
-      <c r="C210" t="n" s="9">
-        <v>619745.0</v>
+        <v>752</v>
+      </c>
+      <c r="C210" t="s" s="10">
+        <v>753</v>
       </c>
       <c r="D210" t="s" s="9">
-        <v>547</v>
+        <v>754</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="9">
-        <v>548</v>
+        <v>755</v>
       </c>
       <c r="B211" t="s" s="9">
-        <v>549</v>
-      </c>
-      <c r="C211" t="n" s="9">
-        <v>505992.0</v>
+        <v>756</v>
+      </c>
+      <c r="C211" t="s" s="10">
+        <v>757</v>
       </c>
       <c r="D211" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="9">
-        <v>550</v>
+        <v>758</v>
       </c>
       <c r="B212" t="s" s="9">
-        <v>551</v>
-      </c>
-      <c r="C212" t="n" s="9">
-        <v>65610.0</v>
+        <v>759</v>
+      </c>
+      <c r="C212" t="s" s="10">
+        <v>760</v>
       </c>
       <c r="D212" t="s" s="9">
-        <v>552</v>
+        <v>761</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="9">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="B213" t="s" s="9">
-        <v>554</v>
-      </c>
-      <c r="C213" t="n" s="9">
-        <v>1886068.0</v>
+        <v>763</v>
+      </c>
+      <c r="C213" t="s" s="10">
+        <v>764</v>
       </c>
       <c r="D213" t="s" s="9">
-        <v>555</v>
+        <v>765</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="9">
-        <v>556</v>
+        <v>766</v>
       </c>
       <c r="B214" t="s" s="9">
-        <v>557</v>
-      </c>
-      <c r="C214" t="n" s="9">
-        <v>163820.0</v>
+        <v>767</v>
+      </c>
+      <c r="C214" t="s" s="10">
+        <v>768</v>
       </c>
       <c r="D214" t="s" s="9">
-        <v>558</v>
+        <v>769</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="9">
-        <v>559</v>
+        <v>770</v>
       </c>
       <c r="B215" t="s" s="9">
-        <v>560</v>
-      </c>
-      <c r="C215" t="n" s="9">
-        <v>-1.0</v>
+        <v>771</v>
+      </c>
+      <c r="C215" t="s" s="10">
+        <v>772</v>
       </c>
       <c r="D215" t="s" s="9">
-        <v>436</v>
+        <v>601</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="9">
-        <v>561</v>
+        <v>773</v>
       </c>
       <c r="B216" t="s" s="9">
-        <v>562</v>
-      </c>
-      <c r="C216" t="n" s="9">
-        <v>450295.0</v>
+        <v>774</v>
+      </c>
+      <c r="C216" t="s" s="10">
+        <v>775</v>
       </c>
       <c r="D216" t="s" s="9">
-        <v>563</v>
+        <v>776</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="9">
-        <v>564</v>
+        <v>777</v>
       </c>
       <c r="B217" t="s" s="9">
-        <v>565</v>
-      </c>
-      <c r="C217" t="n" s="9">
-        <v>41284.0</v>
+        <v>778</v>
+      </c>
+      <c r="C217" t="s" s="10">
+        <v>779</v>
       </c>
       <c r="D217" t="s" s="9">
-        <v>341</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="9">
-        <v>566</v>
+        <v>780</v>
       </c>
       <c r="B218" t="s" s="9">
-        <v>567</v>
-      </c>
-      <c r="C218" t="n" s="9">
-        <v>185180.0</v>
+        <v>781</v>
+      </c>
+      <c r="C218" t="s" s="10">
+        <v>782</v>
       </c>
       <c r="D218" t="s" s="9">
-        <v>568</v>
+        <v>783</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="9">
-        <v>569</v>
+        <v>784</v>
       </c>
       <c r="B219" t="s" s="9">
-        <v>570</v>
-      </c>
-      <c r="C219" t="n" s="9">
-        <v>964.0</v>
+        <v>785</v>
+      </c>
+      <c r="C219" t="s" s="10">
+        <v>786</v>
       </c>
       <c r="D219" t="s" s="9">
-        <v>571</v>
+        <v>787</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="9">
-        <v>572</v>
+        <v>788</v>
       </c>
       <c r="B220" t="s" s="9">
-        <v>573</v>
-      </c>
-      <c r="C220" t="n" s="9">
-        <v>36193.0</v>
+        <v>789</v>
+      </c>
+      <c r="C220" t="s" s="10">
+        <v>790</v>
       </c>
       <c r="D220" t="s" s="9">
-        <v>574</v>
+        <v>791</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="9">
-        <v>575</v>
+        <v>792</v>
       </c>
       <c r="B221" t="s" s="9">
-        <v>576</v>
-      </c>
-      <c r="C221" t="n" s="9">
-        <v>143100.0</v>
+        <v>793</v>
+      </c>
+      <c r="C221" t="s" s="10">
+        <v>794</v>
       </c>
       <c r="D221" t="s" s="9">
-        <v>577</v>
+        <v>795</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="9">
-        <v>578</v>
+        <v>796</v>
       </c>
       <c r="B222" t="s" s="9">
-        <v>579</v>
-      </c>
-      <c r="C222" t="n" s="9">
-        <v>945087.0</v>
+        <v>797</v>
+      </c>
+      <c r="C222" t="s" s="10">
+        <v>798</v>
       </c>
       <c r="D222" t="s" s="9">
-        <v>580</v>
+        <v>799</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="9">
-        <v>581</v>
+        <v>800</v>
       </c>
       <c r="B223" t="s" s="9">
-        <v>582</v>
-      </c>
-      <c r="C223" t="n" s="9">
-        <v>513120.0</v>
+        <v>801</v>
+      </c>
+      <c r="C223" t="s" s="10">
+        <v>802</v>
       </c>
       <c r="D223" t="s" s="9">
-        <v>583</v>
+        <v>803</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="9">
-        <v>584</v>
+        <v>804</v>
       </c>
       <c r="B224" t="s" s="9">
-        <v>585</v>
-      </c>
-      <c r="C224" t="n" s="9">
-        <v>14874.0</v>
+        <v>805</v>
+      </c>
+      <c r="C224" t="s" s="10">
+        <v>806</v>
       </c>
       <c r="D224" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="9">
-        <v>586</v>
+        <v>807</v>
       </c>
       <c r="B225" t="s" s="9">
-        <v>587</v>
-      </c>
-      <c r="C225" t="n" s="9">
-        <v>56785.0</v>
+        <v>808</v>
+      </c>
+      <c r="C225" t="s" s="10">
+        <v>809</v>
       </c>
       <c r="D225" t="s" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="9">
-        <v>588</v>
+        <v>810</v>
       </c>
       <c r="B226" t="s" s="9">
-        <v>589</v>
-      </c>
-      <c r="C226" t="n" s="9">
-        <v>12.0</v>
+        <v>811</v>
+      </c>
+      <c r="C226" t="s" s="10">
+        <v>812</v>
       </c>
       <c r="D226" t="s" s="9">
-        <v>414</v>
+        <v>570</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="9">
-        <v>590</v>
+        <v>813</v>
       </c>
       <c r="B227" t="s" s="9">
-        <v>591</v>
-      </c>
-      <c r="C227" t="n" s="9">
-        <v>747.0</v>
+        <v>814</v>
+      </c>
+      <c r="C227" t="s" s="10">
+        <v>815</v>
       </c>
       <c r="D227" t="s" s="9">
-        <v>592</v>
+        <v>816</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="9">
-        <v>593</v>
+        <v>817</v>
       </c>
       <c r="B228" t="s" s="9">
-        <v>594</v>
-      </c>
-      <c r="C228" t="n" s="9">
-        <v>5130.0</v>
+        <v>818</v>
+      </c>
+      <c r="C228" t="s" s="10">
+        <v>819</v>
       </c>
       <c r="D228" t="s" s="9">
-        <v>595</v>
+        <v>820</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="9">
-        <v>596</v>
+        <v>821</v>
       </c>
       <c r="B229" t="s" s="9">
-        <v>597</v>
-      </c>
-      <c r="C229" t="n" s="9">
-        <v>163610.0</v>
+        <v>822</v>
+      </c>
+      <c r="C229" t="s" s="10">
+        <v>823</v>
       </c>
       <c r="D229" t="s" s="9">
-        <v>598</v>
+        <v>824</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="9">
-        <v>599</v>
+        <v>825</v>
       </c>
       <c r="B230" t="s" s="9">
-        <v>600</v>
-      </c>
-      <c r="C230" t="n" s="9">
-        <v>783562.0</v>
+        <v>826</v>
+      </c>
+      <c r="C230" t="s" s="10">
+        <v>827</v>
       </c>
       <c r="D230" t="s" s="9">
-        <v>601</v>
+        <v>828</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="9">
-        <v>602</v>
+        <v>829</v>
       </c>
       <c r="B231" t="s" s="9">
-        <v>603</v>
-      </c>
-      <c r="C231" t="n" s="9">
-        <v>488100.0</v>
+        <v>830</v>
+      </c>
+      <c r="C231" t="s" s="10">
+        <v>831</v>
       </c>
       <c r="D231" t="s" s="9">
-        <v>604</v>
+        <v>832</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="9">
-        <v>605</v>
+        <v>833</v>
       </c>
       <c r="B232" t="s" s="9">
-        <v>606</v>
-      </c>
-      <c r="C232" t="n" s="9">
-        <v>948.0</v>
+        <v>834</v>
+      </c>
+      <c r="C232" t="s" s="10">
+        <v>835</v>
       </c>
       <c r="D232" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="9">
-        <v>607</v>
+        <v>836</v>
       </c>
       <c r="B233" t="s" s="9">
-        <v>608</v>
-      </c>
-      <c r="C233" t="n" s="9">
-        <v>26.0</v>
+        <v>837</v>
+      </c>
+      <c r="C233" t="s" s="10">
+        <v>838</v>
       </c>
       <c r="D233" t="s" s="9">
-        <v>609</v>
+        <v>839</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="9">
-        <v>610</v>
+        <v>840</v>
       </c>
       <c r="B234" t="s" s="9">
-        <v>611</v>
-      </c>
-      <c r="C234" t="n" s="9">
-        <v>241550.0</v>
+        <v>841</v>
+      </c>
+      <c r="C234" t="s" s="10">
+        <v>842</v>
       </c>
       <c r="D234" t="s" s="9">
-        <v>612</v>
+        <v>843</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="9">
-        <v>613</v>
+        <v>844</v>
       </c>
       <c r="B235" t="s" s="9">
-        <v>614</v>
-      </c>
-      <c r="C235" t="n" s="9">
-        <v>603500.0</v>
+        <v>845</v>
+      </c>
+      <c r="C235" t="s" s="10">
+        <v>846</v>
       </c>
       <c r="D235" t="s" s="9">
-        <v>615</v>
+        <v>847</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="9">
-        <v>616</v>
+        <v>848</v>
       </c>
       <c r="B236" t="s" s="9">
-        <v>617</v>
-      </c>
-      <c r="C236" t="n" s="9">
-        <v>83600.0</v>
+        <v>849</v>
+      </c>
+      <c r="C236" t="s" s="10">
+        <v>850</v>
       </c>
       <c r="D236" t="s" s="9">
-        <v>618</v>
+        <v>851</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="9">
-        <v>619</v>
+        <v>852</v>
       </c>
       <c r="B237" t="s" s="9">
-        <v>620</v>
-      </c>
-      <c r="C237" t="n" s="9">
-        <v>242900.0</v>
+        <v>853</v>
+      </c>
+      <c r="C237" t="s" s="10">
+        <v>854</v>
       </c>
       <c r="D237" t="s" s="9">
-        <v>621</v>
+        <v>855</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="9">
-        <v>622</v>
+        <v>856</v>
       </c>
       <c r="B238" t="s" s="9">
-        <v>623</v>
-      </c>
-      <c r="C238" t="n" s="9">
-        <v>9372610.0</v>
+        <v>857</v>
+      </c>
+      <c r="C238" t="s" s="10">
+        <v>858</v>
       </c>
       <c r="D238" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="9">
-        <v>624</v>
+        <v>859</v>
       </c>
       <c r="B239" t="s" s="9">
-        <v>625</v>
-      </c>
-      <c r="C239" t="n" s="9">
-        <v>34.2</v>
+        <v>860</v>
+      </c>
+      <c r="C239" t="s" s="10">
+        <v>861</v>
       </c>
       <c r="D239" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="9">
-        <v>626</v>
+        <v>862</v>
       </c>
       <c r="B240" t="s" s="9">
-        <v>627</v>
-      </c>
-      <c r="C240" t="n" s="9">
-        <v>347.0</v>
+        <v>863</v>
+      </c>
+      <c r="C240" t="s" s="10">
+        <v>864</v>
       </c>
       <c r="D240" t="s" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="9">
-        <v>628</v>
+        <v>865</v>
       </c>
       <c r="B241" t="s" s="9">
-        <v>629</v>
-      </c>
-      <c r="C241" t="n" s="9">
-        <v>181034.0</v>
+        <v>866</v>
+      </c>
+      <c r="C241" t="s" s="10">
+        <v>867</v>
       </c>
       <c r="D241" t="s" s="9">
-        <v>630</v>
+        <v>868</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="9">
-        <v>631</v>
+        <v>869</v>
       </c>
       <c r="B242" t="s" s="9">
-        <v>632</v>
-      </c>
-      <c r="C242" t="n" s="9">
-        <v>447400.0</v>
+        <v>870</v>
+      </c>
+      <c r="C242" t="s" s="10">
+        <v>871</v>
       </c>
       <c r="D242" t="s" s="9">
-        <v>633</v>
+        <v>872</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="9">
-        <v>634</v>
+        <v>873</v>
       </c>
       <c r="B243" t="s" s="9">
-        <v>635</v>
-      </c>
-      <c r="C243" t="n" s="9">
-        <v>12189.0</v>
+        <v>874</v>
+      </c>
+      <c r="C243" t="s" s="10">
+        <v>875</v>
       </c>
       <c r="D243" t="s" s="9">
-        <v>636</v>
+        <v>876</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="9">
-        <v>637</v>
+        <v>877</v>
       </c>
       <c r="B244" t="s" s="9">
-        <v>637</v>
-      </c>
-      <c r="C244" t="n" s="9">
-        <v>0.44</v>
+        <v>877</v>
+      </c>
+      <c r="C244" t="s" s="10">
+        <v>878</v>
       </c>
       <c r="D244" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="9">
-        <v>638</v>
+        <v>879</v>
       </c>
       <c r="B245" t="s" s="9">
-        <v>639</v>
-      </c>
-      <c r="C245" t="n" s="9">
-        <v>916445.0</v>
+        <v>880</v>
+      </c>
+      <c r="C245" t="s" s="10">
+        <v>881</v>
       </c>
       <c r="D245" t="s" s="9">
-        <v>640</v>
+        <v>882</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="9">
-        <v>641</v>
+        <v>883</v>
       </c>
       <c r="B246" t="s" s="9">
-        <v>642</v>
-      </c>
-      <c r="C246" t="n" s="9">
-        <v>331212.0</v>
+        <v>884</v>
+      </c>
+      <c r="C246" t="s" s="10">
+        <v>885</v>
       </c>
       <c r="D246" t="s" s="9">
-        <v>643</v>
+        <v>886</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="9">
-        <v>644</v>
+        <v>887</v>
       </c>
       <c r="B247" t="s" s="9">
-        <v>645</v>
-      </c>
-      <c r="C247" t="n" s="9">
-        <v>142.0</v>
+        <v>888</v>
+      </c>
+      <c r="C247" t="s" s="10">
+        <v>889</v>
       </c>
       <c r="D247" t="s" s="9">
-        <v>211</v>
+        <v>288</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="9">
-        <v>646</v>
+        <v>890</v>
       </c>
       <c r="B248" t="s" s="9">
-        <v>647</v>
-      </c>
-      <c r="C248" t="n" s="9">
-        <v>266000.0</v>
+        <v>891</v>
+      </c>
+      <c r="C248" t="s" s="10">
+        <v>892</v>
       </c>
       <c r="D248" t="s" s="9">
-        <v>648</v>
+        <v>893</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="9">
-        <v>649</v>
+        <v>894</v>
       </c>
       <c r="B249" t="s" s="9">
-        <v>650</v>
-      </c>
-      <c r="C249" t="n" s="9">
-        <v>527968.0</v>
+        <v>895</v>
+      </c>
+      <c r="C249" t="s" s="10">
+        <v>896</v>
       </c>
       <c r="D249" t="s" s="9">
-        <v>651</v>
+        <v>897</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="9">
-        <v>652</v>
+        <v>898</v>
       </c>
       <c r="B250" t="s" s="9">
-        <v>653</v>
-      </c>
-      <c r="C250" t="n" s="9">
-        <v>752612.0</v>
+        <v>899</v>
+      </c>
+      <c r="C250" t="s" s="10">
+        <v>900</v>
       </c>
       <c r="D250" t="s" s="9">
-        <v>654</v>
+        <v>901</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="9">
-        <v>655</v>
+        <v>902</v>
       </c>
       <c r="B251" t="s" s="9">
-        <v>656</v>
-      </c>
-      <c r="C251" t="n" s="9">
-        <v>390757.0</v>
+        <v>903</v>
+      </c>
+      <c r="C251" t="s" s="10">
+        <v>904</v>
       </c>
       <c r="D251" t="s" s="9">
-        <v>657</v>
+        <v>905</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="9">
-        <v>658</v>
+        <v>906</v>
       </c>
       <c r="B252" t="s" s="9">
-        <v>659</v>
-      </c>
-      <c r="C252" t="n" s="9">
-        <v>1580.0</v>
+        <v>907</v>
+      </c>
+      <c r="C252" t="s" s="10">
+        <v>908</v>
       </c>
       <c r="D252" t="s" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/CountriesList.xlsx
+++ b/CountriesList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="660">
   <si>
     <t>Countries List</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Kabul</t>
   </si>
   <si>
-    <t>652.230,00</t>
-  </si>
-  <si>
     <t>AFN</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>Tirana</t>
   </si>
   <si>
-    <t>28.748,00</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>Algiers</t>
   </si>
   <si>
-    <t>2.381.741,00</t>
-  </si>
-  <si>
     <t>DZD</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>Pago Pago</t>
   </si>
   <si>
-    <t>199,00</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -83,9 +71,6 @@
     <t>Andorra la Vella</t>
   </si>
   <si>
-    <t>468,00</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -95,9 +80,6 @@
     <t>Luanda</t>
   </si>
   <si>
-    <t>1.246.700,00</t>
-  </si>
-  <si>
     <t>AOA</t>
   </si>
   <si>
@@ -107,9 +89,6 @@
     <t>The Valley</t>
   </si>
   <si>
-    <t>91,00</t>
-  </si>
-  <si>
     <t>XCD</t>
   </si>
   <si>
@@ -119,27 +98,18 @@
     <t>-</t>
   </si>
   <si>
-    <t>14.000.000,00</t>
-  </si>
-  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
     <t>Saint John's</t>
   </si>
   <si>
-    <t>442,00</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>Buenos Aires</t>
   </si>
   <si>
-    <t>2.780.400,00</t>
-  </si>
-  <si>
     <t>ARS</t>
   </si>
   <si>
@@ -149,9 +119,6 @@
     <t>Yerevan</t>
   </si>
   <si>
-    <t>29.743,00</t>
-  </si>
-  <si>
     <t>AMD</t>
   </si>
   <si>
@@ -161,9 +128,6 @@
     <t>Oranjestad</t>
   </si>
   <si>
-    <t>180,00</t>
-  </si>
-  <si>
     <t>AWG</t>
   </si>
   <si>
@@ -173,9 +137,6 @@
     <t>Canberra</t>
   </si>
   <si>
-    <t>7.692.024,00</t>
-  </si>
-  <si>
     <t>AUD</t>
   </si>
   <si>
@@ -185,18 +146,12 @@
     <t>Vienna</t>
   </si>
   <si>
-    <t>83.871,00</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
     <t>Baku</t>
   </si>
   <si>
-    <t>86.600,00</t>
-  </si>
-  <si>
     <t>AZN</t>
   </si>
   <si>
@@ -206,9 +161,6 @@
     <t>Nassau</t>
   </si>
   <si>
-    <t>13.943,00</t>
-  </si>
-  <si>
     <t>BSD,USD</t>
   </si>
   <si>
@@ -218,9 +170,6 @@
     <t>Manama</t>
   </si>
   <si>
-    <t>765,00</t>
-  </si>
-  <si>
     <t>BHD</t>
   </si>
   <si>
@@ -230,9 +179,6 @@
     <t>Dhaka</t>
   </si>
   <si>
-    <t>147.570,00</t>
-  </si>
-  <si>
     <t>BDT</t>
   </si>
   <si>
@@ -242,9 +188,6 @@
     <t>Bridgetown</t>
   </si>
   <si>
-    <t>430,00</t>
-  </si>
-  <si>
     <t>BBD</t>
   </si>
   <si>
@@ -254,9 +197,6 @@
     <t>Minsk</t>
   </si>
   <si>
-    <t>207.600,00</t>
-  </si>
-  <si>
     <t>BYN</t>
   </si>
   <si>
@@ -266,18 +206,12 @@
     <t>Brussels</t>
   </si>
   <si>
-    <t>30.528,00</t>
-  </si>
-  <si>
     <t>Belize</t>
   </si>
   <si>
     <t>Belmopan</t>
   </si>
   <si>
-    <t>22.966,00</t>
-  </si>
-  <si>
     <t>BZD</t>
   </si>
   <si>
@@ -287,9 +221,6 @@
     <t>Porto-Novo</t>
   </si>
   <si>
-    <t>112.622,00</t>
-  </si>
-  <si>
     <t>XOF</t>
   </si>
   <si>
@@ -299,9 +230,6 @@
     <t>Hamilton</t>
   </si>
   <si>
-    <t>54,00</t>
-  </si>
-  <si>
     <t>BMD</t>
   </si>
   <si>
@@ -311,9 +239,6 @@
     <t>Thimphu</t>
   </si>
   <si>
-    <t>38.394,00</t>
-  </si>
-  <si>
     <t>INR,BTN</t>
   </si>
   <si>
@@ -323,9 +248,6 @@
     <t>Sucre</t>
   </si>
   <si>
-    <t>1.098.581,00</t>
-  </si>
-  <si>
     <t>BOB</t>
   </si>
   <si>
@@ -335,9 +257,6 @@
     <t>Sarajevo</t>
   </si>
   <si>
-    <t>51.209,00</t>
-  </si>
-  <si>
     <t>BAM</t>
   </si>
   <si>
@@ -347,27 +266,18 @@
     <t>Gaborone</t>
   </si>
   <si>
-    <t>582.000,00</t>
-  </si>
-  <si>
     <t>BWP</t>
   </si>
   <si>
     <t>Bouvet Island</t>
   </si>
   <si>
-    <t>49,00</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t>Brasília</t>
   </si>
   <si>
-    <t>8.515.767,00</t>
-  </si>
-  <si>
     <t>BRL</t>
   </si>
   <si>
@@ -377,27 +287,18 @@
     <t>Diego Garcia</t>
   </si>
   <si>
-    <t>60,00</t>
-  </si>
-  <si>
     <t>British Virgin Islands</t>
   </si>
   <si>
     <t>Road Town</t>
   </si>
   <si>
-    <t>151,00</t>
-  </si>
-  <si>
     <t>Brunei</t>
   </si>
   <si>
     <t>Bandar Seri Begawan</t>
   </si>
   <si>
-    <t>5.765,00</t>
-  </si>
-  <si>
     <t>SGD,BND</t>
   </si>
   <si>
@@ -407,9 +308,6 @@
     <t>Sofia</t>
   </si>
   <si>
-    <t>110.879,00</t>
-  </si>
-  <si>
     <t>BGN</t>
   </si>
   <si>
@@ -419,18 +317,12 @@
     <t>Ouagadougou</t>
   </si>
   <si>
-    <t>272.967,00</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
     <t>Gitega</t>
   </si>
   <si>
-    <t>27.834,00</t>
-  </si>
-  <si>
     <t>BIF</t>
   </si>
   <si>
@@ -440,9 +332,6 @@
     <t>Phnom Penh</t>
   </si>
   <si>
-    <t>181.035,00</t>
-  </si>
-  <si>
     <t>KHR,USD</t>
   </si>
   <si>
@@ -452,9 +341,6 @@
     <t>Yaoundé</t>
   </si>
   <si>
-    <t>475.442,00</t>
-  </si>
-  <si>
     <t>XAF</t>
   </si>
   <si>
@@ -464,9 +350,6 @@
     <t>Ottawa</t>
   </si>
   <si>
-    <t>9.984.670,00</t>
-  </si>
-  <si>
     <t>CAD</t>
   </si>
   <si>
@@ -476,9 +359,6 @@
     <t>Praia</t>
   </si>
   <si>
-    <t>4.033,00</t>
-  </si>
-  <si>
     <t>CVE</t>
   </si>
   <si>
@@ -488,18 +368,12 @@
     <t>Kralendijk</t>
   </si>
   <si>
-    <t>328,00</t>
-  </si>
-  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
     <t>George Town</t>
   </si>
   <si>
-    <t>264,00</t>
-  </si>
-  <si>
     <t>KYD</t>
   </si>
   <si>
@@ -509,27 +383,18 @@
     <t>Bangui</t>
   </si>
   <si>
-    <t>622.984,00</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>N'Djamena</t>
   </si>
   <si>
-    <t>1.284.000,00</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
     <t>Santiago</t>
   </si>
   <si>
-    <t>756.102,00</t>
-  </si>
-  <si>
     <t>CLP</t>
   </si>
   <si>
@@ -539,9 +404,6 @@
     <t>Beijing</t>
   </si>
   <si>
-    <t>9.706.961,00</t>
-  </si>
-  <si>
     <t>CNY</t>
   </si>
   <si>
@@ -551,27 +413,18 @@
     <t>Flying Fish Cove</t>
   </si>
   <si>
-    <t>135,00</t>
-  </si>
-  <si>
     <t>Cocos (Keeling) Islands</t>
   </si>
   <si>
     <t>West Island</t>
   </si>
   <si>
-    <t>14,00</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
     <t>Bogotá</t>
   </si>
   <si>
-    <t>1.141.748,00</t>
-  </si>
-  <si>
     <t>COP</t>
   </si>
   <si>
@@ -581,9 +434,6 @@
     <t>Moroni</t>
   </si>
   <si>
-    <t>1.862,00</t>
-  </si>
-  <si>
     <t>KMF</t>
   </si>
   <si>
@@ -593,9 +443,6 @@
     <t>Avarua</t>
   </si>
   <si>
-    <t>236,00</t>
-  </si>
-  <si>
     <t>NZD,CKD</t>
   </si>
   <si>
@@ -605,9 +452,6 @@
     <t>San José</t>
   </si>
   <si>
-    <t>51.100,00</t>
-  </si>
-  <si>
     <t>CRC</t>
   </si>
   <si>
@@ -617,9 +461,6 @@
     <t>Zagreb</t>
   </si>
   <si>
-    <t>56.594,00</t>
-  </si>
-  <si>
     <t>HRK</t>
   </si>
   <si>
@@ -629,9 +470,6 @@
     <t>Havana</t>
   </si>
   <si>
-    <t>109.884,00</t>
-  </si>
-  <si>
     <t>CUC,CUP</t>
   </si>
   <si>
@@ -641,9 +479,6 @@
     <t>Willemstad</t>
   </si>
   <si>
-    <t>444,00</t>
-  </si>
-  <si>
     <t>ANG</t>
   </si>
   <si>
@@ -653,18 +488,12 @@
     <t>Nicosia</t>
   </si>
   <si>
-    <t>9.251,00</t>
-  </si>
-  <si>
     <t>Czechia</t>
   </si>
   <si>
     <t>Prague</t>
   </si>
   <si>
-    <t>78.865,00</t>
-  </si>
-  <si>
     <t>CZK</t>
   </si>
   <si>
@@ -674,9 +503,6 @@
     <t>Kinshasa</t>
   </si>
   <si>
-    <t>2.344.858,00</t>
-  </si>
-  <si>
     <t>CDF</t>
   </si>
   <si>
@@ -686,18 +512,12 @@
     <t>Copenhagen</t>
   </si>
   <si>
-    <t>43.094,00</t>
-  </si>
-  <si>
     <t>DKK</t>
   </si>
   <si>
     <t>Djibouti</t>
   </si>
   <si>
-    <t>23.200,00</t>
-  </si>
-  <si>
     <t>DJF</t>
   </si>
   <si>
@@ -707,18 +527,12 @@
     <t>Roseau</t>
   </si>
   <si>
-    <t>751,00</t>
-  </si>
-  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
     <t>Santo Domingo</t>
   </si>
   <si>
-    <t>48.671,00</t>
-  </si>
-  <si>
     <t>DOP</t>
   </si>
   <si>
@@ -728,18 +542,12 @@
     <t>Quito</t>
   </si>
   <si>
-    <t>276.841,00</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
     <t>Cairo</t>
   </si>
   <si>
-    <t>1.002.450,00</t>
-  </si>
-  <si>
     <t>EGP</t>
   </si>
   <si>
@@ -749,27 +557,18 @@
     <t>San Salvador</t>
   </si>
   <si>
-    <t>21.041,00</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>Malabo</t>
   </si>
   <si>
-    <t>28.051,00</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>Asmara</t>
   </si>
   <si>
-    <t>117.600,00</t>
-  </si>
-  <si>
     <t>ERN</t>
   </si>
   <si>
@@ -779,18 +578,12 @@
     <t>Tallinn</t>
   </si>
   <si>
-    <t>45.227,00</t>
-  </si>
-  <si>
     <t>Eswatini</t>
   </si>
   <si>
     <t>Mbabane</t>
   </si>
   <si>
-    <t>17.364,00</t>
-  </si>
-  <si>
     <t>SZL,ZAR</t>
   </si>
   <si>
@@ -800,9 +593,6 @@
     <t>Addis Ababa</t>
   </si>
   <si>
-    <t>1.104.300,00</t>
-  </si>
-  <si>
     <t>ETB</t>
   </si>
   <si>
@@ -812,9 +602,6 @@
     <t>Stanley</t>
   </si>
   <si>
-    <t>12.173,00</t>
-  </si>
-  <si>
     <t>FKP</t>
   </si>
   <si>
@@ -824,9 +611,6 @@
     <t>Tórshavn</t>
   </si>
   <si>
-    <t>1.393,00</t>
-  </si>
-  <si>
     <t>FOK,DKK</t>
   </si>
   <si>
@@ -836,9 +620,6 @@
     <t>Suva</t>
   </si>
   <si>
-    <t>18.272,00</t>
-  </si>
-  <si>
     <t>FJD</t>
   </si>
   <si>
@@ -848,36 +629,24 @@
     <t>Helsinki</t>
   </si>
   <si>
-    <t>338.424,00</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
     <t>Paris</t>
   </si>
   <si>
-    <t>551.695,00</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
     <t>Cayenne</t>
   </si>
   <si>
-    <t>83.534,00</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
     <t>Papeetē</t>
   </si>
   <si>
-    <t>4.167,00</t>
-  </si>
-  <si>
     <t>XPF</t>
   </si>
   <si>
@@ -887,27 +656,18 @@
     <t>Port-aux-Français</t>
   </si>
   <si>
-    <t>7.747,00</t>
-  </si>
-  <si>
     <t>Gabon</t>
   </si>
   <si>
     <t>Libreville</t>
   </si>
   <si>
-    <t>267.668,00</t>
-  </si>
-  <si>
     <t>Gambia</t>
   </si>
   <si>
     <t>Banjul</t>
   </si>
   <si>
-    <t>10.689,00</t>
-  </si>
-  <si>
     <t>GMD</t>
   </si>
   <si>
@@ -917,9 +677,6 @@
     <t>Tbilisi</t>
   </si>
   <si>
-    <t>69.700,00</t>
-  </si>
-  <si>
     <t>GEL</t>
   </si>
   <si>
@@ -929,27 +686,18 @@
     <t>Berlin</t>
   </si>
   <si>
-    <t>357.114,00</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
     <t>Accra</t>
   </si>
   <si>
-    <t>238.533,00</t>
-  </si>
-  <si>
     <t>GHS</t>
   </si>
   <si>
     <t>Gibraltar</t>
   </si>
   <si>
-    <t>6,00</t>
-  </si>
-  <si>
     <t>GIP</t>
   </si>
   <si>
@@ -959,54 +707,36 @@
     <t>Athens</t>
   </si>
   <si>
-    <t>131.990,00</t>
-  </si>
-  <si>
     <t>Greenland</t>
   </si>
   <si>
     <t>Nuuk</t>
   </si>
   <si>
-    <t>2.166.086,00</t>
-  </si>
-  <si>
     <t>Grenada</t>
   </si>
   <si>
     <t>St. George's</t>
   </si>
   <si>
-    <t>344,00</t>
-  </si>
-  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
     <t>Basse-Terre</t>
   </si>
   <si>
-    <t>1.628,00</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
     <t>Hagåtña</t>
   </si>
   <si>
-    <t>549,00</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
     <t>Guatemala City</t>
   </si>
   <si>
-    <t>108.889,00</t>
-  </si>
-  <si>
     <t>GTQ</t>
   </si>
   <si>
@@ -1016,9 +746,6 @@
     <t>St. Peter Port</t>
   </si>
   <si>
-    <t>78,00</t>
-  </si>
-  <si>
     <t>GGP,GBP</t>
   </si>
   <si>
@@ -1028,9 +755,6 @@
     <t>Conakry</t>
   </si>
   <si>
-    <t>245.857,00</t>
-  </si>
-  <si>
     <t>GNF</t>
   </si>
   <si>
@@ -1040,18 +764,12 @@
     <t>Bissau</t>
   </si>
   <si>
-    <t>36.125,00</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
     <t>Georgetown</t>
   </si>
   <si>
-    <t>214.969,00</t>
-  </si>
-  <si>
     <t>GYD</t>
   </si>
   <si>
@@ -1061,27 +779,18 @@
     <t>Port-au-Prince</t>
   </si>
   <si>
-    <t>27.750,00</t>
-  </si>
-  <si>
     <t>HTG</t>
   </si>
   <si>
     <t>Heard Island and McDonald Islands</t>
   </si>
   <si>
-    <t>412,00</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>Tegucigalpa</t>
   </si>
   <si>
-    <t>112.492,00</t>
-  </si>
-  <si>
     <t>HNL</t>
   </si>
   <si>
@@ -1091,9 +800,6 @@
     <t>City of Victoria</t>
   </si>
   <si>
-    <t>1.104,00</t>
-  </si>
-  <si>
     <t>HKD</t>
   </si>
   <si>
@@ -1103,9 +809,6 @@
     <t>Budapest</t>
   </si>
   <si>
-    <t>93.028,00</t>
-  </si>
-  <si>
     <t>HUF</t>
   </si>
   <si>
@@ -1115,9 +818,6 @@
     <t>Reykjavik</t>
   </si>
   <si>
-    <t>103.000,00</t>
-  </si>
-  <si>
     <t>ISK</t>
   </si>
   <si>
@@ -1127,9 +827,6 @@
     <t>New Delhi</t>
   </si>
   <si>
-    <t>3.287.590,00</t>
-  </si>
-  <si>
     <t>INR</t>
   </si>
   <si>
@@ -1139,9 +836,6 @@
     <t>Jakarta</t>
   </si>
   <si>
-    <t>1.904.569,00</t>
-  </si>
-  <si>
     <t>IDR</t>
   </si>
   <si>
@@ -1151,9 +845,6 @@
     <t>Tehran</t>
   </si>
   <si>
-    <t>1.648.195,00</t>
-  </si>
-  <si>
     <t>IRR</t>
   </si>
   <si>
@@ -1163,9 +854,6 @@
     <t>Baghdad</t>
   </si>
   <si>
-    <t>438.317,00</t>
-  </si>
-  <si>
     <t>IQD</t>
   </si>
   <si>
@@ -1175,18 +863,12 @@
     <t>Dublin</t>
   </si>
   <si>
-    <t>70.273,00</t>
-  </si>
-  <si>
     <t>Isle of Man</t>
   </si>
   <si>
     <t>Douglas</t>
   </si>
   <si>
-    <t>572,00</t>
-  </si>
-  <si>
     <t>GBP,IMP</t>
   </si>
   <si>
@@ -1196,9 +878,6 @@
     <t>Jerusalem</t>
   </si>
   <si>
-    <t>20.770,00</t>
-  </si>
-  <si>
     <t>ILS</t>
   </si>
   <si>
@@ -1208,27 +887,18 @@
     <t>Rome</t>
   </si>
   <si>
-    <t>301.336,00</t>
-  </si>
-  <si>
     <t>Ivory Coast</t>
   </si>
   <si>
     <t>Yamoussoukro</t>
   </si>
   <si>
-    <t>322.463,00</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
     <t>Kingston</t>
   </si>
   <si>
-    <t>10.991,00</t>
-  </si>
-  <si>
     <t>JMD</t>
   </si>
   <si>
@@ -1238,9 +908,6 @@
     <t>Tokyo</t>
   </si>
   <si>
-    <t>377.930,00</t>
-  </si>
-  <si>
     <t>JPY</t>
   </si>
   <si>
@@ -1250,9 +917,6 @@
     <t>Saint Helier</t>
   </si>
   <si>
-    <t>116,00</t>
-  </si>
-  <si>
     <t>GBP,JEP</t>
   </si>
   <si>
@@ -1262,9 +926,6 @@
     <t>Amman</t>
   </si>
   <si>
-    <t>89.342,00</t>
-  </si>
-  <si>
     <t>JOD</t>
   </si>
   <si>
@@ -1274,9 +935,6 @@
     <t>Nur-Sultan</t>
   </si>
   <si>
-    <t>2.724.900,00</t>
-  </si>
-  <si>
     <t>KZT</t>
   </si>
   <si>
@@ -1286,9 +944,6 @@
     <t>Nairobi</t>
   </si>
   <si>
-    <t>580.367,00</t>
-  </si>
-  <si>
     <t>KES</t>
   </si>
   <si>
@@ -1298,9 +953,6 @@
     <t>South Tarawa</t>
   </si>
   <si>
-    <t>811,00</t>
-  </si>
-  <si>
     <t>AUD,KID</t>
   </si>
   <si>
@@ -1310,18 +962,12 @@
     <t>Pristina</t>
   </si>
   <si>
-    <t>10.908,00</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
     <t>Kuwait City</t>
   </si>
   <si>
-    <t>17.818,00</t>
-  </si>
-  <si>
     <t>KWD</t>
   </si>
   <si>
@@ -1331,9 +977,6 @@
     <t>Bishkek</t>
   </si>
   <si>
-    <t>199.951,00</t>
-  </si>
-  <si>
     <t>KGS</t>
   </si>
   <si>
@@ -1343,9 +986,6 @@
     <t>Vientiane</t>
   </si>
   <si>
-    <t>236.800,00</t>
-  </si>
-  <si>
     <t>LAK</t>
   </si>
   <si>
@@ -1355,18 +995,12 @@
     <t>Riga</t>
   </si>
   <si>
-    <t>64.559,00</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
     <t>Beirut</t>
   </si>
   <si>
-    <t>10.452,00</t>
-  </si>
-  <si>
     <t>LBP</t>
   </si>
   <si>
@@ -1376,9 +1010,6 @@
     <t>Maseru</t>
   </si>
   <si>
-    <t>30.355,00</t>
-  </si>
-  <si>
     <t>LSL,ZAR</t>
   </si>
   <si>
@@ -1388,9 +1019,6 @@
     <t>Monrovia</t>
   </si>
   <si>
-    <t>111.369,00</t>
-  </si>
-  <si>
     <t>LRD</t>
   </si>
   <si>
@@ -1400,9 +1028,6 @@
     <t>Tripoli</t>
   </si>
   <si>
-    <t>1.759.540,00</t>
-  </si>
-  <si>
     <t>LYD</t>
   </si>
   <si>
@@ -1412,9 +1037,6 @@
     <t>Vaduz</t>
   </si>
   <si>
-    <t>160,00</t>
-  </si>
-  <si>
     <t>CHF</t>
   </si>
   <si>
@@ -1424,21 +1046,12 @@
     <t>Vilnius</t>
   </si>
   <si>
-    <t>65.300,00</t>
-  </si>
-  <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>2.586,00</t>
-  </si>
-  <si>
     <t>Macau</t>
   </si>
   <si>
-    <t>30,00</t>
-  </si>
-  <si>
     <t>MOP</t>
   </si>
   <si>
@@ -1448,9 +1061,6 @@
     <t>Antananarivo</t>
   </si>
   <si>
-    <t>587.041,00</t>
-  </si>
-  <si>
     <t>MGA</t>
   </si>
   <si>
@@ -1460,9 +1070,6 @@
     <t>Lilongwe</t>
   </si>
   <si>
-    <t>118.484,00</t>
-  </si>
-  <si>
     <t>MWK</t>
   </si>
   <si>
@@ -1472,9 +1079,6 @@
     <t>Kuala Lumpur</t>
   </si>
   <si>
-    <t>330.803,00</t>
-  </si>
-  <si>
     <t>MYR</t>
   </si>
   <si>
@@ -1484,9 +1088,6 @@
     <t>Malé</t>
   </si>
   <si>
-    <t>300,00</t>
-  </si>
-  <si>
     <t>MVR</t>
   </si>
   <si>
@@ -1496,45 +1097,30 @@
     <t>Bamako</t>
   </si>
   <si>
-    <t>1.240.192,00</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
     <t>Valletta</t>
   </si>
   <si>
-    <t>316,00</t>
-  </si>
-  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
     <t>Majuro</t>
   </si>
   <si>
-    <t>181,00</t>
-  </si>
-  <si>
     <t>Martinique</t>
   </si>
   <si>
     <t>Fort-de-France</t>
   </si>
   <si>
-    <t>1.128,00</t>
-  </si>
-  <si>
     <t>Mauritania</t>
   </si>
   <si>
     <t>Nouakchott</t>
   </si>
   <si>
-    <t>1.030.700,00</t>
-  </si>
-  <si>
     <t>MRU</t>
   </si>
   <si>
@@ -1544,9 +1130,6 @@
     <t>Port Louis</t>
   </si>
   <si>
-    <t>2.040,00</t>
-  </si>
-  <si>
     <t>MUR</t>
   </si>
   <si>
@@ -1556,18 +1139,12 @@
     <t>Mamoudzou</t>
   </si>
   <si>
-    <t>374,00</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
     <t>Mexico City</t>
   </si>
   <si>
-    <t>1.964.375,00</t>
-  </si>
-  <si>
     <t>MXN</t>
   </si>
   <si>
@@ -1577,36 +1154,24 @@
     <t>Palikir</t>
   </si>
   <si>
-    <t>702,00</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
     <t>Chișinău</t>
   </si>
   <si>
-    <t>33.846,00</t>
-  </si>
-  <si>
     <t>MDL</t>
   </si>
   <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>2,02</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>Ulan Bator</t>
   </si>
   <si>
-    <t>1.564.110,00</t>
-  </si>
-  <si>
     <t>MNT</t>
   </si>
   <si>
@@ -1616,27 +1181,18 @@
     <t>Podgorica</t>
   </si>
   <si>
-    <t>13.812,00</t>
-  </si>
-  <si>
     <t>Montserrat</t>
   </si>
   <si>
     <t>Plymouth</t>
   </si>
   <si>
-    <t>102,00</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
     <t>Rabat</t>
   </si>
   <si>
-    <t>446.550,00</t>
-  </si>
-  <si>
     <t>MAD</t>
   </si>
   <si>
@@ -1646,9 +1202,6 @@
     <t>Maputo</t>
   </si>
   <si>
-    <t>801.590,00</t>
-  </si>
-  <si>
     <t>MZN</t>
   </si>
   <si>
@@ -1658,9 +1211,6 @@
     <t>Naypyidaw</t>
   </si>
   <si>
-    <t>676.578,00</t>
-  </si>
-  <si>
     <t>MMK</t>
   </si>
   <si>
@@ -1670,9 +1220,6 @@
     <t>Windhoek</t>
   </si>
   <si>
-    <t>825.615,00</t>
-  </si>
-  <si>
     <t>NAD,ZAR</t>
   </si>
   <si>
@@ -1682,18 +1229,12 @@
     <t>Yaren</t>
   </si>
   <si>
-    <t>21,00</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
     <t>Kathmandu</t>
   </si>
   <si>
-    <t>147.181,00</t>
-  </si>
-  <si>
     <t>NPR</t>
   </si>
   <si>
@@ -1703,27 +1244,18 @@
     <t>Amsterdam</t>
   </si>
   <si>
-    <t>41.850,00</t>
-  </si>
-  <si>
     <t>New Caledonia</t>
   </si>
   <si>
     <t>Nouméa</t>
   </si>
   <si>
-    <t>18.575,00</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
     <t>Wellington</t>
   </si>
   <si>
-    <t>270.467,00</t>
-  </si>
-  <si>
     <t>NZD</t>
   </si>
   <si>
@@ -1733,9 +1265,6 @@
     <t>Managua</t>
   </si>
   <si>
-    <t>130.373,00</t>
-  </si>
-  <si>
     <t>NIO</t>
   </si>
   <si>
@@ -1745,18 +1274,12 @@
     <t>Niamey</t>
   </si>
   <si>
-    <t>1.267.000,00</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
     <t>Abuja</t>
   </si>
   <si>
-    <t>923.768,00</t>
-  </si>
-  <si>
     <t>NGN</t>
   </si>
   <si>
@@ -1766,24 +1289,15 @@
     <t>Alofi</t>
   </si>
   <si>
-    <t>260,00</t>
-  </si>
-  <si>
     <t>Norfolk Island</t>
   </si>
   <si>
-    <t>36,00</t>
-  </si>
-  <si>
     <t>North Korea</t>
   </si>
   <si>
     <t>Pyongyang</t>
   </si>
   <si>
-    <t>120.538,00</t>
-  </si>
-  <si>
     <t>KPW</t>
   </si>
   <si>
@@ -1793,9 +1307,6 @@
     <t>Skopje</t>
   </si>
   <si>
-    <t>25.713,00</t>
-  </si>
-  <si>
     <t>MKD</t>
   </si>
   <si>
@@ -1805,18 +1316,12 @@
     <t>Saipan</t>
   </si>
   <si>
-    <t>464,00</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
     <t>Oslo</t>
   </si>
   <si>
-    <t>323.802,00</t>
-  </si>
-  <si>
     <t>NOK</t>
   </si>
   <si>
@@ -1826,9 +1331,6 @@
     <t>Muscat</t>
   </si>
   <si>
-    <t>309.500,00</t>
-  </si>
-  <si>
     <t>OMR</t>
   </si>
   <si>
@@ -1838,9 +1340,6 @@
     <t>Islamabad</t>
   </si>
   <si>
-    <t>881.912,00</t>
-  </si>
-  <si>
     <t>PKR</t>
   </si>
   <si>
@@ -1850,18 +1349,12 @@
     <t>Ngerulmud</t>
   </si>
   <si>
-    <t>459,00</t>
-  </si>
-  <si>
     <t>Palestine</t>
   </si>
   <si>
     <t>Ramallah</t>
   </si>
   <si>
-    <t>6.220,00</t>
-  </si>
-  <si>
     <t>ILS,JOD,EGP</t>
   </si>
   <si>
@@ -1871,9 +1364,6 @@
     <t>Panama City</t>
   </si>
   <si>
-    <t>75.417,00</t>
-  </si>
-  <si>
     <t>PAB,USD</t>
   </si>
   <si>
@@ -1883,9 +1373,6 @@
     <t>Port Moresby</t>
   </si>
   <si>
-    <t>462.840,00</t>
-  </si>
-  <si>
     <t>PGK</t>
   </si>
   <si>
@@ -1895,9 +1382,6 @@
     <t>Asunción</t>
   </si>
   <si>
-    <t>406.752,00</t>
-  </si>
-  <si>
     <t>PYG</t>
   </si>
   <si>
@@ -1907,9 +1391,6 @@
     <t>Lima</t>
   </si>
   <si>
-    <t>1.285.216,00</t>
-  </si>
-  <si>
     <t>PEN</t>
   </si>
   <si>
@@ -1919,9 +1400,6 @@
     <t>Manila</t>
   </si>
   <si>
-    <t>342.353,00</t>
-  </si>
-  <si>
     <t>PHP</t>
   </si>
   <si>
@@ -1931,18 +1409,12 @@
     <t>Adamstown</t>
   </si>
   <si>
-    <t>47,00</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
     <t>Warsaw</t>
   </si>
   <si>
-    <t>312.679,00</t>
-  </si>
-  <si>
     <t>PLN</t>
   </si>
   <si>
@@ -1952,27 +1424,18 @@
     <t>Lisbon</t>
   </si>
   <si>
-    <t>92.090,00</t>
-  </si>
-  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
     <t>San Juan</t>
   </si>
   <si>
-    <t>8.870,00</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
     <t>Doha</t>
   </si>
   <si>
-    <t>11.586,00</t>
-  </si>
-  <si>
     <t>QAR</t>
   </si>
   <si>
@@ -1982,18 +1445,12 @@
     <t>Brazzaville</t>
   </si>
   <si>
-    <t>342.000,00</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
     <t>Bucharest</t>
   </si>
   <si>
-    <t>238.391,00</t>
-  </si>
-  <si>
     <t>RON</t>
   </si>
   <si>
@@ -2003,9 +1460,6 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>17.098.242,00</t>
-  </si>
-  <si>
     <t>RUB</t>
   </si>
   <si>
@@ -2015,9 +1469,6 @@
     <t>Kigali</t>
   </si>
   <si>
-    <t>26.338,00</t>
-  </si>
-  <si>
     <t>RWF</t>
   </si>
   <si>
@@ -2027,9 +1478,6 @@
     <t>Saint-Denis</t>
   </si>
   <si>
-    <t>2.511,00</t>
-  </si>
-  <si>
     <t>Saint Barthélemy</t>
   </si>
   <si>
@@ -2042,9 +1490,6 @@
     <t>Jamestown</t>
   </si>
   <si>
-    <t>394,00</t>
-  </si>
-  <si>
     <t>GBP,SHP</t>
   </si>
   <si>
@@ -2054,54 +1499,36 @@
     <t>Basseterre</t>
   </si>
   <si>
-    <t>261,00</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
     <t>Castries</t>
   </si>
   <si>
-    <t>616,00</t>
-  </si>
-  <si>
     <t>Saint Martin</t>
   </si>
   <si>
     <t>Marigot</t>
   </si>
   <si>
-    <t>53,00</t>
-  </si>
-  <si>
     <t>Saint Pierre and Miquelon</t>
   </si>
   <si>
     <t>Saint-Pierre</t>
   </si>
   <si>
-    <t>242,00</t>
-  </si>
-  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Kingstown</t>
   </si>
   <si>
-    <t>389,00</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
     <t>Apia</t>
   </si>
   <si>
-    <t>2.842,00</t>
-  </si>
-  <si>
     <t>WST</t>
   </si>
   <si>
@@ -2111,18 +1538,12 @@
     <t>City of San Marino</t>
   </si>
   <si>
-    <t>61,00</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Riyadh</t>
   </si>
   <si>
-    <t>2.149.690,00</t>
-  </si>
-  <si>
     <t>SAR</t>
   </si>
   <si>
@@ -2132,18 +1553,12 @@
     <t>Dakar</t>
   </si>
   <si>
-    <t>196.722,00</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
     <t>Belgrade</t>
   </si>
   <si>
-    <t>88.361,00</t>
-  </si>
-  <si>
     <t>RSD</t>
   </si>
   <si>
@@ -2153,9 +1568,6 @@
     <t>Victoria</t>
   </si>
   <si>
-    <t>452,00</t>
-  </si>
-  <si>
     <t>SCR</t>
   </si>
   <si>
@@ -2165,18 +1577,12 @@
     <t>Freetown</t>
   </si>
   <si>
-    <t>71.740,00</t>
-  </si>
-  <si>
     <t>SLL</t>
   </si>
   <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>710,00</t>
-  </si>
-  <si>
     <t>SGD</t>
   </si>
   <si>
@@ -2186,36 +1592,24 @@
     <t>Philipsburg</t>
   </si>
   <si>
-    <t>34,00</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
     <t>Bratislava</t>
   </si>
   <si>
-    <t>49.037,00</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
     <t>Ljubljana</t>
   </si>
   <si>
-    <t>20.273,00</t>
-  </si>
-  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
     <t>Honiara</t>
   </si>
   <si>
-    <t>28.896,00</t>
-  </si>
-  <si>
     <t>SBD</t>
   </si>
   <si>
@@ -2225,9 +1619,6 @@
     <t>Mogadishu</t>
   </si>
   <si>
-    <t>637.657,00</t>
-  </si>
-  <si>
     <t>SOS</t>
   </si>
   <si>
@@ -2237,9 +1628,6 @@
     <t>Pretoria</t>
   </si>
   <si>
-    <t>1.221.037,00</t>
-  </si>
-  <si>
     <t>ZAR</t>
   </si>
   <si>
@@ -2249,9 +1637,6 @@
     <t>King Edward Point</t>
   </si>
   <si>
-    <t>3.903,00</t>
-  </si>
-  <si>
     <t>SHP</t>
   </si>
   <si>
@@ -2261,9 +1646,6 @@
     <t>Seoul</t>
   </si>
   <si>
-    <t>100.210,00</t>
-  </si>
-  <si>
     <t>KRW</t>
   </si>
   <si>
@@ -2273,9 +1655,6 @@
     <t>Juba</t>
   </si>
   <si>
-    <t>619.745,00</t>
-  </si>
-  <si>
     <t>SSP</t>
   </si>
   <si>
@@ -2285,18 +1664,12 @@
     <t>Madrid</t>
   </si>
   <si>
-    <t>505.992,00</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
     <t>Sri Jayawardenepura Kotte</t>
   </si>
   <si>
-    <t>65.610,00</t>
-  </si>
-  <si>
     <t>LKR</t>
   </si>
   <si>
@@ -2306,9 +1679,6 @@
     <t>Khartoum</t>
   </si>
   <si>
-    <t>1.886.068,00</t>
-  </si>
-  <si>
     <t>SDG</t>
   </si>
   <si>
@@ -2318,9 +1688,6 @@
     <t>Paramaribo</t>
   </si>
   <si>
-    <t>163.820,00</t>
-  </si>
-  <si>
     <t>SRD</t>
   </si>
   <si>
@@ -2330,18 +1697,12 @@
     <t>Longyearbyen</t>
   </si>
   <si>
-    <t>-1,00</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
     <t>Stockholm</t>
   </si>
   <si>
-    <t>450.295,00</t>
-  </si>
-  <si>
     <t>SEK</t>
   </si>
   <si>
@@ -2351,18 +1712,12 @@
     <t>Bern</t>
   </si>
   <si>
-    <t>41.284,00</t>
-  </si>
-  <si>
     <t>Syria</t>
   </si>
   <si>
     <t>Damascus</t>
   </si>
   <si>
-    <t>185.180,00</t>
-  </si>
-  <si>
     <t>SYP</t>
   </si>
   <si>
@@ -2372,9 +1727,6 @@
     <t>São Tomé</t>
   </si>
   <si>
-    <t>964,00</t>
-  </si>
-  <si>
     <t>STN</t>
   </si>
   <si>
@@ -2384,9 +1736,6 @@
     <t>Taipei</t>
   </si>
   <si>
-    <t>36.193,00</t>
-  </si>
-  <si>
     <t>TWD</t>
   </si>
   <si>
@@ -2396,9 +1745,6 @@
     <t>Dushanbe</t>
   </si>
   <si>
-    <t>143.100,00</t>
-  </si>
-  <si>
     <t>TJS</t>
   </si>
   <si>
@@ -2408,9 +1754,6 @@
     <t>Dodoma</t>
   </si>
   <si>
-    <t>945.087,00</t>
-  </si>
-  <si>
     <t>TZS</t>
   </si>
   <si>
@@ -2420,9 +1763,6 @@
     <t>Bangkok</t>
   </si>
   <si>
-    <t>513.120,00</t>
-  </si>
-  <si>
     <t>THB</t>
   </si>
   <si>
@@ -2432,36 +1772,24 @@
     <t>Dili</t>
   </si>
   <si>
-    <t>14.874,00</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
     <t>Lomé</t>
   </si>
   <si>
-    <t>56.785,00</t>
-  </si>
-  <si>
     <t>Tokelau</t>
   </si>
   <si>
     <t>Fakaofo</t>
   </si>
   <si>
-    <t>12,00</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
     <t>Nuku'alofa</t>
   </si>
   <si>
-    <t>747,00</t>
-  </si>
-  <si>
     <t>TOP</t>
   </si>
   <si>
@@ -2471,9 +1799,6 @@
     <t>Port of Spain</t>
   </si>
   <si>
-    <t>5.130,00</t>
-  </si>
-  <si>
     <t>TTD</t>
   </si>
   <si>
@@ -2483,9 +1808,6 @@
     <t>Tunis</t>
   </si>
   <si>
-    <t>163.610,00</t>
-  </si>
-  <si>
     <t>TND</t>
   </si>
   <si>
@@ -2495,9 +1817,6 @@
     <t>Ankara</t>
   </si>
   <si>
-    <t>783.562,00</t>
-  </si>
-  <si>
     <t>TRY</t>
   </si>
   <si>
@@ -2507,9 +1826,6 @@
     <t>Ashgabat</t>
   </si>
   <si>
-    <t>488.100,00</t>
-  </si>
-  <si>
     <t>TMT</t>
   </si>
   <si>
@@ -2519,18 +1835,12 @@
     <t>Cockburn Town</t>
   </si>
   <si>
-    <t>948,00</t>
-  </si>
-  <si>
     <t>Tuvalu</t>
   </si>
   <si>
     <t>Funafuti</t>
   </si>
   <si>
-    <t>26,00</t>
-  </si>
-  <si>
     <t>AUD,TVD</t>
   </si>
   <si>
@@ -2540,9 +1850,6 @@
     <t>Kampala</t>
   </si>
   <si>
-    <t>241.550,00</t>
-  </si>
-  <si>
     <t>UGX</t>
   </si>
   <si>
@@ -2552,9 +1859,6 @@
     <t>Kyiv</t>
   </si>
   <si>
-    <t>603.500,00</t>
-  </si>
-  <si>
     <t>UAH</t>
   </si>
   <si>
@@ -2564,9 +1868,6 @@
     <t>Abu Dhabi</t>
   </si>
   <si>
-    <t>83.600,00</t>
-  </si>
-  <si>
     <t>AED</t>
   </si>
   <si>
@@ -2576,9 +1877,6 @@
     <t>London</t>
   </si>
   <si>
-    <t>242.900,00</t>
-  </si>
-  <si>
     <t>GBP</t>
   </si>
   <si>
@@ -2588,36 +1886,24 @@
     <t>Washington, D.C.</t>
   </si>
   <si>
-    <t>9.372.610,00</t>
-  </si>
-  <si>
     <t>United States Minor Outlying Islands</t>
   </si>
   <si>
     <t>Washington DC</t>
   </si>
   <si>
-    <t>34,20</t>
-  </si>
-  <si>
     <t>United States Virgin Islands</t>
   </si>
   <si>
     <t>Charlotte Amalie</t>
   </si>
   <si>
-    <t>347,00</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
     <t>Montevideo</t>
   </si>
   <si>
-    <t>181.034,00</t>
-  </si>
-  <si>
     <t>UYU</t>
   </si>
   <si>
@@ -2627,9 +1913,6 @@
     <t>Tashkent</t>
   </si>
   <si>
-    <t>447.400,00</t>
-  </si>
-  <si>
     <t>UZS</t>
   </si>
   <si>
@@ -2639,27 +1922,18 @@
     <t>Port Vila</t>
   </si>
   <si>
-    <t>12.189,00</t>
-  </si>
-  <si>
     <t>VUV</t>
   </si>
   <si>
     <t>Vatican City</t>
   </si>
   <si>
-    <t>0,44</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
     <t>Caracas</t>
   </si>
   <si>
-    <t>916.445,00</t>
-  </si>
-  <si>
     <t>VES</t>
   </si>
   <si>
@@ -2669,9 +1943,6 @@
     <t>Hanoi</t>
   </si>
   <si>
-    <t>331.212,00</t>
-  </si>
-  <si>
     <t>VND</t>
   </si>
   <si>
@@ -2681,18 +1952,12 @@
     <t>Mata-Utu</t>
   </si>
   <si>
-    <t>142,00</t>
-  </si>
-  <si>
     <t>Western Sahara</t>
   </si>
   <si>
     <t>El Aaiún</t>
   </si>
   <si>
-    <t>266.000,00</t>
-  </si>
-  <si>
     <t>MAD,MRU,DZD</t>
   </si>
   <si>
@@ -2702,9 +1967,6 @@
     <t>Sana'a</t>
   </si>
   <si>
-    <t>527.968,00</t>
-  </si>
-  <si>
     <t>YER</t>
   </si>
   <si>
@@ -2714,9 +1976,6 @@
     <t>Lusaka</t>
   </si>
   <si>
-    <t>752.612,00</t>
-  </si>
-  <si>
     <t>ZMW</t>
   </si>
   <si>
@@ -2726,9 +1985,6 @@
     <t>Harare</t>
   </si>
   <si>
-    <t>390.757,00</t>
-  </si>
-  <si>
     <t>ZWL</t>
   </si>
   <si>
@@ -2736,9 +1992,6 @@
   </si>
   <si>
     <t>Mariehamn</t>
-  </si>
-  <si>
-    <t>1.580,00</t>
   </si>
 </sst>
 </file>
@@ -3044,7 +2297,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyAlignment="true" applyNumberFormat="true" applyBorder="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3094,3497 +2347,3497 @@
       <c r="B3" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" t="n" s="10">
+        <v>652230.0</v>
+      </c>
+      <c r="D3" t="s" s="9">
         <v>7</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="C4" t="n" s="10">
+        <v>28748.0</v>
+      </c>
+      <c r="D4" t="s" s="9">
         <v>10</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="9">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n" s="10">
+        <v>2381741.0</v>
+      </c>
+      <c r="D5" t="s" s="9">
         <v>13</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C6" t="n" s="10">
+        <v>199.0</v>
       </c>
       <c r="D6" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="n" s="10">
+        <v>468.0</v>
       </c>
       <c r="D7" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C8" t="n" s="10">
+        <v>1246700.0</v>
       </c>
       <c r="D8" t="s" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="n" s="10">
+        <v>91.0</v>
       </c>
       <c r="D9" t="s" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C10" t="n" s="10">
+        <v>1.4E7</v>
       </c>
       <c r="D10" t="s" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="C11" t="n" s="10">
+        <v>442.0</v>
       </c>
       <c r="D11" t="s" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C12" t="n" s="10">
+        <v>2780400.0</v>
       </c>
       <c r="D12" t="s" s="9">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="C13" t="n" s="10">
+        <v>29743.0</v>
       </c>
       <c r="D13" t="s" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="C14" t="n" s="10">
+        <v>180.0</v>
       </c>
       <c r="D14" t="s" s="9">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s" s="9">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="C15" t="n" s="10">
+        <v>7692024.0</v>
       </c>
       <c r="D15" t="s" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="9">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s" s="10">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="C16" t="n" s="10">
+        <v>83871.0</v>
       </c>
       <c r="D16" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s" s="9">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="C17" t="n" s="10">
+        <v>86600.0</v>
       </c>
       <c r="D17" t="s" s="9">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s" s="9">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="C18" t="n" s="10">
+        <v>13943.0</v>
       </c>
       <c r="D18" t="s" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="C19" t="n" s="10">
+        <v>765.0</v>
       </c>
       <c r="D19" t="s" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s" s="10">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="C20" t="n" s="10">
+        <v>147570.0</v>
       </c>
       <c r="D20" t="s" s="9">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s" s="10">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="C21" t="n" s="10">
+        <v>430.0</v>
       </c>
       <c r="D21" t="s" s="9">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s" s="10">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="C22" t="n" s="10">
+        <v>207600.0</v>
       </c>
       <c r="D22" t="s" s="9">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="C23" t="n" s="10">
+        <v>30528.0</v>
       </c>
       <c r="D23" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s" s="9">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>87</v>
+        <v>65</v>
+      </c>
+      <c r="C24" t="n" s="10">
+        <v>22966.0</v>
       </c>
       <c r="D24" t="s" s="9">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s" s="9">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s" s="10">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="C25" t="n" s="10">
+        <v>112622.0</v>
       </c>
       <c r="D25" t="s" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s" s="9">
-        <v>94</v>
-      </c>
-      <c r="C26" t="s" s="10">
-        <v>95</v>
+        <v>71</v>
+      </c>
+      <c r="C26" t="n" s="10">
+        <v>54.0</v>
       </c>
       <c r="D26" t="s" s="9">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s" s="9">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s" s="10">
-        <v>99</v>
+        <v>74</v>
+      </c>
+      <c r="C27" t="n" s="10">
+        <v>38394.0</v>
       </c>
       <c r="D27" t="s" s="9">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="C28" t="s" s="10">
-        <v>103</v>
+        <v>77</v>
+      </c>
+      <c r="C28" t="n" s="10">
+        <v>1098581.0</v>
       </c>
       <c r="D28" t="s" s="9">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s" s="9">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s" s="10">
-        <v>107</v>
+        <v>80</v>
+      </c>
+      <c r="C29" t="n" s="10">
+        <v>51209.0</v>
       </c>
       <c r="D29" t="s" s="9">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s" s="9">
-        <v>110</v>
-      </c>
-      <c r="C30" t="s" s="10">
-        <v>111</v>
+        <v>83</v>
+      </c>
+      <c r="C30" t="n" s="10">
+        <v>582000.0</v>
       </c>
       <c r="D30" t="s" s="9">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s" s="10">
-        <v>114</v>
+        <v>27</v>
+      </c>
+      <c r="C31" t="n" s="10">
+        <v>49.0</v>
       </c>
       <c r="D31" t="s" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s" s="9">
-        <v>116</v>
-      </c>
-      <c r="C32" t="s" s="10">
-        <v>117</v>
+        <v>87</v>
+      </c>
+      <c r="C32" t="n" s="10">
+        <v>8515767.0</v>
       </c>
       <c r="D32" t="s" s="9">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="9">
-        <v>120</v>
-      </c>
-      <c r="C33" t="s" s="10">
-        <v>121</v>
+        <v>90</v>
+      </c>
+      <c r="C33" t="n" s="10">
+        <v>60.0</v>
       </c>
       <c r="D33" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="9">
-        <v>123</v>
-      </c>
-      <c r="C34" t="s" s="10">
-        <v>124</v>
+        <v>92</v>
+      </c>
+      <c r="C34" t="n" s="10">
+        <v>151.0</v>
       </c>
       <c r="D34" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="9">
-        <v>126</v>
-      </c>
-      <c r="C35" t="s" s="10">
-        <v>127</v>
+        <v>94</v>
+      </c>
+      <c r="C35" t="n" s="10">
+        <v>5765.0</v>
       </c>
       <c r="D35" t="s" s="9">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s" s="9">
-        <v>130</v>
-      </c>
-      <c r="C36" t="s" s="10">
-        <v>131</v>
+        <v>97</v>
+      </c>
+      <c r="C36" t="n" s="10">
+        <v>110879.0</v>
       </c>
       <c r="D36" t="s" s="9">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="9">
-        <v>134</v>
-      </c>
-      <c r="C37" t="s" s="10">
-        <v>135</v>
+        <v>100</v>
+      </c>
+      <c r="C37" t="n" s="10">
+        <v>272967.0</v>
       </c>
       <c r="D37" t="s" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="9">
-        <v>137</v>
-      </c>
-      <c r="C38" t="s" s="10">
-        <v>138</v>
+        <v>102</v>
+      </c>
+      <c r="C38" t="n" s="10">
+        <v>27834.0</v>
       </c>
       <c r="D38" t="s" s="9">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s" s="9">
-        <v>141</v>
-      </c>
-      <c r="C39" t="s" s="10">
-        <v>142</v>
+        <v>105</v>
+      </c>
+      <c r="C39" t="n" s="10">
+        <v>181035.0</v>
       </c>
       <c r="D39" t="s" s="9">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s" s="9">
-        <v>145</v>
-      </c>
-      <c r="C40" t="s" s="10">
-        <v>146</v>
+        <v>108</v>
+      </c>
+      <c r="C40" t="n" s="10">
+        <v>475442.0</v>
       </c>
       <c r="D40" t="s" s="9">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s" s="9">
-        <v>149</v>
-      </c>
-      <c r="C41" t="s" s="10">
-        <v>150</v>
+        <v>111</v>
+      </c>
+      <c r="C41" t="n" s="10">
+        <v>9984670.0</v>
       </c>
       <c r="D41" t="s" s="9">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s" s="9">
-        <v>153</v>
-      </c>
-      <c r="C42" t="s" s="10">
-        <v>154</v>
+        <v>114</v>
+      </c>
+      <c r="C42" t="n" s="10">
+        <v>4033.0</v>
       </c>
       <c r="D42" t="s" s="9">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="9">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s" s="9">
-        <v>157</v>
-      </c>
-      <c r="C43" t="s" s="10">
-        <v>158</v>
+        <v>117</v>
+      </c>
+      <c r="C43" t="n" s="10">
+        <v>328.0</v>
       </c>
       <c r="D43" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s" s="9">
-        <v>160</v>
-      </c>
-      <c r="C44" t="s" s="10">
-        <v>161</v>
+        <v>119</v>
+      </c>
+      <c r="C44" t="n" s="10">
+        <v>264.0</v>
       </c>
       <c r="D44" t="s" s="9">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s" s="9">
-        <v>164</v>
-      </c>
-      <c r="C45" t="s" s="10">
-        <v>165</v>
+        <v>122</v>
+      </c>
+      <c r="C45" t="n" s="10">
+        <v>622984.0</v>
       </c>
       <c r="D45" t="s" s="9">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s" s="9">
-        <v>167</v>
-      </c>
-      <c r="C46" t="s" s="10">
-        <v>168</v>
+        <v>124</v>
+      </c>
+      <c r="C46" t="n" s="10">
+        <v>1284000.0</v>
       </c>
       <c r="D46" t="s" s="9">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="9">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s" s="9">
-        <v>170</v>
-      </c>
-      <c r="C47" t="s" s="10">
-        <v>171</v>
+        <v>126</v>
+      </c>
+      <c r="C47" t="n" s="10">
+        <v>756102.0</v>
       </c>
       <c r="D47" t="s" s="9">
-        <v>172</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="9">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s" s="9">
-        <v>174</v>
-      </c>
-      <c r="C48" t="s" s="10">
-        <v>175</v>
+        <v>129</v>
+      </c>
+      <c r="C48" t="n" s="10">
+        <v>9706961.0</v>
       </c>
       <c r="D48" t="s" s="9">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s" s="9">
-        <v>178</v>
-      </c>
-      <c r="C49" t="s" s="10">
-        <v>179</v>
+        <v>132</v>
+      </c>
+      <c r="C49" t="n" s="10">
+        <v>135.0</v>
       </c>
       <c r="D49" t="s" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="9">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s" s="9">
-        <v>181</v>
-      </c>
-      <c r="C50" t="s" s="10">
-        <v>182</v>
+        <v>134</v>
+      </c>
+      <c r="C50" t="n" s="10">
+        <v>14.0</v>
       </c>
       <c r="D50" t="s" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="9">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s" s="9">
-        <v>184</v>
-      </c>
-      <c r="C51" t="s" s="10">
-        <v>185</v>
+        <v>136</v>
+      </c>
+      <c r="C51" t="n" s="10">
+        <v>1141748.0</v>
       </c>
       <c r="D51" t="s" s="9">
-        <v>186</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="9">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s" s="9">
-        <v>188</v>
-      </c>
-      <c r="C52" t="s" s="10">
-        <v>189</v>
+        <v>139</v>
+      </c>
+      <c r="C52" t="n" s="10">
+        <v>1862.0</v>
       </c>
       <c r="D52" t="s" s="9">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="9">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s" s="9">
-        <v>192</v>
-      </c>
-      <c r="C53" t="s" s="10">
-        <v>193</v>
+        <v>142</v>
+      </c>
+      <c r="C53" t="n" s="10">
+        <v>236.0</v>
       </c>
       <c r="D53" t="s" s="9">
-        <v>194</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="9">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s" s="9">
-        <v>196</v>
-      </c>
-      <c r="C54" t="s" s="10">
-        <v>197</v>
+        <v>145</v>
+      </c>
+      <c r="C54" t="n" s="10">
+        <v>51100.0</v>
       </c>
       <c r="D54" t="s" s="9">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="9">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="C55" t="s" s="10">
-        <v>201</v>
+        <v>148</v>
+      </c>
+      <c r="C55" t="n" s="10">
+        <v>56594.0</v>
       </c>
       <c r="D55" t="s" s="9">
-        <v>202</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="9">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s" s="9">
-        <v>204</v>
-      </c>
-      <c r="C56" t="s" s="10">
-        <v>205</v>
+        <v>151</v>
+      </c>
+      <c r="C56" t="n" s="10">
+        <v>109884.0</v>
       </c>
       <c r="D56" t="s" s="9">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="9">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s" s="9">
-        <v>208</v>
-      </c>
-      <c r="C57" t="s" s="10">
-        <v>209</v>
+        <v>154</v>
+      </c>
+      <c r="C57" t="n" s="10">
+        <v>444.0</v>
       </c>
       <c r="D57" t="s" s="9">
-        <v>210</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="9">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s" s="9">
-        <v>212</v>
-      </c>
-      <c r="C58" t="s" s="10">
-        <v>213</v>
+        <v>157</v>
+      </c>
+      <c r="C58" t="n" s="10">
+        <v>9251.0</v>
       </c>
       <c r="D58" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="9">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s" s="9">
-        <v>215</v>
-      </c>
-      <c r="C59" t="s" s="10">
-        <v>216</v>
+        <v>159</v>
+      </c>
+      <c r="C59" t="n" s="10">
+        <v>78865.0</v>
       </c>
       <c r="D59" t="s" s="9">
-        <v>217</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="9">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s" s="9">
-        <v>219</v>
-      </c>
-      <c r="C60" t="s" s="10">
-        <v>220</v>
+        <v>162</v>
+      </c>
+      <c r="C60" t="n" s="10">
+        <v>2344858.0</v>
       </c>
       <c r="D60" t="s" s="9">
-        <v>221</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="9">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s" s="9">
-        <v>223</v>
-      </c>
-      <c r="C61" t="s" s="10">
-        <v>224</v>
+        <v>165</v>
+      </c>
+      <c r="C61" t="n" s="10">
+        <v>43094.0</v>
       </c>
       <c r="D61" t="s" s="9">
-        <v>225</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="9">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s" s="9">
-        <v>226</v>
-      </c>
-      <c r="C62" t="s" s="10">
-        <v>227</v>
+        <v>167</v>
+      </c>
+      <c r="C62" t="n" s="10">
+        <v>23200.0</v>
       </c>
       <c r="D62" t="s" s="9">
-        <v>228</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="9">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s" s="9">
-        <v>230</v>
-      </c>
-      <c r="C63" t="s" s="10">
-        <v>231</v>
+        <v>170</v>
+      </c>
+      <c r="C63" t="n" s="10">
+        <v>751.0</v>
       </c>
       <c r="D63" t="s" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="9">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="9">
-        <v>233</v>
-      </c>
-      <c r="C64" t="s" s="10">
-        <v>234</v>
+        <v>172</v>
+      </c>
+      <c r="C64" t="n" s="10">
+        <v>48671.0</v>
       </c>
       <c r="D64" t="s" s="9">
-        <v>235</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="9">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s" s="9">
-        <v>237</v>
-      </c>
-      <c r="C65" t="s" s="10">
-        <v>238</v>
+        <v>175</v>
+      </c>
+      <c r="C65" t="n" s="10">
+        <v>276841.0</v>
       </c>
       <c r="D65" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="9">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s" s="9">
-        <v>240</v>
-      </c>
-      <c r="C66" t="s" s="10">
-        <v>241</v>
+        <v>177</v>
+      </c>
+      <c r="C66" t="n" s="10">
+        <v>1002450.0</v>
       </c>
       <c r="D66" t="s" s="9">
-        <v>242</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="9">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s" s="9">
-        <v>244</v>
-      </c>
-      <c r="C67" t="s" s="10">
-        <v>245</v>
+        <v>180</v>
+      </c>
+      <c r="C67" t="n" s="10">
+        <v>21041.0</v>
       </c>
       <c r="D67" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="9">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s" s="9">
-        <v>247</v>
-      </c>
-      <c r="C68" t="s" s="10">
-        <v>248</v>
+        <v>182</v>
+      </c>
+      <c r="C68" t="n" s="10">
+        <v>28051.0</v>
       </c>
       <c r="D68" t="s" s="9">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="9">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s" s="9">
-        <v>250</v>
-      </c>
-      <c r="C69" t="s" s="10">
-        <v>251</v>
+        <v>184</v>
+      </c>
+      <c r="C69" t="n" s="10">
+        <v>117600.0</v>
       </c>
       <c r="D69" t="s" s="9">
-        <v>252</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="9">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s" s="9">
-        <v>254</v>
-      </c>
-      <c r="C70" t="s" s="10">
-        <v>255</v>
+        <v>187</v>
+      </c>
+      <c r="C70" t="n" s="10">
+        <v>45227.0</v>
       </c>
       <c r="D70" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="9">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s" s="9">
-        <v>257</v>
-      </c>
-      <c r="C71" t="s" s="10">
-        <v>258</v>
+        <v>189</v>
+      </c>
+      <c r="C71" t="n" s="10">
+        <v>17364.0</v>
       </c>
       <c r="D71" t="s" s="9">
-        <v>259</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="9">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s" s="9">
-        <v>261</v>
-      </c>
-      <c r="C72" t="s" s="10">
-        <v>262</v>
+        <v>192</v>
+      </c>
+      <c r="C72" t="n" s="10">
+        <v>1104300.0</v>
       </c>
       <c r="D72" t="s" s="9">
-        <v>263</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="9">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s" s="9">
-        <v>265</v>
-      </c>
-      <c r="C73" t="s" s="10">
-        <v>266</v>
+        <v>195</v>
+      </c>
+      <c r="C73" t="n" s="10">
+        <v>12173.0</v>
       </c>
       <c r="D73" t="s" s="9">
-        <v>267</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="9">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s" s="9">
-        <v>269</v>
-      </c>
-      <c r="C74" t="s" s="10">
-        <v>270</v>
+        <v>198</v>
+      </c>
+      <c r="C74" t="n" s="10">
+        <v>1393.0</v>
       </c>
       <c r="D74" t="s" s="9">
-        <v>271</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="9">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="B75" t="s" s="9">
-        <v>273</v>
-      </c>
-      <c r="C75" t="s" s="10">
-        <v>274</v>
+        <v>201</v>
+      </c>
+      <c r="C75" t="n" s="10">
+        <v>18272.0</v>
       </c>
       <c r="D75" t="s" s="9">
-        <v>275</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="9">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s" s="9">
-        <v>277</v>
-      </c>
-      <c r="C76" t="s" s="10">
-        <v>278</v>
+        <v>204</v>
+      </c>
+      <c r="C76" t="n" s="10">
+        <v>338424.0</v>
       </c>
       <c r="D76" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="9">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s" s="9">
-        <v>280</v>
-      </c>
-      <c r="C77" t="s" s="10">
-        <v>281</v>
+        <v>206</v>
+      </c>
+      <c r="C77" t="n" s="10">
+        <v>551695.0</v>
       </c>
       <c r="D77" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="9">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s" s="9">
-        <v>283</v>
-      </c>
-      <c r="C78" t="s" s="10">
-        <v>284</v>
+        <v>208</v>
+      </c>
+      <c r="C78" t="n" s="10">
+        <v>83534.0</v>
       </c>
       <c r="D78" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="9">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s" s="9">
-        <v>286</v>
-      </c>
-      <c r="C79" t="s" s="10">
-        <v>287</v>
+        <v>210</v>
+      </c>
+      <c r="C79" t="n" s="10">
+        <v>4167.0</v>
       </c>
       <c r="D79" t="s" s="9">
-        <v>288</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="9">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s" s="9">
-        <v>290</v>
-      </c>
-      <c r="C80" t="s" s="10">
-        <v>291</v>
+        <v>213</v>
+      </c>
+      <c r="C80" t="n" s="10">
+        <v>7747.0</v>
       </c>
       <c r="D80" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="9">
-        <v>292</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s" s="9">
-        <v>293</v>
-      </c>
-      <c r="C81" t="s" s="10">
-        <v>294</v>
+        <v>215</v>
+      </c>
+      <c r="C81" t="n" s="10">
+        <v>267668.0</v>
       </c>
       <c r="D81" t="s" s="9">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="9">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s" s="9">
-        <v>296</v>
-      </c>
-      <c r="C82" t="s" s="10">
-        <v>297</v>
+        <v>217</v>
+      </c>
+      <c r="C82" t="n" s="10">
+        <v>10689.0</v>
       </c>
       <c r="D82" t="s" s="9">
-        <v>298</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="9">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s" s="9">
-        <v>300</v>
-      </c>
-      <c r="C83" t="s" s="10">
-        <v>301</v>
+        <v>220</v>
+      </c>
+      <c r="C83" t="n" s="10">
+        <v>69700.0</v>
       </c>
       <c r="D83" t="s" s="9">
-        <v>302</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="9">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s" s="9">
-        <v>304</v>
-      </c>
-      <c r="C84" t="s" s="10">
-        <v>305</v>
+        <v>223</v>
+      </c>
+      <c r="C84" t="n" s="10">
+        <v>357114.0</v>
       </c>
       <c r="D84" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="9">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s" s="9">
-        <v>307</v>
-      </c>
-      <c r="C85" t="s" s="10">
-        <v>308</v>
+        <v>225</v>
+      </c>
+      <c r="C85" t="n" s="10">
+        <v>238533.0</v>
       </c>
       <c r="D85" t="s" s="9">
-        <v>309</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="9">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="B86" t="s" s="9">
-        <v>310</v>
-      </c>
-      <c r="C86" t="s" s="10">
-        <v>311</v>
+        <v>227</v>
+      </c>
+      <c r="C86" t="n" s="10">
+        <v>6.0</v>
       </c>
       <c r="D86" t="s" s="9">
-        <v>312</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="9">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="B87" t="s" s="9">
-        <v>314</v>
-      </c>
-      <c r="C87" t="s" s="10">
-        <v>315</v>
+        <v>230</v>
+      </c>
+      <c r="C87" t="n" s="10">
+        <v>131990.0</v>
       </c>
       <c r="D87" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="9">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s" s="9">
-        <v>317</v>
-      </c>
-      <c r="C88" t="s" s="10">
-        <v>318</v>
+        <v>232</v>
+      </c>
+      <c r="C88" t="n" s="10">
+        <v>2166086.0</v>
       </c>
       <c r="D88" t="s" s="9">
-        <v>225</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="9">
-        <v>319</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s" s="9">
-        <v>320</v>
-      </c>
-      <c r="C89" t="s" s="10">
-        <v>321</v>
+        <v>234</v>
+      </c>
+      <c r="C89" t="n" s="10">
+        <v>344.0</v>
       </c>
       <c r="D89" t="s" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="9">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s" s="9">
-        <v>323</v>
-      </c>
-      <c r="C90" t="s" s="10">
-        <v>324</v>
+        <v>236</v>
+      </c>
+      <c r="C90" t="n" s="10">
+        <v>1628.0</v>
       </c>
       <c r="D90" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="9">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="B91" t="s" s="9">
-        <v>326</v>
-      </c>
-      <c r="C91" t="s" s="10">
-        <v>327</v>
+        <v>238</v>
+      </c>
+      <c r="C91" t="n" s="10">
+        <v>549.0</v>
       </c>
       <c r="D91" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="9">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="B92" t="s" s="9">
-        <v>329</v>
-      </c>
-      <c r="C92" t="s" s="10">
-        <v>330</v>
+        <v>240</v>
+      </c>
+      <c r="C92" t="n" s="10">
+        <v>108889.0</v>
       </c>
       <c r="D92" t="s" s="9">
-        <v>331</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="9">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="B93" t="s" s="9">
-        <v>333</v>
-      </c>
-      <c r="C93" t="s" s="10">
-        <v>334</v>
+        <v>243</v>
+      </c>
+      <c r="C93" t="n" s="10">
+        <v>78.0</v>
       </c>
       <c r="D93" t="s" s="9">
-        <v>335</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="9">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="B94" t="s" s="9">
-        <v>337</v>
-      </c>
-      <c r="C94" t="s" s="10">
-        <v>338</v>
+        <v>246</v>
+      </c>
+      <c r="C94" t="n" s="10">
+        <v>245857.0</v>
       </c>
       <c r="D94" t="s" s="9">
-        <v>339</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="9">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="B95" t="s" s="9">
-        <v>341</v>
-      </c>
-      <c r="C95" t="s" s="10">
-        <v>342</v>
+        <v>249</v>
+      </c>
+      <c r="C95" t="n" s="10">
+        <v>36125.0</v>
       </c>
       <c r="D95" t="s" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="9">
-        <v>343</v>
+        <v>250</v>
       </c>
       <c r="B96" t="s" s="9">
-        <v>344</v>
-      </c>
-      <c r="C96" t="s" s="10">
-        <v>345</v>
+        <v>251</v>
+      </c>
+      <c r="C96" t="n" s="10">
+        <v>214969.0</v>
       </c>
       <c r="D96" t="s" s="9">
-        <v>346</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="9">
-        <v>347</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s" s="9">
-        <v>348</v>
-      </c>
-      <c r="C97" t="s" s="10">
-        <v>349</v>
+        <v>254</v>
+      </c>
+      <c r="C97" t="n" s="10">
+        <v>27750.0</v>
       </c>
       <c r="D97" t="s" s="9">
-        <v>350</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="9">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="B98" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C98" t="s" s="10">
-        <v>352</v>
+        <v>27</v>
+      </c>
+      <c r="C98" t="n" s="10">
+        <v>412.0</v>
       </c>
       <c r="D98" t="s" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="9">
-        <v>353</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s" s="9">
-        <v>354</v>
-      </c>
-      <c r="C99" t="s" s="10">
-        <v>355</v>
+        <v>258</v>
+      </c>
+      <c r="C99" t="n" s="10">
+        <v>112492.0</v>
       </c>
       <c r="D99" t="s" s="9">
-        <v>356</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="9">
-        <v>357</v>
+        <v>260</v>
       </c>
       <c r="B100" t="s" s="9">
-        <v>358</v>
-      </c>
-      <c r="C100" t="s" s="10">
-        <v>359</v>
+        <v>261</v>
+      </c>
+      <c r="C100" t="n" s="10">
+        <v>1104.0</v>
       </c>
       <c r="D100" t="s" s="9">
-        <v>360</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="9">
-        <v>361</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s" s="9">
-        <v>362</v>
-      </c>
-      <c r="C101" t="s" s="10">
-        <v>363</v>
+        <v>264</v>
+      </c>
+      <c r="C101" t="n" s="10">
+        <v>93028.0</v>
       </c>
       <c r="D101" t="s" s="9">
-        <v>364</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="9">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="B102" t="s" s="9">
-        <v>366</v>
-      </c>
-      <c r="C102" t="s" s="10">
-        <v>367</v>
+        <v>267</v>
+      </c>
+      <c r="C102" t="n" s="10">
+        <v>103000.0</v>
       </c>
       <c r="D102" t="s" s="9">
-        <v>368</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="9">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="B103" t="s" s="9">
-        <v>370</v>
-      </c>
-      <c r="C103" t="s" s="10">
-        <v>371</v>
+        <v>270</v>
+      </c>
+      <c r="C103" t="n" s="10">
+        <v>3287590.0</v>
       </c>
       <c r="D103" t="s" s="9">
-        <v>372</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="9">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="B104" t="s" s="9">
-        <v>374</v>
-      </c>
-      <c r="C104" t="s" s="10">
-        <v>375</v>
+        <v>273</v>
+      </c>
+      <c r="C104" t="n" s="10">
+        <v>1904569.0</v>
       </c>
       <c r="D104" t="s" s="9">
-        <v>376</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="9">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="B105" t="s" s="9">
-        <v>378</v>
-      </c>
-      <c r="C105" t="s" s="10">
-        <v>379</v>
+        <v>276</v>
+      </c>
+      <c r="C105" t="n" s="10">
+        <v>1648195.0</v>
       </c>
       <c r="D105" t="s" s="9">
-        <v>380</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="9">
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s" s="9">
-        <v>382</v>
-      </c>
-      <c r="C106" t="s" s="10">
-        <v>383</v>
+        <v>279</v>
+      </c>
+      <c r="C106" t="n" s="10">
+        <v>438317.0</v>
       </c>
       <c r="D106" t="s" s="9">
-        <v>384</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="9">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s" s="9">
-        <v>386</v>
-      </c>
-      <c r="C107" t="s" s="10">
-        <v>387</v>
+        <v>282</v>
+      </c>
+      <c r="C107" t="n" s="10">
+        <v>70273.0</v>
       </c>
       <c r="D107" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="9">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="B108" t="s" s="9">
-        <v>389</v>
-      </c>
-      <c r="C108" t="s" s="10">
-        <v>390</v>
+        <v>284</v>
+      </c>
+      <c r="C108" t="n" s="10">
+        <v>572.0</v>
       </c>
       <c r="D108" t="s" s="9">
-        <v>391</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="9">
-        <v>392</v>
+        <v>286</v>
       </c>
       <c r="B109" t="s" s="9">
-        <v>393</v>
-      </c>
-      <c r="C109" t="s" s="10">
-        <v>394</v>
+        <v>287</v>
+      </c>
+      <c r="C109" t="n" s="10">
+        <v>20770.0</v>
       </c>
       <c r="D109" t="s" s="9">
-        <v>395</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="9">
-        <v>396</v>
+        <v>289</v>
       </c>
       <c r="B110" t="s" s="9">
-        <v>397</v>
-      </c>
-      <c r="C110" t="s" s="10">
-        <v>398</v>
+        <v>290</v>
+      </c>
+      <c r="C110" t="n" s="10">
+        <v>301336.0</v>
       </c>
       <c r="D110" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="9">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="B111" t="s" s="9">
-        <v>400</v>
-      </c>
-      <c r="C111" t="s" s="10">
-        <v>401</v>
+        <v>292</v>
+      </c>
+      <c r="C111" t="n" s="10">
+        <v>322463.0</v>
       </c>
       <c r="D111" t="s" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="9">
-        <v>402</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s" s="9">
-        <v>403</v>
-      </c>
-      <c r="C112" t="s" s="10">
-        <v>404</v>
+        <v>294</v>
+      </c>
+      <c r="C112" t="n" s="10">
+        <v>10991.0</v>
       </c>
       <c r="D112" t="s" s="9">
-        <v>405</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="9">
-        <v>406</v>
+        <v>296</v>
       </c>
       <c r="B113" t="s" s="9">
-        <v>407</v>
-      </c>
-      <c r="C113" t="s" s="10">
-        <v>408</v>
+        <v>297</v>
+      </c>
+      <c r="C113" t="n" s="10">
+        <v>377930.0</v>
       </c>
       <c r="D113" t="s" s="9">
-        <v>409</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="9">
-        <v>410</v>
+        <v>299</v>
       </c>
       <c r="B114" t="s" s="9">
-        <v>411</v>
-      </c>
-      <c r="C114" t="s" s="10">
-        <v>412</v>
+        <v>300</v>
+      </c>
+      <c r="C114" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="D114" t="s" s="9">
-        <v>413</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="9">
-        <v>414</v>
+        <v>302</v>
       </c>
       <c r="B115" t="s" s="9">
-        <v>415</v>
-      </c>
-      <c r="C115" t="s" s="10">
-        <v>416</v>
+        <v>303</v>
+      </c>
+      <c r="C115" t="n" s="10">
+        <v>89342.0</v>
       </c>
       <c r="D115" t="s" s="9">
-        <v>417</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="9">
-        <v>418</v>
+        <v>305</v>
       </c>
       <c r="B116" t="s" s="9">
-        <v>419</v>
-      </c>
-      <c r="C116" t="s" s="10">
-        <v>420</v>
+        <v>306</v>
+      </c>
+      <c r="C116" t="n" s="10">
+        <v>2724900.0</v>
       </c>
       <c r="D116" t="s" s="9">
-        <v>421</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="9">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="B117" t="s" s="9">
-        <v>423</v>
-      </c>
-      <c r="C117" t="s" s="10">
-        <v>424</v>
+        <v>309</v>
+      </c>
+      <c r="C117" t="n" s="10">
+        <v>580367.0</v>
       </c>
       <c r="D117" t="s" s="9">
-        <v>425</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="9">
-        <v>426</v>
+        <v>311</v>
       </c>
       <c r="B118" t="s" s="9">
-        <v>427</v>
-      </c>
-      <c r="C118" t="s" s="10">
-        <v>428</v>
+        <v>312</v>
+      </c>
+      <c r="C118" t="n" s="10">
+        <v>811.0</v>
       </c>
       <c r="D118" t="s" s="9">
-        <v>429</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="9">
-        <v>430</v>
+        <v>314</v>
       </c>
       <c r="B119" t="s" s="9">
-        <v>431</v>
-      </c>
-      <c r="C119" t="s" s="10">
-        <v>432</v>
+        <v>315</v>
+      </c>
+      <c r="C119" t="n" s="10">
+        <v>10908.0</v>
       </c>
       <c r="D119" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="9">
-        <v>433</v>
+        <v>316</v>
       </c>
       <c r="B120" t="s" s="9">
-        <v>434</v>
-      </c>
-      <c r="C120" t="s" s="10">
-        <v>435</v>
+        <v>317</v>
+      </c>
+      <c r="C120" t="n" s="10">
+        <v>17818.0</v>
       </c>
       <c r="D120" t="s" s="9">
-        <v>436</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="9">
-        <v>437</v>
+        <v>319</v>
       </c>
       <c r="B121" t="s" s="9">
-        <v>438</v>
-      </c>
-      <c r="C121" t="s" s="10">
-        <v>439</v>
+        <v>320</v>
+      </c>
+      <c r="C121" t="n" s="10">
+        <v>199951.0</v>
       </c>
       <c r="D121" t="s" s="9">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="9">
-        <v>441</v>
+        <v>322</v>
       </c>
       <c r="B122" t="s" s="9">
-        <v>442</v>
-      </c>
-      <c r="C122" t="s" s="10">
-        <v>443</v>
+        <v>323</v>
+      </c>
+      <c r="C122" t="n" s="10">
+        <v>236800.0</v>
       </c>
       <c r="D122" t="s" s="9">
-        <v>444</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="9">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="B123" t="s" s="9">
-        <v>446</v>
-      </c>
-      <c r="C123" t="s" s="10">
-        <v>447</v>
+        <v>326</v>
+      </c>
+      <c r="C123" t="n" s="10">
+        <v>64559.0</v>
       </c>
       <c r="D123" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="9">
-        <v>448</v>
+        <v>327</v>
       </c>
       <c r="B124" t="s" s="9">
-        <v>449</v>
-      </c>
-      <c r="C124" t="s" s="10">
-        <v>450</v>
+        <v>328</v>
+      </c>
+      <c r="C124" t="n" s="10">
+        <v>10452.0</v>
       </c>
       <c r="D124" t="s" s="9">
-        <v>451</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="9">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="B125" t="s" s="9">
-        <v>453</v>
-      </c>
-      <c r="C125" t="s" s="10">
-        <v>454</v>
+        <v>331</v>
+      </c>
+      <c r="C125" t="n" s="10">
+        <v>30355.0</v>
       </c>
       <c r="D125" t="s" s="9">
-        <v>455</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="9">
-        <v>456</v>
+        <v>333</v>
       </c>
       <c r="B126" t="s" s="9">
-        <v>457</v>
-      </c>
-      <c r="C126" t="s" s="10">
-        <v>458</v>
+        <v>334</v>
+      </c>
+      <c r="C126" t="n" s="10">
+        <v>111369.0</v>
       </c>
       <c r="D126" t="s" s="9">
-        <v>459</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="9">
-        <v>460</v>
+        <v>336</v>
       </c>
       <c r="B127" t="s" s="9">
-        <v>461</v>
-      </c>
-      <c r="C127" t="s" s="10">
-        <v>462</v>
+        <v>337</v>
+      </c>
+      <c r="C127" t="n" s="10">
+        <v>1759540.0</v>
       </c>
       <c r="D127" t="s" s="9">
-        <v>463</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="9">
-        <v>464</v>
+        <v>339</v>
       </c>
       <c r="B128" t="s" s="9">
-        <v>465</v>
-      </c>
-      <c r="C128" t="s" s="10">
-        <v>466</v>
+        <v>340</v>
+      </c>
+      <c r="C128" t="n" s="10">
+        <v>160.0</v>
       </c>
       <c r="D128" t="s" s="9">
-        <v>467</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="9">
-        <v>468</v>
+        <v>342</v>
       </c>
       <c r="B129" t="s" s="9">
-        <v>469</v>
-      </c>
-      <c r="C129" t="s" s="10">
-        <v>470</v>
+        <v>343</v>
+      </c>
+      <c r="C129" t="n" s="10">
+        <v>65300.0</v>
       </c>
       <c r="D129" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="9">
-        <v>471</v>
+        <v>344</v>
       </c>
       <c r="B130" t="s" s="9">
-        <v>471</v>
-      </c>
-      <c r="C130" t="s" s="10">
-        <v>472</v>
+        <v>344</v>
+      </c>
+      <c r="C130" t="n" s="10">
+        <v>2586.0</v>
       </c>
       <c r="D130" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="9">
-        <v>473</v>
+        <v>345</v>
       </c>
       <c r="B131" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C131" t="s" s="10">
-        <v>474</v>
+        <v>27</v>
+      </c>
+      <c r="C131" t="n" s="10">
+        <v>30.0</v>
       </c>
       <c r="D131" t="s" s="9">
-        <v>475</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="9">
-        <v>476</v>
+        <v>347</v>
       </c>
       <c r="B132" t="s" s="9">
-        <v>477</v>
-      </c>
-      <c r="C132" t="s" s="10">
-        <v>478</v>
+        <v>348</v>
+      </c>
+      <c r="C132" t="n" s="10">
+        <v>587041.0</v>
       </c>
       <c r="D132" t="s" s="9">
-        <v>479</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="9">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="B133" t="s" s="9">
-        <v>481</v>
-      </c>
-      <c r="C133" t="s" s="10">
-        <v>482</v>
+        <v>351</v>
+      </c>
+      <c r="C133" t="n" s="10">
+        <v>118484.0</v>
       </c>
       <c r="D133" t="s" s="9">
-        <v>483</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="9">
-        <v>484</v>
+        <v>353</v>
       </c>
       <c r="B134" t="s" s="9">
-        <v>485</v>
-      </c>
-      <c r="C134" t="s" s="10">
-        <v>486</v>
+        <v>354</v>
+      </c>
+      <c r="C134" t="n" s="10">
+        <v>330803.0</v>
       </c>
       <c r="D134" t="s" s="9">
-        <v>487</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="9">
-        <v>488</v>
+        <v>356</v>
       </c>
       <c r="B135" t="s" s="9">
-        <v>489</v>
-      </c>
-      <c r="C135" t="s" s="10">
-        <v>490</v>
+        <v>357</v>
+      </c>
+      <c r="C135" t="n" s="10">
+        <v>300.0</v>
       </c>
       <c r="D135" t="s" s="9">
-        <v>491</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="9">
-        <v>492</v>
+        <v>359</v>
       </c>
       <c r="B136" t="s" s="9">
-        <v>493</v>
-      </c>
-      <c r="C136" t="s" s="10">
-        <v>494</v>
+        <v>360</v>
+      </c>
+      <c r="C136" t="n" s="10">
+        <v>1240192.0</v>
       </c>
       <c r="D136" t="s" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="9">
-        <v>495</v>
+        <v>361</v>
       </c>
       <c r="B137" t="s" s="9">
-        <v>496</v>
-      </c>
-      <c r="C137" t="s" s="10">
-        <v>497</v>
+        <v>362</v>
+      </c>
+      <c r="C137" t="n" s="10">
+        <v>316.0</v>
       </c>
       <c r="D137" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="9">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="B138" t="s" s="9">
-        <v>499</v>
-      </c>
-      <c r="C138" t="s" s="10">
-        <v>500</v>
+        <v>364</v>
+      </c>
+      <c r="C138" t="n" s="10">
+        <v>181.0</v>
       </c>
       <c r="D138" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="9">
-        <v>501</v>
+        <v>365</v>
       </c>
       <c r="B139" t="s" s="9">
-        <v>502</v>
-      </c>
-      <c r="C139" t="s" s="10">
-        <v>503</v>
+        <v>366</v>
+      </c>
+      <c r="C139" t="n" s="10">
+        <v>1128.0</v>
       </c>
       <c r="D139" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="9">
-        <v>504</v>
+        <v>367</v>
       </c>
       <c r="B140" t="s" s="9">
-        <v>505</v>
-      </c>
-      <c r="C140" t="s" s="10">
-        <v>506</v>
+        <v>368</v>
+      </c>
+      <c r="C140" t="n" s="10">
+        <v>1030700.0</v>
       </c>
       <c r="D140" t="s" s="9">
-        <v>507</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="9">
-        <v>508</v>
+        <v>370</v>
       </c>
       <c r="B141" t="s" s="9">
-        <v>509</v>
-      </c>
-      <c r="C141" t="s" s="10">
-        <v>510</v>
+        <v>371</v>
+      </c>
+      <c r="C141" t="n" s="10">
+        <v>2040.0</v>
       </c>
       <c r="D141" t="s" s="9">
-        <v>511</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="9">
-        <v>512</v>
+        <v>373</v>
       </c>
       <c r="B142" t="s" s="9">
-        <v>513</v>
-      </c>
-      <c r="C142" t="s" s="10">
-        <v>514</v>
+        <v>374</v>
+      </c>
+      <c r="C142" t="n" s="10">
+        <v>374.0</v>
       </c>
       <c r="D142" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="9">
-        <v>515</v>
+        <v>375</v>
       </c>
       <c r="B143" t="s" s="9">
-        <v>516</v>
-      </c>
-      <c r="C143" t="s" s="10">
-        <v>517</v>
+        <v>376</v>
+      </c>
+      <c r="C143" t="n" s="10">
+        <v>1964375.0</v>
       </c>
       <c r="D143" t="s" s="9">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="9">
-        <v>519</v>
+        <v>378</v>
       </c>
       <c r="B144" t="s" s="9">
-        <v>520</v>
-      </c>
-      <c r="C144" t="s" s="10">
-        <v>521</v>
+        <v>379</v>
+      </c>
+      <c r="C144" t="n" s="10">
+        <v>702.0</v>
       </c>
       <c r="D144" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="9">
-        <v>522</v>
+        <v>380</v>
       </c>
       <c r="B145" t="s" s="9">
-        <v>523</v>
-      </c>
-      <c r="C145" t="s" s="10">
-        <v>524</v>
+        <v>381</v>
+      </c>
+      <c r="C145" t="n" s="10">
+        <v>33846.0</v>
       </c>
       <c r="D145" t="s" s="9">
-        <v>525</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="9">
-        <v>526</v>
+        <v>383</v>
       </c>
       <c r="B146" t="s" s="9">
-        <v>526</v>
-      </c>
-      <c r="C146" t="s" s="10">
-        <v>527</v>
+        <v>383</v>
+      </c>
+      <c r="C146" t="n" s="10">
+        <v>2.02</v>
       </c>
       <c r="D146" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="9">
-        <v>528</v>
+        <v>384</v>
       </c>
       <c r="B147" t="s" s="9">
-        <v>529</v>
-      </c>
-      <c r="C147" t="s" s="10">
-        <v>530</v>
+        <v>385</v>
+      </c>
+      <c r="C147" t="n" s="10">
+        <v>1564110.0</v>
       </c>
       <c r="D147" t="s" s="9">
-        <v>531</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="9">
-        <v>532</v>
+        <v>387</v>
       </c>
       <c r="B148" t="s" s="9">
-        <v>533</v>
-      </c>
-      <c r="C148" t="s" s="10">
-        <v>534</v>
+        <v>388</v>
+      </c>
+      <c r="C148" t="n" s="10">
+        <v>13812.0</v>
       </c>
       <c r="D148" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="9">
-        <v>535</v>
+        <v>389</v>
       </c>
       <c r="B149" t="s" s="9">
-        <v>536</v>
-      </c>
-      <c r="C149" t="s" s="10">
-        <v>537</v>
+        <v>390</v>
+      </c>
+      <c r="C149" t="n" s="10">
+        <v>102.0</v>
       </c>
       <c r="D149" t="s" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="9">
-        <v>538</v>
+        <v>391</v>
       </c>
       <c r="B150" t="s" s="9">
-        <v>539</v>
-      </c>
-      <c r="C150" t="s" s="10">
-        <v>540</v>
+        <v>392</v>
+      </c>
+      <c r="C150" t="n" s="10">
+        <v>446550.0</v>
       </c>
       <c r="D150" t="s" s="9">
-        <v>541</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="9">
-        <v>542</v>
+        <v>394</v>
       </c>
       <c r="B151" t="s" s="9">
-        <v>543</v>
-      </c>
-      <c r="C151" t="s" s="10">
-        <v>544</v>
+        <v>395</v>
+      </c>
+      <c r="C151" t="n" s="10">
+        <v>801590.0</v>
       </c>
       <c r="D151" t="s" s="9">
-        <v>545</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="9">
-        <v>546</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s" s="9">
-        <v>547</v>
-      </c>
-      <c r="C152" t="s" s="10">
-        <v>548</v>
+        <v>398</v>
+      </c>
+      <c r="C152" t="n" s="10">
+        <v>676578.0</v>
       </c>
       <c r="D152" t="s" s="9">
-        <v>549</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="9">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="B153" t="s" s="9">
-        <v>551</v>
-      </c>
-      <c r="C153" t="s" s="10">
-        <v>552</v>
+        <v>401</v>
+      </c>
+      <c r="C153" t="n" s="10">
+        <v>825615.0</v>
       </c>
       <c r="D153" t="s" s="9">
-        <v>553</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="9">
-        <v>554</v>
+        <v>403</v>
       </c>
       <c r="B154" t="s" s="9">
-        <v>555</v>
-      </c>
-      <c r="C154" t="s" s="10">
-        <v>556</v>
+        <v>404</v>
+      </c>
+      <c r="C154" t="n" s="10">
+        <v>21.0</v>
       </c>
       <c r="D154" t="s" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="9">
-        <v>557</v>
+        <v>405</v>
       </c>
       <c r="B155" t="s" s="9">
-        <v>558</v>
-      </c>
-      <c r="C155" t="s" s="10">
-        <v>559</v>
+        <v>406</v>
+      </c>
+      <c r="C155" t="n" s="10">
+        <v>147181.0</v>
       </c>
       <c r="D155" t="s" s="9">
-        <v>560</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="9">
-        <v>561</v>
+        <v>408</v>
       </c>
       <c r="B156" t="s" s="9">
-        <v>562</v>
-      </c>
-      <c r="C156" t="s" s="10">
-        <v>563</v>
+        <v>409</v>
+      </c>
+      <c r="C156" t="n" s="10">
+        <v>41850.0</v>
       </c>
       <c r="D156" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="9">
-        <v>564</v>
+        <v>410</v>
       </c>
       <c r="B157" t="s" s="9">
-        <v>565</v>
-      </c>
-      <c r="C157" t="s" s="10">
-        <v>566</v>
+        <v>411</v>
+      </c>
+      <c r="C157" t="n" s="10">
+        <v>18575.0</v>
       </c>
       <c r="D157" t="s" s="9">
-        <v>288</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="9">
-        <v>567</v>
+        <v>412</v>
       </c>
       <c r="B158" t="s" s="9">
-        <v>568</v>
-      </c>
-      <c r="C158" t="s" s="10">
-        <v>569</v>
+        <v>413</v>
+      </c>
+      <c r="C158" t="n" s="10">
+        <v>270467.0</v>
       </c>
       <c r="D158" t="s" s="9">
-        <v>570</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="9">
-        <v>571</v>
+        <v>415</v>
       </c>
       <c r="B159" t="s" s="9">
-        <v>572</v>
-      </c>
-      <c r="C159" t="s" s="10">
-        <v>573</v>
+        <v>416</v>
+      </c>
+      <c r="C159" t="n" s="10">
+        <v>130373.0</v>
       </c>
       <c r="D159" t="s" s="9">
-        <v>574</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="9">
-        <v>575</v>
+        <v>418</v>
       </c>
       <c r="B160" t="s" s="9">
-        <v>576</v>
-      </c>
-      <c r="C160" t="s" s="10">
-        <v>577</v>
+        <v>419</v>
+      </c>
+      <c r="C160" t="n" s="10">
+        <v>1267000.0</v>
       </c>
       <c r="D160" t="s" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="9">
-        <v>578</v>
+        <v>420</v>
       </c>
       <c r="B161" t="s" s="9">
-        <v>579</v>
-      </c>
-      <c r="C161" t="s" s="10">
-        <v>580</v>
+        <v>421</v>
+      </c>
+      <c r="C161" t="n" s="10">
+        <v>923768.0</v>
       </c>
       <c r="D161" t="s" s="9">
-        <v>581</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="9">
-        <v>582</v>
+        <v>423</v>
       </c>
       <c r="B162" t="s" s="9">
-        <v>583</v>
-      </c>
-      <c r="C162" t="s" s="10">
-        <v>584</v>
+        <v>424</v>
+      </c>
+      <c r="C162" t="n" s="10">
+        <v>260.0</v>
       </c>
       <c r="D162" t="s" s="9">
-        <v>570</v>
+        <v>414</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="9">
-        <v>585</v>
+        <v>425</v>
       </c>
       <c r="B163" t="s" s="9">
-        <v>403</v>
-      </c>
-      <c r="C163" t="s" s="10">
-        <v>586</v>
+        <v>294</v>
+      </c>
+      <c r="C163" t="n" s="10">
+        <v>36.0</v>
       </c>
       <c r="D163" t="s" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="9">
-        <v>587</v>
+        <v>426</v>
       </c>
       <c r="B164" t="s" s="9">
-        <v>588</v>
-      </c>
-      <c r="C164" t="s" s="10">
-        <v>589</v>
+        <v>427</v>
+      </c>
+      <c r="C164" t="n" s="10">
+        <v>120538.0</v>
       </c>
       <c r="D164" t="s" s="9">
-        <v>590</v>
+        <v>428</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="9">
-        <v>591</v>
+        <v>429</v>
       </c>
       <c r="B165" t="s" s="9">
-        <v>592</v>
-      </c>
-      <c r="C165" t="s" s="10">
-        <v>593</v>
+        <v>430</v>
+      </c>
+      <c r="C165" t="n" s="10">
+        <v>25713.0</v>
       </c>
       <c r="D165" t="s" s="9">
-        <v>594</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="9">
-        <v>595</v>
+        <v>432</v>
       </c>
       <c r="B166" t="s" s="9">
-        <v>596</v>
-      </c>
-      <c r="C166" t="s" s="10">
-        <v>597</v>
+        <v>433</v>
+      </c>
+      <c r="C166" t="n" s="10">
+        <v>464.0</v>
       </c>
       <c r="D166" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="9">
-        <v>598</v>
+        <v>434</v>
       </c>
       <c r="B167" t="s" s="9">
-        <v>599</v>
-      </c>
-      <c r="C167" t="s" s="10">
-        <v>600</v>
+        <v>435</v>
+      </c>
+      <c r="C167" t="n" s="10">
+        <v>323802.0</v>
       </c>
       <c r="D167" t="s" s="9">
-        <v>601</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="9">
-        <v>602</v>
+        <v>437</v>
       </c>
       <c r="B168" t="s" s="9">
-        <v>603</v>
-      </c>
-      <c r="C168" t="s" s="10">
-        <v>604</v>
+        <v>438</v>
+      </c>
+      <c r="C168" t="n" s="10">
+        <v>309500.0</v>
       </c>
       <c r="D168" t="s" s="9">
-        <v>605</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="9">
-        <v>606</v>
+        <v>440</v>
       </c>
       <c r="B169" t="s" s="9">
-        <v>607</v>
-      </c>
-      <c r="C169" t="s" s="10">
-        <v>608</v>
+        <v>441</v>
+      </c>
+      <c r="C169" t="n" s="10">
+        <v>881912.0</v>
       </c>
       <c r="D169" t="s" s="9">
-        <v>609</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="9">
-        <v>610</v>
+        <v>443</v>
       </c>
       <c r="B170" t="s" s="9">
-        <v>611</v>
-      </c>
-      <c r="C170" t="s" s="10">
-        <v>612</v>
+        <v>444</v>
+      </c>
+      <c r="C170" t="n" s="10">
+        <v>459.0</v>
       </c>
       <c r="D170" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="9">
-        <v>613</v>
+        <v>445</v>
       </c>
       <c r="B171" t="s" s="9">
-        <v>614</v>
-      </c>
-      <c r="C171" t="s" s="10">
-        <v>615</v>
+        <v>446</v>
+      </c>
+      <c r="C171" t="n" s="10">
+        <v>6220.0</v>
       </c>
       <c r="D171" t="s" s="9">
-        <v>616</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="9">
-        <v>617</v>
+        <v>448</v>
       </c>
       <c r="B172" t="s" s="9">
-        <v>618</v>
-      </c>
-      <c r="C172" t="s" s="10">
-        <v>619</v>
+        <v>449</v>
+      </c>
+      <c r="C172" t="n" s="10">
+        <v>75417.0</v>
       </c>
       <c r="D172" t="s" s="9">
-        <v>620</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="9">
-        <v>621</v>
+        <v>451</v>
       </c>
       <c r="B173" t="s" s="9">
-        <v>622</v>
-      </c>
-      <c r="C173" t="s" s="10">
-        <v>623</v>
+        <v>452</v>
+      </c>
+      <c r="C173" t="n" s="10">
+        <v>462840.0</v>
       </c>
       <c r="D173" t="s" s="9">
-        <v>624</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="9">
-        <v>625</v>
+        <v>454</v>
       </c>
       <c r="B174" t="s" s="9">
-        <v>626</v>
-      </c>
-      <c r="C174" t="s" s="10">
-        <v>627</v>
+        <v>455</v>
+      </c>
+      <c r="C174" t="n" s="10">
+        <v>406752.0</v>
       </c>
       <c r="D174" t="s" s="9">
-        <v>628</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="9">
-        <v>629</v>
+        <v>457</v>
       </c>
       <c r="B175" t="s" s="9">
-        <v>630</v>
-      </c>
-      <c r="C175" t="s" s="10">
-        <v>631</v>
+        <v>458</v>
+      </c>
+      <c r="C175" t="n" s="10">
+        <v>1285216.0</v>
       </c>
       <c r="D175" t="s" s="9">
-        <v>632</v>
+        <v>459</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="9">
-        <v>633</v>
+        <v>460</v>
       </c>
       <c r="B176" t="s" s="9">
-        <v>634</v>
-      </c>
-      <c r="C176" t="s" s="10">
-        <v>635</v>
+        <v>461</v>
+      </c>
+      <c r="C176" t="n" s="10">
+        <v>342353.0</v>
       </c>
       <c r="D176" t="s" s="9">
-        <v>636</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="9">
-        <v>637</v>
+        <v>463</v>
       </c>
       <c r="B177" t="s" s="9">
-        <v>638</v>
-      </c>
-      <c r="C177" t="s" s="10">
-        <v>639</v>
+        <v>464</v>
+      </c>
+      <c r="C177" t="n" s="10">
+        <v>47.0</v>
       </c>
       <c r="D177" t="s" s="9">
-        <v>570</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="9">
-        <v>640</v>
+        <v>465</v>
       </c>
       <c r="B178" t="s" s="9">
-        <v>641</v>
-      </c>
-      <c r="C178" t="s" s="10">
-        <v>642</v>
+        <v>466</v>
+      </c>
+      <c r="C178" t="n" s="10">
+        <v>312679.0</v>
       </c>
       <c r="D178" t="s" s="9">
-        <v>643</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="9">
-        <v>644</v>
+        <v>468</v>
       </c>
       <c r="B179" t="s" s="9">
-        <v>645</v>
-      </c>
-      <c r="C179" t="s" s="10">
-        <v>646</v>
+        <v>469</v>
+      </c>
+      <c r="C179" t="n" s="10">
+        <v>92090.0</v>
       </c>
       <c r="D179" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="9">
-        <v>647</v>
+        <v>470</v>
       </c>
       <c r="B180" t="s" s="9">
-        <v>648</v>
-      </c>
-      <c r="C180" t="s" s="10">
-        <v>649</v>
+        <v>471</v>
+      </c>
+      <c r="C180" t="n" s="10">
+        <v>8870.0</v>
       </c>
       <c r="D180" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="9">
-        <v>650</v>
+        <v>472</v>
       </c>
       <c r="B181" t="s" s="9">
-        <v>651</v>
-      </c>
-      <c r="C181" t="s" s="10">
-        <v>652</v>
+        <v>473</v>
+      </c>
+      <c r="C181" t="n" s="10">
+        <v>11586.0</v>
       </c>
       <c r="D181" t="s" s="9">
-        <v>653</v>
+        <v>474</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="9">
-        <v>654</v>
+        <v>475</v>
       </c>
       <c r="B182" t="s" s="9">
-        <v>655</v>
-      </c>
-      <c r="C182" t="s" s="10">
-        <v>656</v>
+        <v>476</v>
+      </c>
+      <c r="C182" t="n" s="10">
+        <v>342000.0</v>
       </c>
       <c r="D182" t="s" s="9">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="9">
-        <v>657</v>
+        <v>477</v>
       </c>
       <c r="B183" t="s" s="9">
-        <v>658</v>
-      </c>
-      <c r="C183" t="s" s="10">
-        <v>659</v>
+        <v>478</v>
+      </c>
+      <c r="C183" t="n" s="10">
+        <v>238391.0</v>
       </c>
       <c r="D183" t="s" s="9">
-        <v>660</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="9">
-        <v>661</v>
+        <v>480</v>
       </c>
       <c r="B184" t="s" s="9">
-        <v>662</v>
-      </c>
-      <c r="C184" t="s" s="10">
-        <v>663</v>
+        <v>481</v>
+      </c>
+      <c r="C184" t="n" s="10">
+        <v>1.7098242E7</v>
       </c>
       <c r="D184" t="s" s="9">
-        <v>664</v>
+        <v>482</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="9">
-        <v>665</v>
+        <v>483</v>
       </c>
       <c r="B185" t="s" s="9">
-        <v>666</v>
-      </c>
-      <c r="C185" t="s" s="10">
-        <v>667</v>
+        <v>484</v>
+      </c>
+      <c r="C185" t="n" s="10">
+        <v>26338.0</v>
       </c>
       <c r="D185" t="s" s="9">
-        <v>668</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="9">
-        <v>669</v>
+        <v>486</v>
       </c>
       <c r="B186" t="s" s="9">
-        <v>670</v>
-      </c>
-      <c r="C186" t="s" s="10">
-        <v>671</v>
+        <v>487</v>
+      </c>
+      <c r="C186" t="n" s="10">
+        <v>2511.0</v>
       </c>
       <c r="D186" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="9">
-        <v>672</v>
+        <v>488</v>
       </c>
       <c r="B187" t="s" s="9">
-        <v>673</v>
-      </c>
-      <c r="C187" t="s" s="10">
-        <v>556</v>
+        <v>489</v>
+      </c>
+      <c r="C187" t="n" s="10">
+        <v>21.0</v>
       </c>
       <c r="D187" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="9">
-        <v>674</v>
+        <v>490</v>
       </c>
       <c r="B188" t="s" s="9">
-        <v>675</v>
-      </c>
-      <c r="C188" t="s" s="10">
-        <v>676</v>
+        <v>491</v>
+      </c>
+      <c r="C188" t="n" s="10">
+        <v>394.0</v>
       </c>
       <c r="D188" t="s" s="9">
-        <v>677</v>
+        <v>492</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="9">
-        <v>678</v>
+        <v>493</v>
       </c>
       <c r="B189" t="s" s="9">
-        <v>679</v>
-      </c>
-      <c r="C189" t="s" s="10">
-        <v>680</v>
+        <v>494</v>
+      </c>
+      <c r="C189" t="n" s="10">
+        <v>261.0</v>
       </c>
       <c r="D189" t="s" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="9">
-        <v>681</v>
+        <v>495</v>
       </c>
       <c r="B190" t="s" s="9">
-        <v>682</v>
-      </c>
-      <c r="C190" t="s" s="10">
-        <v>683</v>
+        <v>496</v>
+      </c>
+      <c r="C190" t="n" s="10">
+        <v>616.0</v>
       </c>
       <c r="D190" t="s" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="9">
-        <v>684</v>
+        <v>497</v>
       </c>
       <c r="B191" t="s" s="9">
-        <v>685</v>
-      </c>
-      <c r="C191" t="s" s="10">
-        <v>686</v>
+        <v>498</v>
+      </c>
+      <c r="C191" t="n" s="10">
+        <v>53.0</v>
       </c>
       <c r="D191" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="9">
-        <v>687</v>
+        <v>499</v>
       </c>
       <c r="B192" t="s" s="9">
-        <v>688</v>
-      </c>
-      <c r="C192" t="s" s="10">
-        <v>689</v>
+        <v>500</v>
+      </c>
+      <c r="C192" t="n" s="10">
+        <v>242.0</v>
       </c>
       <c r="D192" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="9">
-        <v>690</v>
+        <v>501</v>
       </c>
       <c r="B193" t="s" s="9">
-        <v>691</v>
-      </c>
-      <c r="C193" t="s" s="10">
-        <v>692</v>
+        <v>502</v>
+      </c>
+      <c r="C193" t="n" s="10">
+        <v>389.0</v>
       </c>
       <c r="D193" t="s" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="9">
-        <v>693</v>
+        <v>503</v>
       </c>
       <c r="B194" t="s" s="9">
-        <v>694</v>
-      </c>
-      <c r="C194" t="s" s="10">
-        <v>695</v>
+        <v>504</v>
+      </c>
+      <c r="C194" t="n" s="10">
+        <v>2842.0</v>
       </c>
       <c r="D194" t="s" s="9">
-        <v>696</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="9">
-        <v>697</v>
+        <v>506</v>
       </c>
       <c r="B195" t="s" s="9">
-        <v>698</v>
-      </c>
-      <c r="C195" t="s" s="10">
-        <v>699</v>
+        <v>507</v>
+      </c>
+      <c r="C195" t="n" s="10">
+        <v>61.0</v>
       </c>
       <c r="D195" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="9">
-        <v>700</v>
+        <v>508</v>
       </c>
       <c r="B196" t="s" s="9">
-        <v>701</v>
-      </c>
-      <c r="C196" t="s" s="10">
-        <v>702</v>
+        <v>509</v>
+      </c>
+      <c r="C196" t="n" s="10">
+        <v>2149690.0</v>
       </c>
       <c r="D196" t="s" s="9">
-        <v>703</v>
+        <v>510</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="9">
-        <v>704</v>
+        <v>511</v>
       </c>
       <c r="B197" t="s" s="9">
-        <v>705</v>
-      </c>
-      <c r="C197" t="s" s="10">
-        <v>706</v>
+        <v>512</v>
+      </c>
+      <c r="C197" t="n" s="10">
+        <v>196722.0</v>
       </c>
       <c r="D197" t="s" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="9">
-        <v>707</v>
+        <v>513</v>
       </c>
       <c r="B198" t="s" s="9">
-        <v>708</v>
-      </c>
-      <c r="C198" t="s" s="10">
-        <v>709</v>
+        <v>514</v>
+      </c>
+      <c r="C198" t="n" s="10">
+        <v>88361.0</v>
       </c>
       <c r="D198" t="s" s="9">
-        <v>710</v>
+        <v>515</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="9">
-        <v>711</v>
+        <v>516</v>
       </c>
       <c r="B199" t="s" s="9">
-        <v>712</v>
-      </c>
-      <c r="C199" t="s" s="10">
-        <v>713</v>
+        <v>517</v>
+      </c>
+      <c r="C199" t="n" s="10">
+        <v>452.0</v>
       </c>
       <c r="D199" t="s" s="9">
-        <v>714</v>
+        <v>518</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="9">
-        <v>715</v>
+        <v>519</v>
       </c>
       <c r="B200" t="s" s="9">
-        <v>716</v>
-      </c>
-      <c r="C200" t="s" s="10">
-        <v>717</v>
+        <v>520</v>
+      </c>
+      <c r="C200" t="n" s="10">
+        <v>71740.0</v>
       </c>
       <c r="D200" t="s" s="9">
-        <v>718</v>
+        <v>521</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="9">
-        <v>719</v>
+        <v>522</v>
       </c>
       <c r="B201" t="s" s="9">
-        <v>719</v>
-      </c>
-      <c r="C201" t="s" s="10">
-        <v>720</v>
+        <v>522</v>
+      </c>
+      <c r="C201" t="n" s="10">
+        <v>710.0</v>
       </c>
       <c r="D201" t="s" s="9">
-        <v>721</v>
+        <v>523</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="9">
-        <v>722</v>
+        <v>524</v>
       </c>
       <c r="B202" t="s" s="9">
-        <v>723</v>
-      </c>
-      <c r="C202" t="s" s="10">
-        <v>724</v>
+        <v>525</v>
+      </c>
+      <c r="C202" t="n" s="10">
+        <v>34.0</v>
       </c>
       <c r="D202" t="s" s="9">
-        <v>210</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="9">
-        <v>725</v>
+        <v>526</v>
       </c>
       <c r="B203" t="s" s="9">
-        <v>726</v>
-      </c>
-      <c r="C203" t="s" s="10">
-        <v>727</v>
+        <v>527</v>
+      </c>
+      <c r="C203" t="n" s="10">
+        <v>49037.0</v>
       </c>
       <c r="D203" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="9">
-        <v>728</v>
+        <v>528</v>
       </c>
       <c r="B204" t="s" s="9">
-        <v>729</v>
-      </c>
-      <c r="C204" t="s" s="10">
-        <v>730</v>
+        <v>529</v>
+      </c>
+      <c r="C204" t="n" s="10">
+        <v>20273.0</v>
       </c>
       <c r="D204" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="9">
-        <v>731</v>
+        <v>530</v>
       </c>
       <c r="B205" t="s" s="9">
-        <v>732</v>
-      </c>
-      <c r="C205" t="s" s="10">
-        <v>733</v>
+        <v>531</v>
+      </c>
+      <c r="C205" t="n" s="10">
+        <v>28896.0</v>
       </c>
       <c r="D205" t="s" s="9">
-        <v>734</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="9">
-        <v>735</v>
+        <v>533</v>
       </c>
       <c r="B206" t="s" s="9">
-        <v>736</v>
-      </c>
-      <c r="C206" t="s" s="10">
-        <v>737</v>
+        <v>534</v>
+      </c>
+      <c r="C206" t="n" s="10">
+        <v>637657.0</v>
       </c>
       <c r="D206" t="s" s="9">
-        <v>738</v>
+        <v>535</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="9">
-        <v>739</v>
+        <v>536</v>
       </c>
       <c r="B207" t="s" s="9">
-        <v>740</v>
-      </c>
-      <c r="C207" t="s" s="10">
-        <v>741</v>
+        <v>537</v>
+      </c>
+      <c r="C207" t="n" s="10">
+        <v>1221037.0</v>
       </c>
       <c r="D207" t="s" s="9">
-        <v>742</v>
+        <v>538</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="9">
-        <v>743</v>
+        <v>539</v>
       </c>
       <c r="B208" t="s" s="9">
-        <v>744</v>
-      </c>
-      <c r="C208" t="s" s="10">
-        <v>745</v>
+        <v>540</v>
+      </c>
+      <c r="C208" t="n" s="10">
+        <v>3903.0</v>
       </c>
       <c r="D208" t="s" s="9">
-        <v>746</v>
+        <v>541</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="9">
-        <v>747</v>
+        <v>542</v>
       </c>
       <c r="B209" t="s" s="9">
-        <v>748</v>
-      </c>
-      <c r="C209" t="s" s="10">
-        <v>749</v>
+        <v>543</v>
+      </c>
+      <c r="C209" t="n" s="10">
+        <v>100210.0</v>
       </c>
       <c r="D209" t="s" s="9">
-        <v>750</v>
+        <v>544</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="9">
-        <v>751</v>
+        <v>545</v>
       </c>
       <c r="B210" t="s" s="9">
-        <v>752</v>
-      </c>
-      <c r="C210" t="s" s="10">
-        <v>753</v>
+        <v>546</v>
+      </c>
+      <c r="C210" t="n" s="10">
+        <v>619745.0</v>
       </c>
       <c r="D210" t="s" s="9">
-        <v>754</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="9">
-        <v>755</v>
+        <v>548</v>
       </c>
       <c r="B211" t="s" s="9">
-        <v>756</v>
-      </c>
-      <c r="C211" t="s" s="10">
-        <v>757</v>
+        <v>549</v>
+      </c>
+      <c r="C211" t="n" s="10">
+        <v>505992.0</v>
       </c>
       <c r="D211" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="9">
-        <v>758</v>
+        <v>550</v>
       </c>
       <c r="B212" t="s" s="9">
-        <v>759</v>
-      </c>
-      <c r="C212" t="s" s="10">
-        <v>760</v>
+        <v>551</v>
+      </c>
+      <c r="C212" t="n" s="10">
+        <v>65610.0</v>
       </c>
       <c r="D212" t="s" s="9">
-        <v>761</v>
+        <v>552</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="9">
-        <v>762</v>
+        <v>553</v>
       </c>
       <c r="B213" t="s" s="9">
-        <v>763</v>
-      </c>
-      <c r="C213" t="s" s="10">
-        <v>764</v>
+        <v>554</v>
+      </c>
+      <c r="C213" t="n" s="10">
+        <v>1886068.0</v>
       </c>
       <c r="D213" t="s" s="9">
-        <v>765</v>
+        <v>555</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="9">
-        <v>766</v>
+        <v>556</v>
       </c>
       <c r="B214" t="s" s="9">
-        <v>767</v>
-      </c>
-      <c r="C214" t="s" s="10">
-        <v>768</v>
+        <v>557</v>
+      </c>
+      <c r="C214" t="n" s="10">
+        <v>163820.0</v>
       </c>
       <c r="D214" t="s" s="9">
-        <v>769</v>
+        <v>558</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="9">
-        <v>770</v>
+        <v>559</v>
       </c>
       <c r="B215" t="s" s="9">
-        <v>771</v>
-      </c>
-      <c r="C215" t="s" s="10">
-        <v>772</v>
+        <v>560</v>
+      </c>
+      <c r="C215" t="n" s="10">
+        <v>-1.0</v>
       </c>
       <c r="D215" t="s" s="9">
-        <v>601</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="9">
-        <v>773</v>
+        <v>561</v>
       </c>
       <c r="B216" t="s" s="9">
-        <v>774</v>
-      </c>
-      <c r="C216" t="s" s="10">
-        <v>775</v>
+        <v>562</v>
+      </c>
+      <c r="C216" t="n" s="10">
+        <v>450295.0</v>
       </c>
       <c r="D216" t="s" s="9">
-        <v>776</v>
+        <v>563</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="9">
-        <v>777</v>
+        <v>564</v>
       </c>
       <c r="B217" t="s" s="9">
-        <v>778</v>
-      </c>
-      <c r="C217" t="s" s="10">
-        <v>779</v>
+        <v>565</v>
+      </c>
+      <c r="C217" t="n" s="10">
+        <v>41284.0</v>
       </c>
       <c r="D217" t="s" s="9">
-        <v>467</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="9">
-        <v>780</v>
+        <v>566</v>
       </c>
       <c r="B218" t="s" s="9">
-        <v>781</v>
-      </c>
-      <c r="C218" t="s" s="10">
-        <v>782</v>
+        <v>567</v>
+      </c>
+      <c r="C218" t="n" s="10">
+        <v>185180.0</v>
       </c>
       <c r="D218" t="s" s="9">
-        <v>783</v>
+        <v>568</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="9">
-        <v>784</v>
+        <v>569</v>
       </c>
       <c r="B219" t="s" s="9">
-        <v>785</v>
-      </c>
-      <c r="C219" t="s" s="10">
-        <v>786</v>
+        <v>570</v>
+      </c>
+      <c r="C219" t="n" s="10">
+        <v>964.0</v>
       </c>
       <c r="D219" t="s" s="9">
-        <v>787</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="9">
-        <v>788</v>
+        <v>572</v>
       </c>
       <c r="B220" t="s" s="9">
-        <v>789</v>
-      </c>
-      <c r="C220" t="s" s="10">
-        <v>790</v>
+        <v>573</v>
+      </c>
+      <c r="C220" t="n" s="10">
+        <v>36193.0</v>
       </c>
       <c r="D220" t="s" s="9">
-        <v>791</v>
+        <v>574</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="9">
-        <v>792</v>
+        <v>575</v>
       </c>
       <c r="B221" t="s" s="9">
-        <v>793</v>
-      </c>
-      <c r="C221" t="s" s="10">
-        <v>794</v>
+        <v>576</v>
+      </c>
+      <c r="C221" t="n" s="10">
+        <v>143100.0</v>
       </c>
       <c r="D221" t="s" s="9">
-        <v>795</v>
+        <v>577</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="9">
-        <v>796</v>
+        <v>578</v>
       </c>
       <c r="B222" t="s" s="9">
-        <v>797</v>
-      </c>
-      <c r="C222" t="s" s="10">
-        <v>798</v>
+        <v>579</v>
+      </c>
+      <c r="C222" t="n" s="10">
+        <v>945087.0</v>
       </c>
       <c r="D222" t="s" s="9">
-        <v>799</v>
+        <v>580</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="9">
-        <v>800</v>
+        <v>581</v>
       </c>
       <c r="B223" t="s" s="9">
-        <v>801</v>
-      </c>
-      <c r="C223" t="s" s="10">
-        <v>802</v>
+        <v>582</v>
+      </c>
+      <c r="C223" t="n" s="10">
+        <v>513120.0</v>
       </c>
       <c r="D223" t="s" s="9">
-        <v>803</v>
+        <v>583</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="9">
-        <v>804</v>
+        <v>584</v>
       </c>
       <c r="B224" t="s" s="9">
-        <v>805</v>
-      </c>
-      <c r="C224" t="s" s="10">
-        <v>806</v>
+        <v>585</v>
+      </c>
+      <c r="C224" t="n" s="10">
+        <v>14874.0</v>
       </c>
       <c r="D224" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="9">
-        <v>807</v>
+        <v>586</v>
       </c>
       <c r="B225" t="s" s="9">
-        <v>808</v>
-      </c>
-      <c r="C225" t="s" s="10">
-        <v>809</v>
+        <v>587</v>
+      </c>
+      <c r="C225" t="n" s="10">
+        <v>56785.0</v>
       </c>
       <c r="D225" t="s" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="9">
-        <v>810</v>
+        <v>588</v>
       </c>
       <c r="B226" t="s" s="9">
-        <v>811</v>
-      </c>
-      <c r="C226" t="s" s="10">
-        <v>812</v>
+        <v>589</v>
+      </c>
+      <c r="C226" t="n" s="10">
+        <v>12.0</v>
       </c>
       <c r="D226" t="s" s="9">
-        <v>570</v>
+        <v>414</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="9">
-        <v>813</v>
+        <v>590</v>
       </c>
       <c r="B227" t="s" s="9">
-        <v>814</v>
-      </c>
-      <c r="C227" t="s" s="10">
-        <v>815</v>
+        <v>591</v>
+      </c>
+      <c r="C227" t="n" s="10">
+        <v>747.0</v>
       </c>
       <c r="D227" t="s" s="9">
-        <v>816</v>
+        <v>592</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="9">
-        <v>817</v>
+        <v>593</v>
       </c>
       <c r="B228" t="s" s="9">
-        <v>818</v>
-      </c>
-      <c r="C228" t="s" s="10">
-        <v>819</v>
+        <v>594</v>
+      </c>
+      <c r="C228" t="n" s="10">
+        <v>5130.0</v>
       </c>
       <c r="D228" t="s" s="9">
-        <v>820</v>
+        <v>595</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="9">
-        <v>821</v>
+        <v>596</v>
       </c>
       <c r="B229" t="s" s="9">
-        <v>822</v>
-      </c>
-      <c r="C229" t="s" s="10">
-        <v>823</v>
+        <v>597</v>
+      </c>
+      <c r="C229" t="n" s="10">
+        <v>163610.0</v>
       </c>
       <c r="D229" t="s" s="9">
-        <v>824</v>
+        <v>598</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="9">
-        <v>825</v>
+        <v>599</v>
       </c>
       <c r="B230" t="s" s="9">
-        <v>826</v>
-      </c>
-      <c r="C230" t="s" s="10">
-        <v>827</v>
+        <v>600</v>
+      </c>
+      <c r="C230" t="n" s="10">
+        <v>783562.0</v>
       </c>
       <c r="D230" t="s" s="9">
-        <v>828</v>
+        <v>601</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="9">
-        <v>829</v>
+        <v>602</v>
       </c>
       <c r="B231" t="s" s="9">
-        <v>830</v>
-      </c>
-      <c r="C231" t="s" s="10">
-        <v>831</v>
+        <v>603</v>
+      </c>
+      <c r="C231" t="n" s="10">
+        <v>488100.0</v>
       </c>
       <c r="D231" t="s" s="9">
-        <v>832</v>
+        <v>604</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="9">
-        <v>833</v>
+        <v>605</v>
       </c>
       <c r="B232" t="s" s="9">
-        <v>834</v>
-      </c>
-      <c r="C232" t="s" s="10">
-        <v>835</v>
+        <v>606</v>
+      </c>
+      <c r="C232" t="n" s="10">
+        <v>948.0</v>
       </c>
       <c r="D232" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="9">
-        <v>836</v>
+        <v>607</v>
       </c>
       <c r="B233" t="s" s="9">
-        <v>837</v>
-      </c>
-      <c r="C233" t="s" s="10">
-        <v>838</v>
+        <v>608</v>
+      </c>
+      <c r="C233" t="n" s="10">
+        <v>26.0</v>
       </c>
       <c r="D233" t="s" s="9">
-        <v>839</v>
+        <v>609</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="9">
-        <v>840</v>
+        <v>610</v>
       </c>
       <c r="B234" t="s" s="9">
-        <v>841</v>
-      </c>
-      <c r="C234" t="s" s="10">
-        <v>842</v>
+        <v>611</v>
+      </c>
+      <c r="C234" t="n" s="10">
+        <v>241550.0</v>
       </c>
       <c r="D234" t="s" s="9">
-        <v>843</v>
+        <v>612</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="9">
-        <v>844</v>
+        <v>613</v>
       </c>
       <c r="B235" t="s" s="9">
-        <v>845</v>
-      </c>
-      <c r="C235" t="s" s="10">
-        <v>846</v>
+        <v>614</v>
+      </c>
+      <c r="C235" t="n" s="10">
+        <v>603500.0</v>
       </c>
       <c r="D235" t="s" s="9">
-        <v>847</v>
+        <v>615</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="9">
-        <v>848</v>
+        <v>616</v>
       </c>
       <c r="B236" t="s" s="9">
-        <v>849</v>
-      </c>
-      <c r="C236" t="s" s="10">
-        <v>850</v>
+        <v>617</v>
+      </c>
+      <c r="C236" t="n" s="10">
+        <v>83600.0</v>
       </c>
       <c r="D236" t="s" s="9">
-        <v>851</v>
+        <v>618</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="9">
-        <v>852</v>
+        <v>619</v>
       </c>
       <c r="B237" t="s" s="9">
-        <v>853</v>
-      </c>
-      <c r="C237" t="s" s="10">
-        <v>854</v>
+        <v>620</v>
+      </c>
+      <c r="C237" t="n" s="10">
+        <v>242900.0</v>
       </c>
       <c r="D237" t="s" s="9">
-        <v>855</v>
+        <v>621</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="9">
-        <v>856</v>
+        <v>622</v>
       </c>
       <c r="B238" t="s" s="9">
-        <v>857</v>
-      </c>
-      <c r="C238" t="s" s="10">
-        <v>858</v>
+        <v>623</v>
+      </c>
+      <c r="C238" t="n" s="10">
+        <v>9372610.0</v>
       </c>
       <c r="D238" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="9">
-        <v>859</v>
+        <v>624</v>
       </c>
       <c r="B239" t="s" s="9">
-        <v>860</v>
-      </c>
-      <c r="C239" t="s" s="10">
-        <v>861</v>
+        <v>625</v>
+      </c>
+      <c r="C239" t="n" s="10">
+        <v>34.2</v>
       </c>
       <c r="D239" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="9">
-        <v>862</v>
+        <v>626</v>
       </c>
       <c r="B240" t="s" s="9">
-        <v>863</v>
-      </c>
-      <c r="C240" t="s" s="10">
-        <v>864</v>
+        <v>627</v>
+      </c>
+      <c r="C240" t="n" s="10">
+        <v>347.0</v>
       </c>
       <c r="D240" t="s" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="9">
-        <v>865</v>
+        <v>628</v>
       </c>
       <c r="B241" t="s" s="9">
-        <v>866</v>
-      </c>
-      <c r="C241" t="s" s="10">
-        <v>867</v>
+        <v>629</v>
+      </c>
+      <c r="C241" t="n" s="10">
+        <v>181034.0</v>
       </c>
       <c r="D241" t="s" s="9">
-        <v>868</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="9">
-        <v>869</v>
+        <v>631</v>
       </c>
       <c r="B242" t="s" s="9">
-        <v>870</v>
-      </c>
-      <c r="C242" t="s" s="10">
-        <v>871</v>
+        <v>632</v>
+      </c>
+      <c r="C242" t="n" s="10">
+        <v>447400.0</v>
       </c>
       <c r="D242" t="s" s="9">
-        <v>872</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="9">
-        <v>873</v>
+        <v>634</v>
       </c>
       <c r="B243" t="s" s="9">
-        <v>874</v>
-      </c>
-      <c r="C243" t="s" s="10">
-        <v>875</v>
+        <v>635</v>
+      </c>
+      <c r="C243" t="n" s="10">
+        <v>12189.0</v>
       </c>
       <c r="D243" t="s" s="9">
-        <v>876</v>
+        <v>636</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="9">
-        <v>877</v>
+        <v>637</v>
       </c>
       <c r="B244" t="s" s="9">
-        <v>877</v>
-      </c>
-      <c r="C244" t="s" s="10">
-        <v>878</v>
+        <v>637</v>
+      </c>
+      <c r="C244" t="n" s="10">
+        <v>0.44</v>
       </c>
       <c r="D244" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="9">
-        <v>879</v>
+        <v>638</v>
       </c>
       <c r="B245" t="s" s="9">
-        <v>880</v>
-      </c>
-      <c r="C245" t="s" s="10">
-        <v>881</v>
+        <v>639</v>
+      </c>
+      <c r="C245" t="n" s="10">
+        <v>916445.0</v>
       </c>
       <c r="D245" t="s" s="9">
-        <v>882</v>
+        <v>640</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="9">
-        <v>883</v>
+        <v>641</v>
       </c>
       <c r="B246" t="s" s="9">
-        <v>884</v>
-      </c>
-      <c r="C246" t="s" s="10">
-        <v>885</v>
+        <v>642</v>
+      </c>
+      <c r="C246" t="n" s="10">
+        <v>331212.0</v>
       </c>
       <c r="D246" t="s" s="9">
-        <v>886</v>
+        <v>643</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="9">
-        <v>887</v>
+        <v>644</v>
       </c>
       <c r="B247" t="s" s="9">
-        <v>888</v>
-      </c>
-      <c r="C247" t="s" s="10">
-        <v>889</v>
+        <v>645</v>
+      </c>
+      <c r="C247" t="n" s="10">
+        <v>142.0</v>
       </c>
       <c r="D247" t="s" s="9">
-        <v>288</v>
+        <v>211</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="9">
-        <v>890</v>
+        <v>646</v>
       </c>
       <c r="B248" t="s" s="9">
-        <v>891</v>
-      </c>
-      <c r="C248" t="s" s="10">
-        <v>892</v>
+        <v>647</v>
+      </c>
+      <c r="C248" t="n" s="10">
+        <v>266000.0</v>
       </c>
       <c r="D248" t="s" s="9">
-        <v>893</v>
+        <v>648</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="9">
-        <v>894</v>
+        <v>649</v>
       </c>
       <c r="B249" t="s" s="9">
-        <v>895</v>
-      </c>
-      <c r="C249" t="s" s="10">
-        <v>896</v>
+        <v>650</v>
+      </c>
+      <c r="C249" t="n" s="10">
+        <v>527968.0</v>
       </c>
       <c r="D249" t="s" s="9">
-        <v>897</v>
+        <v>651</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="9">
-        <v>898</v>
+        <v>652</v>
       </c>
       <c r="B250" t="s" s="9">
-        <v>899</v>
-      </c>
-      <c r="C250" t="s" s="10">
-        <v>900</v>
+        <v>653</v>
+      </c>
+      <c r="C250" t="n" s="10">
+        <v>752612.0</v>
       </c>
       <c r="D250" t="s" s="9">
-        <v>901</v>
+        <v>654</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="9">
-        <v>902</v>
+        <v>655</v>
       </c>
       <c r="B251" t="s" s="9">
-        <v>903</v>
-      </c>
-      <c r="C251" t="s" s="10">
-        <v>904</v>
+        <v>656</v>
+      </c>
+      <c r="C251" t="n" s="10">
+        <v>390757.0</v>
       </c>
       <c r="D251" t="s" s="9">
-        <v>905</v>
+        <v>657</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="9">
-        <v>906</v>
+        <v>658</v>
       </c>
       <c r="B252" t="s" s="9">
-        <v>907</v>
-      </c>
-      <c r="C252" t="s" s="10">
-        <v>908</v>
+        <v>659</v>
+      </c>
+      <c r="C252" t="n" s="10">
+        <v>1580.0</v>
       </c>
       <c r="D252" t="s" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
